--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_seaice.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_seaice.xlsx
@@ -8,18 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Key Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Grid" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Dynamics" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Thermodynamics" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Radiative Processes" sheetId="6" r:id="rId6"/>
+    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="4. Dynamics" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Thermodynamics" sheetId="6" r:id="rId6"/>
+    <sheet name="6. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="592">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -51,19 +52,28 @@
     <t>Sub-Topics</t>
   </si>
   <si>
-    <t>1. Key Properties</t>
-  </si>
-  <si>
-    <t>2. Grid</t>
-  </si>
-  <si>
-    <t>3. Dynamics</t>
-  </si>
-  <si>
-    <t>4. Thermodynamics</t>
-  </si>
-  <si>
-    <t>5. Radiative Processes</t>
+    <t>1. Parties &amp; Citations</t>
+  </si>
+  <si>
+    <t>2. Key Properties</t>
+  </si>
+  <si>
+    <t>3. Grid</t>
+  </si>
+  <si>
+    <t>4. Dynamics</t>
+  </si>
+  <si>
+    <t>5. Thermodynamics</t>
+  </si>
+  <si>
+    <t>6. Radiative Processes</t>
+  </si>
+  <si>
+    <t>How To Use</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-document-spreadsheets</t>
   </si>
   <si>
     <t>Further Info</t>
@@ -78,31 +88,58 @@
     <t>1.0.2</t>
   </si>
   <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Parties &amp; Citations</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Mnemonic references to responsible parties</t>
+  </si>
+  <si>
+    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Mnemonic references to citations</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Key Properties</t>
   </si>
   <si>
     <t>Sea Ice key properties</t>
   </si>
   <si>
-    <t>1.1.1 *</t>
+    <t>2.1.1 *</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>Name of seaice model code</t>
   </si>
   <si>
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
-    <t>1.1.2 *</t>
+    <t>2.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -117,7 +154,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>1.1.3 *</t>
+    <t>2.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -132,7 +169,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Variables</t>
@@ -141,7 +178,7 @@
     <t>List of prognostic variable in the sea ice model.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1 </t>
+    <t xml:space="preserve">2.2.1 </t>
   </si>
   <si>
     <t>Overview of list of prognostic variable in the sea ice model. in seaice model.</t>
@@ -150,7 +187,7 @@
     <t>cmip6.seaice.key_properties.variables.overview</t>
   </si>
   <si>
-    <t>1.2.2 *</t>
+    <t>2.2.2 *</t>
   </si>
   <si>
     <t>Prognostic</t>
@@ -165,9 +202,6 @@
     <t>cmip6.seaice.key_properties.variables.prognostic</t>
   </si>
   <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
     <t>Other: concentration, ice thickness, snow thickness, ice temperature, horizontal velocity</t>
   </si>
   <si>
@@ -207,7 +241,7 @@
     <t>Other: document to the right</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>Key Properties --&gt; Seawater Properties</t>
@@ -216,7 +250,7 @@
     <t>Properties of seawater relevant to sea ice</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.1 </t>
+    <t xml:space="preserve">2.3.1 </t>
   </si>
   <si>
     <t>Overview of properties of seawater relevant to sea ice in seaice model.</t>
@@ -225,7 +259,7 @@
     <t>cmip6.seaice.key_properties.seawater_properties.overview</t>
   </si>
   <si>
-    <t>1.3.2 *</t>
+    <t>2.3.2 *</t>
   </si>
   <si>
     <t>Ocean Freezing Point</t>
@@ -243,7 +277,7 @@
     <t>Constant</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.3 </t>
+    <t xml:space="preserve">2.3.3 </t>
   </si>
   <si>
     <t>Ocean Freezing Point Value</t>
@@ -258,7 +292,7 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point_value</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>Key Properties --&gt; Resolution</t>
@@ -267,7 +301,7 @@
     <t>Resolution of the sea ice grid</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1 </t>
+    <t xml:space="preserve">2.4.1 </t>
   </si>
   <si>
     <t>Overview of resolution of the sea ice grid in seaice model.</t>
@@ -276,7 +310,7 @@
     <t>cmip6.seaice.key_properties.resolution.overview</t>
   </si>
   <si>
-    <t>1.4.2 *</t>
+    <t>2.4.2 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid e.g. N512L180, T512L70, ORCA025 etc.</t>
@@ -285,7 +319,7 @@
     <t>cmip6.seaice.key_properties.resolution.name</t>
   </si>
   <si>
-    <t>1.4.3 *</t>
+    <t>2.4.3 *</t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -297,7 +331,7 @@
     <t>cmip6.seaice.key_properties.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t>1.4.4 *</t>
+    <t>2.4.4 *</t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -312,7 +346,7 @@
     <t>cmip6.seaice.key_properties.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -321,7 +355,7 @@
     <t>Tuning applied to sea ice model component</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.1 </t>
+    <t xml:space="preserve">2.5.1 </t>
   </si>
   <si>
     <t>Overview of tuning applied to sea ice model component in seaice model.</t>
@@ -330,7 +364,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.overview</t>
   </si>
   <si>
-    <t>1.5.2 *</t>
+    <t>2.5.2 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -342,7 +376,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t>1.5.3 *</t>
+    <t>2.5.3 *</t>
   </si>
   <si>
     <t>Target</t>
@@ -354,7 +388,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.target</t>
   </si>
   <si>
-    <t>1.5.4 *</t>
+    <t>2.5.4 *</t>
   </si>
   <si>
     <t>Simulations</t>
@@ -366,7 +400,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.simulations</t>
   </si>
   <si>
-    <t>1.5.5 *</t>
+    <t>2.5.5 *</t>
   </si>
   <si>
     <t>Metrics Used</t>
@@ -378,7 +412,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.6 </t>
+    <t xml:space="preserve">2.5.6 </t>
   </si>
   <si>
     <t>Variables</t>
@@ -390,7 +424,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.variables</t>
   </si>
   <si>
-    <t>1.6</t>
+    <t>2.6</t>
   </si>
   <si>
     <t>Key Properties --&gt; Key Parameter Values</t>
@@ -399,7 +433,7 @@
     <t>Values of key parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.1 </t>
+    <t xml:space="preserve">2.6.1 </t>
   </si>
   <si>
     <t>Overview of values of key parameters in seaice model.</t>
@@ -408,7 +442,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.2 </t>
+    <t xml:space="preserve">2.6.2 </t>
   </si>
   <si>
     <t>Ice Strength</t>
@@ -420,7 +454,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.ice_strength</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.3 </t>
+    <t xml:space="preserve">2.6.3 </t>
   </si>
   <si>
     <t>Snow Conductivity</t>
@@ -432,7 +466,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.snow_conductivity</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.4 </t>
+    <t xml:space="preserve">2.6.4 </t>
   </si>
   <si>
     <t>Ice Thickness In Leads</t>
@@ -444,7 +478,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.ice_thickness_in_leads</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.5 </t>
+    <t xml:space="preserve">2.6.5 </t>
   </si>
   <si>
     <t>Additional Parameters</t>
@@ -456,7 +490,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.additional_parameters</t>
   </si>
   <si>
-    <t>1.7</t>
+    <t>2.7</t>
   </si>
   <si>
     <t>Key Properties --&gt; Assumptions</t>
@@ -465,7 +499,7 @@
     <t>Assumptions made in the sea ice model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7.1 </t>
+    <t xml:space="preserve">2.7.1 </t>
   </si>
   <si>
     <t>Overview of assumptions made in the sea ice model in seaice model.</t>
@@ -474,7 +508,7 @@
     <t>cmip6.seaice.key_properties.assumptions.overview</t>
   </si>
   <si>
-    <t>1.7.2 *</t>
+    <t>2.7.2 *</t>
   </si>
   <si>
     <t>General overview description of any *key* assumptions made in this model.</t>
@@ -483,7 +517,7 @@
     <t>cmip6.seaice.key_properties.assumptions.description</t>
   </si>
   <si>
-    <t>1.7.3 *</t>
+    <t>2.7.3 *</t>
   </si>
   <si>
     <t>On Diagnostic Variables</t>
@@ -495,7 +529,7 @@
     <t>cmip6.seaice.key_properties.assumptions.on_diagnostic_variables</t>
   </si>
   <si>
-    <t>1.7.4 *</t>
+    <t>2.7.4 *</t>
   </si>
   <si>
     <t>Missing Processes</t>
@@ -507,7 +541,7 @@
     <t>cmip6.seaice.key_properties.assumptions.missing_processes</t>
   </si>
   <si>
-    <t>1.8</t>
+    <t>2.8</t>
   </si>
   <si>
     <t>Key Properties --&gt; Conservation</t>
@@ -516,7 +550,7 @@
     <t>Conservation in the sea ice component</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8.1 </t>
+    <t xml:space="preserve">2.8.1 </t>
   </si>
   <si>
     <t>Overview of conservation in the sea ice component in seaice model.</t>
@@ -525,7 +559,7 @@
     <t>cmip6.seaice.key_properties.conservation.overview</t>
   </si>
   <si>
-    <t>1.8.2 *</t>
+    <t>2.8.2 *</t>
   </si>
   <si>
     <t>Provide a general description of conservation methodology.</t>
@@ -534,7 +568,7 @@
     <t>cmip6.seaice.key_properties.conservation.description</t>
   </si>
   <si>
-    <t>1.8.3 *</t>
+    <t>2.8.3 *</t>
   </si>
   <si>
     <t>Properties</t>
@@ -555,7 +589,7 @@
     <t>Salt</t>
   </si>
   <si>
-    <t>1.8.4 *</t>
+    <t>2.8.4 *</t>
   </si>
   <si>
     <t>Budget</t>
@@ -567,7 +601,7 @@
     <t>cmip6.seaice.key_properties.conservation.budget</t>
   </si>
   <si>
-    <t>1.8.5 *</t>
+    <t>2.8.5 *</t>
   </si>
   <si>
     <t>Was Flux Correction Used</t>
@@ -582,7 +616,7 @@
     <t>cmip6.seaice.key_properties.conservation.was_flux_correction_used</t>
   </si>
   <si>
-    <t>1.8.6 *</t>
+    <t>2.8.6 *</t>
   </si>
   <si>
     <t>Corrected Conserved Prognostic Variables</t>
@@ -594,7 +628,7 @@
     <t>cmip6.seaice.key_properties.conservation.corrected_conserved_prognostic_variables</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -603,7 +637,7 @@
     <t>Sea Ice grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1 </t>
+    <t xml:space="preserve">3.1.1 </t>
   </si>
   <si>
     <t>Name of grid in seaice model.</t>
@@ -612,7 +646,7 @@
     <t>cmip6.seaice.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2 </t>
+    <t xml:space="preserve">3.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in seaice model.</t>
@@ -621,7 +655,7 @@
     <t>cmip6.seaice.grid.overview</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Grid --&gt; Discretisation</t>
@@ -630,7 +664,7 @@
     <t>Sea ice discretisation</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">3.2.1 </t>
   </si>
   <si>
     <t>Overview of sea ice discretisation in seaice model.</t>
@@ -639,7 +673,7 @@
     <t>cmip6.seaice.grid.discretisation.overview</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>3.3</t>
   </si>
   <si>
     <t>Grid --&gt; Discretisation --&gt; Horizontal</t>
@@ -648,7 +682,7 @@
     <t>Sea ice discretisation in the horizontal</t>
   </si>
   <si>
-    <t>2.3.1 *</t>
+    <t>3.3.1 *</t>
   </si>
   <si>
     <t>Grid on which sea ice is horizontal discretised?</t>
@@ -666,7 +700,7 @@
     <t>Own Grid</t>
   </si>
   <si>
-    <t>2.3.2 *</t>
+    <t>3.3.2 *</t>
   </si>
   <si>
     <t>Grid Type</t>
@@ -687,7 +721,7 @@
     <t>Adaptive grid</t>
   </si>
   <si>
-    <t>2.3.3 *</t>
+    <t>3.3.3 *</t>
   </si>
   <si>
     <t>Scheme</t>
@@ -708,7 +742,7 @@
     <t>Finite volumes</t>
   </si>
   <si>
-    <t>2.3.4 *</t>
+    <t>3.3.4 *</t>
   </si>
   <si>
     <t>Thermodynamics Time Step</t>
@@ -720,7 +754,7 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.thermodynamics_time_step</t>
   </si>
   <si>
-    <t>2.3.5 *</t>
+    <t>3.3.5 *</t>
   </si>
   <si>
     <t>Dynamics Time Step</t>
@@ -732,7 +766,7 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.dynamics_time_step</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.6 </t>
+    <t xml:space="preserve">3.3.6 </t>
   </si>
   <si>
     <t>Additional Details</t>
@@ -744,7 +778,7 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.additional_details</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>3.4</t>
   </si>
   <si>
     <t>Grid --&gt; Discretisation --&gt; Vertical</t>
@@ -753,7 +787,7 @@
     <t>Sea ice vertical properties</t>
   </si>
   <si>
-    <t>2.4.1 *</t>
+    <t>3.4.1 *</t>
   </si>
   <si>
     <t>Layering</t>
@@ -777,7 +811,7 @@
     <t>Multi-layers</t>
   </si>
   <si>
-    <t>2.4.2 *</t>
+    <t>3.4.2 *</t>
   </si>
   <si>
     <t>Number Of Layers</t>
@@ -789,7 +823,7 @@
     <t>cmip6.seaice.grid.discretisation.vertical.number_of_layers</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.3 </t>
+    <t xml:space="preserve">3.4.3 </t>
   </si>
   <si>
     <t>Specify any additional vertical grid details.</t>
@@ -798,7 +832,7 @@
     <t>cmip6.seaice.grid.discretisation.vertical.additional_details</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>3.5</t>
   </si>
   <si>
     <t>Grid --&gt; Seaice Categories</t>
@@ -807,7 +841,7 @@
     <t>What method is used to represent sea ice categories ?</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.1 </t>
+    <t xml:space="preserve">3.5.1 </t>
   </si>
   <si>
     <t>Overview of what method is used to represent sea ice categories ? in seaice model.</t>
@@ -816,7 +850,7 @@
     <t>cmip6.seaice.grid.seaice_categories.overview</t>
   </si>
   <si>
-    <t>2.5.2 *</t>
+    <t>3.5.2 *</t>
   </si>
   <si>
     <t>Has Mulitple Categories</t>
@@ -828,7 +862,7 @@
     <t>cmip6.seaice.grid.seaice_categories.has_mulitple_categories</t>
   </si>
   <si>
-    <t>2.5.3 *</t>
+    <t>3.5.3 *</t>
   </si>
   <si>
     <t>Number Of Categories</t>
@@ -840,7 +874,7 @@
     <t>cmip6.seaice.grid.seaice_categories.number_of_categories</t>
   </si>
   <si>
-    <t>2.5.4 *</t>
+    <t>3.5.4 *</t>
   </si>
   <si>
     <t>Category Limits</t>
@@ -852,7 +886,7 @@
     <t>cmip6.seaice.grid.seaice_categories.category_limits</t>
   </si>
   <si>
-    <t>2.5.5 *</t>
+    <t>3.5.5 *</t>
   </si>
   <si>
     <t>Ice Thickness Distribution Scheme</t>
@@ -864,7 +898,7 @@
     <t>cmip6.seaice.grid.seaice_categories.ice_thickness_distribution_scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.6 </t>
+    <t xml:space="preserve">3.5.6 </t>
   </si>
   <si>
     <t>Other</t>
@@ -876,7 +910,7 @@
     <t>cmip6.seaice.grid.seaice_categories.other</t>
   </si>
   <si>
-    <t>2.6</t>
+    <t>3.6</t>
   </si>
   <si>
     <t>Grid --&gt; Snow On Seaice</t>
@@ -885,7 +919,7 @@
     <t>Snow on sea ice details</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.1 </t>
+    <t xml:space="preserve">3.6.1 </t>
   </si>
   <si>
     <t>Overview of snow on sea ice details in seaice model.</t>
@@ -894,7 +928,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.overview</t>
   </si>
   <si>
-    <t>2.6.2 *</t>
+    <t>3.6.2 *</t>
   </si>
   <si>
     <t>Has Snow On Ice</t>
@@ -906,7 +940,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.has_snow_on_ice</t>
   </si>
   <si>
-    <t>2.6.3 *</t>
+    <t>3.6.3 *</t>
   </si>
   <si>
     <t>Number Of Snow Levels</t>
@@ -918,7 +952,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.number_of_snow_levels</t>
   </si>
   <si>
-    <t>2.6.4 *</t>
+    <t>3.6.4 *</t>
   </si>
   <si>
     <t>Snow Fraction</t>
@@ -930,7 +964,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.snow_fraction</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.5 </t>
+    <t xml:space="preserve">3.6.5 </t>
   </si>
   <si>
     <t>Specify any additional details related to snow on ice.</t>
@@ -939,7 +973,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.additional_details</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>Dynamics</t>
@@ -948,7 +982,7 @@
     <t>Sea Ice Dynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">4.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the dynamics in seaice model.</t>
@@ -957,7 +991,7 @@
     <t>cmip6.seaice.dynamics.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">4.1.2 </t>
   </si>
   <si>
     <t>Overview of sea ice dynamics in seaice model.</t>
@@ -966,7 +1000,7 @@
     <t>cmip6.seaice.dynamics.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>4.1.3 *</t>
   </si>
   <si>
     <t>Horizontal Transport</t>
@@ -987,7 +1021,7 @@
     <t>Eulerian</t>
   </si>
   <si>
-    <t>3.1.4 *</t>
+    <t>4.1.4 *</t>
   </si>
   <si>
     <t>Transport In Thickness Space</t>
@@ -1002,7 +1036,7 @@
     <t>Other: linear remapping</t>
   </si>
   <si>
-    <t>3.1.5 *</t>
+    <t>4.1.5 *</t>
   </si>
   <si>
     <t>Ice Strength Formulation</t>
@@ -1023,7 +1057,7 @@
     <t>Rothrock 1975</t>
   </si>
   <si>
-    <t>3.1.6 *</t>
+    <t>4.1.6 *</t>
   </si>
   <si>
     <t>Redistribution</t>
@@ -1041,7 +1075,7 @@
     <t>Rafting</t>
   </si>
   <si>
-    <t>3.1.7 *</t>
+    <t>4.1.7 *</t>
   </si>
   <si>
     <t>Rheology</t>
@@ -1074,7 +1108,7 @@
     <t>Granular</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>Thermodynamics</t>
@@ -1083,7 +1117,7 @@
     <t>Sea Ice Thermodynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">5.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the thermodynamics in seaice model.</t>
@@ -1092,7 +1126,7 @@
     <t>cmip6.seaice.thermodynamics.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">5.1.2 </t>
   </si>
   <si>
     <t>Overview of sea ice thermodynamics in seaice model.</t>
@@ -1101,7 +1135,7 @@
     <t>cmip6.seaice.thermodynamics.overview</t>
   </si>
   <si>
-    <t>4.2</t>
+    <t>5.2</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Energy</t>
@@ -1110,7 +1144,7 @@
     <t>Processes related to energy in sea ice thermodynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.1 </t>
+    <t xml:space="preserve">5.2.1 </t>
   </si>
   <si>
     <t>Overview of processes related to energy in sea ice thermodynamics in seaice model.</t>
@@ -1119,7 +1153,7 @@
     <t>cmip6.seaice.thermodynamics.energy.overview</t>
   </si>
   <si>
-    <t>4.2.2 *</t>
+    <t>5.2.2 *</t>
   </si>
   <si>
     <t>Enthalpy Formulation</t>
@@ -1143,7 +1177,7 @@
     <t>Pure ice latent and sensible heat + explicit brine inclusions (Bitz and Lipscomb)</t>
   </si>
   <si>
-    <t>4.2.3 *</t>
+    <t>5.2.3 *</t>
   </si>
   <si>
     <t>Thermal Conductivity</t>
@@ -1161,7 +1195,7 @@
     <t>Saline ice</t>
   </si>
   <si>
-    <t>4.2.4 *</t>
+    <t>5.2.4 *</t>
   </si>
   <si>
     <t>Heat Diffusion</t>
@@ -1185,7 +1219,7 @@
     <t>Conduction, radiation and latent heat transport</t>
   </si>
   <si>
-    <t>4.2.5 *</t>
+    <t>5.2.5 *</t>
   </si>
   <si>
     <t>Basal Heat Flux</t>
@@ -1209,7 +1243,7 @@
     <t>Thermal Varying Salinity</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.6 </t>
+    <t xml:space="preserve">5.2.6 </t>
   </si>
   <si>
     <t>Fixed Salinity Value</t>
@@ -1221,7 +1255,7 @@
     <t>cmip6.seaice.thermodynamics.energy.fixed_salinity_value</t>
   </si>
   <si>
-    <t>4.2.7 *</t>
+    <t>5.2.7 *</t>
   </si>
   <si>
     <t>Heat Content Of Precipitation</t>
@@ -1233,7 +1267,7 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_content_of_precipitation</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.8 </t>
+    <t xml:space="preserve">5.2.8 </t>
   </si>
   <si>
     <t>Precipitation Effects On Salinity</t>
@@ -1245,7 +1279,7 @@
     <t>cmip6.seaice.thermodynamics.energy.precipitation_effects_on_salinity</t>
   </si>
   <si>
-    <t>4.3</t>
+    <t>5.3</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Mass</t>
@@ -1254,7 +1288,7 @@
     <t>Processes related to mass in sea ice thermodynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.1 </t>
+    <t xml:space="preserve">5.3.1 </t>
   </si>
   <si>
     <t>Overview of processes related to mass in sea ice thermodynamics in seaice model.</t>
@@ -1263,7 +1297,7 @@
     <t>cmip6.seaice.thermodynamics.mass.overview</t>
   </si>
   <si>
-    <t>4.3.2 *</t>
+    <t>5.3.2 *</t>
   </si>
   <si>
     <t>New Ice Formation</t>
@@ -1278,7 +1312,7 @@
     <t>From open water, bottom, and lateral</t>
   </si>
   <si>
-    <t>4.3.3 *</t>
+    <t>5.3.3 *</t>
   </si>
   <si>
     <t>Ice Vertical Growth And Melt</t>
@@ -1290,7 +1324,7 @@
     <t>cmip6.seaice.thermodynamics.mass.ice_vertical_growth_and_melt</t>
   </si>
   <si>
-    <t>4.3.4 *</t>
+    <t>5.3.4 *</t>
   </si>
   <si>
     <t>Ice Lateral Melting</t>
@@ -1308,7 +1342,7 @@
     <t>Virtual thin ice melting (for single-category)</t>
   </si>
   <si>
-    <t>4.3.5 *</t>
+    <t>5.3.5 *</t>
   </si>
   <si>
     <t>Ice Surface Sublimation</t>
@@ -1320,7 +1354,7 @@
     <t>cmip6.seaice.thermodynamics.mass.ice_surface_sublimation</t>
   </si>
   <si>
-    <t>4.3.6 *</t>
+    <t>5.3.6 *</t>
   </si>
   <si>
     <t>Frazil Ice</t>
@@ -1332,7 +1366,7 @@
     <t>cmip6.seaice.thermodynamics.mass.frazil_ice</t>
   </si>
   <si>
-    <t>4.4</t>
+    <t>5.4</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Salt</t>
@@ -1341,7 +1375,7 @@
     <t>Processes related to salt in sea ice thermodynamics.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.1 </t>
+    <t xml:space="preserve">5.4.1 </t>
   </si>
   <si>
     <t>Overview of processes related to salt in sea ice thermodynamics. in seaice model.</t>
@@ -1350,7 +1384,7 @@
     <t>cmip6.seaice.thermodynamics.salt.overview</t>
   </si>
   <si>
-    <t>4.4.2 *</t>
+    <t>5.4.2 *</t>
   </si>
   <si>
     <t>Has Multiple Sea Ice Salinities</t>
@@ -1362,7 +1396,7 @@
     <t>cmip6.seaice.thermodynamics.salt.has_multiple_sea_ice_salinities</t>
   </si>
   <si>
-    <t>4.4.3 *</t>
+    <t>5.4.3 *</t>
   </si>
   <si>
     <t>Sea Ice Salinity Thermal Impacts</t>
@@ -1374,7 +1408,7 @@
     <t>cmip6.seaice.thermodynamics.salt.sea_ice_salinity_thermal_impacts</t>
   </si>
   <si>
-    <t>4.5</t>
+    <t>5.5</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Salt --&gt; Mass Transport</t>
@@ -1383,7 +1417,7 @@
     <t>Mass transport of salt</t>
   </si>
   <si>
-    <t>4.5.1 *</t>
+    <t>5.5.1 *</t>
   </si>
   <si>
     <t>Salinity Type</t>
@@ -1401,7 +1435,7 @@
     <t>Prognostic salinity profile</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5.2 </t>
+    <t xml:space="preserve">5.5.2 </t>
   </si>
   <si>
     <t>Constant Salinity Value</t>
@@ -1413,7 +1447,7 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.constant_salinity_value</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5.3 </t>
+    <t xml:space="preserve">5.5.3 </t>
   </si>
   <si>
     <t>Describe the salinity profile used.</t>
@@ -1422,7 +1456,7 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.additional_details</t>
   </si>
   <si>
-    <t>4.6</t>
+    <t>5.6</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Salt --&gt; Thermodynamics</t>
@@ -1431,7 +1465,7 @@
     <t>Salt thermodynamics</t>
   </si>
   <si>
-    <t>4.6.1 *</t>
+    <t>5.6.1 *</t>
   </si>
   <si>
     <t>How is salinity determined in the thermodynamic calculation?</t>
@@ -1440,19 +1474,19 @@
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.salinity_type</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6.2 </t>
+    <t xml:space="preserve">5.6.2 </t>
   </si>
   <si>
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.constant_salinity_value</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6.3 </t>
+    <t xml:space="preserve">5.6.3 </t>
   </si>
   <si>
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.additional_details</t>
   </si>
   <si>
-    <t>4.7</t>
+    <t>5.7</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Ice Thickness Distribution</t>
@@ -1461,7 +1495,7 @@
     <t>Ice thickness distribution details.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7.1 </t>
+    <t xml:space="preserve">5.7.1 </t>
   </si>
   <si>
     <t>Overview of ice thickness distribution details. in seaice model.</t>
@@ -1470,7 +1504,7 @@
     <t>cmip6.seaice.thermodynamics.ice_thickness_distribution.overview</t>
   </si>
   <si>
-    <t>4.7.2 *</t>
+    <t>5.7.2 *</t>
   </si>
   <si>
     <t>Representation</t>
@@ -1488,7 +1522,7 @@
     <t>Virtual (enhancement of thermal conductivity, thin ice melting)</t>
   </si>
   <si>
-    <t>4.8</t>
+    <t>5.8</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Ice Floe Size Distribution</t>
@@ -1497,7 +1531,7 @@
     <t>Ice floe-size distribution details.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8.1 </t>
+    <t xml:space="preserve">5.8.1 </t>
   </si>
   <si>
     <t>Overview of ice floe-size distribution details. in seaice model.</t>
@@ -1506,7 +1540,7 @@
     <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.overview</t>
   </si>
   <si>
-    <t>4.8.2 *</t>
+    <t>5.8.2 *</t>
   </si>
   <si>
     <t>How is the sea ice floe-size represented?</t>
@@ -1518,7 +1552,7 @@
     <t>Parameterised</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8.3 </t>
+    <t xml:space="preserve">5.8.3 </t>
   </si>
   <si>
     <t>Please provide further details on any parameterisation of floe-size.</t>
@@ -1527,7 +1561,7 @@
     <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.additional_details</t>
   </si>
   <si>
-    <t>4.9</t>
+    <t>5.9</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Melt Ponds</t>
@@ -1536,7 +1570,7 @@
     <t>Characteristics of melt ponds.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9.1 </t>
+    <t xml:space="preserve">5.9.1 </t>
   </si>
   <si>
     <t>Overview of characteristics of melt ponds. in seaice model.</t>
@@ -1545,7 +1579,7 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.overview</t>
   </si>
   <si>
-    <t>4.9.2 *</t>
+    <t>5.9.2 *</t>
   </si>
   <si>
     <t>Are Included</t>
@@ -1557,7 +1591,7 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.are_included</t>
   </si>
   <si>
-    <t>4.9.3 *</t>
+    <t>5.9.3 *</t>
   </si>
   <si>
     <t>Formulation</t>
@@ -1578,7 +1612,7 @@
     <t>Level-ice melt ponds</t>
   </si>
   <si>
-    <t>4.9.4 *</t>
+    <t>5.9.4 *</t>
   </si>
   <si>
     <t>Impacts</t>
@@ -1599,7 +1633,7 @@
     <t>Heat</t>
   </si>
   <si>
-    <t>4.10</t>
+    <t>5.10</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Snow Processes</t>
@@ -1608,7 +1642,7 @@
     <t>Thermodynamic processes in snow on sea ice</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10.1 </t>
+    <t xml:space="preserve">5.10.1 </t>
   </si>
   <si>
     <t>Overview of thermodynamic processes in snow on sea ice in seaice model.</t>
@@ -1617,7 +1651,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.overview</t>
   </si>
   <si>
-    <t>4.10.2 *</t>
+    <t>5.10.2 *</t>
   </si>
   <si>
     <t>Has Snow Aging</t>
@@ -1629,7 +1663,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_aging</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10.3 </t>
+    <t xml:space="preserve">5.10.3 </t>
   </si>
   <si>
     <t>Snow Aging Scheme</t>
@@ -1641,7 +1675,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.snow_aging_scheme</t>
   </si>
   <si>
-    <t>4.10.4 *</t>
+    <t>5.10.4 *</t>
   </si>
   <si>
     <t>Has Snow Ice Formation</t>
@@ -1653,7 +1687,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_ice_formation</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10.5 </t>
+    <t xml:space="preserve">5.10.5 </t>
   </si>
   <si>
     <t>Snow Ice Formation Scheme</t>
@@ -1665,7 +1699,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.snow_ice_formation_scheme</t>
   </si>
   <si>
-    <t>4.10.6 *</t>
+    <t>5.10.6 *</t>
   </si>
   <si>
     <t>What is the impact of ridging on snow cover?</t>
@@ -1677,7 +1711,7 @@
     <t>Snow-ice</t>
   </si>
   <si>
-    <t>4.10.7 *</t>
+    <t>5.10.7 *</t>
   </si>
   <si>
     <t>What is the heat diffusion through snow methodology in sea ice thermodynamics?</t>
@@ -1695,7 +1729,7 @@
     <t>Multi-layered heat diffusion</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>6.1</t>
   </si>
   <si>
     <t>Radiative Processes</t>
@@ -1704,7 +1738,7 @@
     <t>Sea Ice Radiative Processes</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">6.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the radiative processes in seaice model.</t>
@@ -1713,7 +1747,7 @@
     <t>cmip6.seaice.radiative_processes.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">6.1.2 </t>
   </si>
   <si>
     <t>Overview of sea ice radiative processes in seaice model.</t>
@@ -1722,7 +1756,7 @@
     <t>cmip6.seaice.radiative_processes.overview</t>
   </si>
   <si>
-    <t>5.1.3 *</t>
+    <t>6.1.3 *</t>
   </si>
   <si>
     <t>Surface Albedo</t>
@@ -1746,7 +1780,7 @@
     <t>Multi-band albedo</t>
   </si>
   <si>
-    <t>5.1.4 *</t>
+    <t>6.1.4 *</t>
   </si>
   <si>
     <t>Ice Radiation Transmission</t>
@@ -1768,7 +1802,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1810,9 +1844,8 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1837,14 +1870,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1894,7 +1935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1911,10 +1952,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1926,11 +1964,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2226,7 +2270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD16"/>
+  <dimension ref="A1:XFD18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2302,31 +2346,119 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD177"/>
   <sheetViews>
@@ -2341,35 +2473,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>21</v>
+      <c r="B2" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>26</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -2378,929 +2510,929 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>28</v>
+      <c r="A8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>30</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>31</v>
+      <c r="B10" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>35</v>
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>36</v>
+      <c r="B15" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>38</v>
+      <c r="A19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
-      <c r="B20" s="7" t="s">
-        <v>39</v>
+      <c r="B20" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>33</v>
+      <c r="A22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>42</v>
+      <c r="A23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:38" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>44</v>
+      <c r="A26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>47</v>
+      <c r="A27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="24" customHeight="1">
-      <c r="B28" s="12" t="s">
-        <v>48</v>
+      <c r="B28" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AA29" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="AD29" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AE29" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="AF29" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AG29" s="5" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AH29" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="AI29" s="5" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AJ29" s="5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AK29" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AL29" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="24" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>63</v>
+      <c r="A32" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
-      <c r="B33" s="7" t="s">
-        <v>64</v>
+      <c r="B33" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>33</v>
+      <c r="A35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>67</v>
+      <c r="A36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>69</v>
+      <c r="A39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>71</v>
+      <c r="A40" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="B41" s="11"/>
       <c r="AA41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AB41" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC41" s="5" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>75</v>
+      <c r="A43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>78</v>
+      <c r="A44" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>80</v>
+      <c r="A48" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="7" t="s">
-        <v>81</v>
+      <c r="B49" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>33</v>
+      <c r="A51" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>84</v>
+      <c r="A52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>23</v>
+      <c r="A55" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>87</v>
+      <c r="A56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="11"/>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>89</v>
+      <c r="A59" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>91</v>
+      <c r="A60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="11"/>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="A63" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>93</v>
+      <c r="A63" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>96</v>
+      <c r="A64" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="B65" s="11"/>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="A68" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>98</v>
+      <c r="A68" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="B69" s="7" t="s">
-        <v>99</v>
+      <c r="B69" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="A71" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>33</v>
+      <c r="A71" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>102</v>
+      <c r="A72" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="B73" s="11"/>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="A75" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>104</v>
+      <c r="A75" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="A76" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>106</v>
+      <c r="A76" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="B77" s="12" t="s">
-        <v>36</v>
+      <c r="B77" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="178" customHeight="1">
       <c r="B78" s="11"/>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>108</v>
+      <c r="A80" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>110</v>
+      <c r="A81" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="B82" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>112</v>
+      <c r="A84" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>114</v>
+      <c r="A85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="12" t="s">
-        <v>31</v>
+      <c r="B86" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>116</v>
+      <c r="A89" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>118</v>
+      <c r="A90" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="12" t="s">
-        <v>31</v>
+      <c r="B91" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="B92" s="11"/>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>120</v>
+      <c r="A94" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>122</v>
+      <c r="A95" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="12" t="s">
-        <v>31</v>
+      <c r="B96" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>124</v>
+      <c r="A100" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="7" t="s">
-        <v>125</v>
+      <c r="B101" s="13" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>33</v>
+      <c r="A103" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>128</v>
+      <c r="A104" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>130</v>
+      <c r="A107" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>132</v>
+      <c r="A108" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>134</v>
+      <c r="A111" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>136</v>
+      <c r="A112" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>138</v>
+      <c r="A115" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>140</v>
+      <c r="A116" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>142</v>
+      <c r="A119" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>144</v>
+      <c r="A120" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="12" t="s">
-        <v>31</v>
+      <c r="B121" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="B122" s="11"/>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>146</v>
+      <c r="A125" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="B126" s="7" t="s">
-        <v>147</v>
+      <c r="B126" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>33</v>
+      <c r="A128" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>150</v>
+      <c r="A129" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11"/>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>104</v>
+      <c r="A132" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>153</v>
+      <c r="A133" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="12" t="s">
-        <v>36</v>
+      <c r="B134" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="178" customHeight="1">
       <c r="B135" s="11"/>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>155</v>
+      <c r="A137" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>157</v>
+      <c r="A138" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="B139" s="12" t="s">
-        <v>31</v>
+      <c r="B139" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11"/>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>159</v>
+      <c r="A142" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="A143" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>161</v>
+      <c r="A143" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="B144" s="12" t="s">
-        <v>31</v>
+      <c r="B144" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
       <c r="B145" s="11"/>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>163</v>
+      <c r="A148" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="B149" s="7" t="s">
-        <v>164</v>
+      <c r="B149" s="13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="A151" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>33</v>
+      <c r="A151" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>167</v>
+      <c r="A152" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="B153" s="11"/>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="A155" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>104</v>
+      <c r="A155" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="A156" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>170</v>
+      <c r="A156" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="B157" s="12" t="s">
-        <v>36</v>
+      <c r="B157" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="178" customHeight="1">
       <c r="B158" s="11"/>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="A160" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>172</v>
+      <c r="A160" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="161" spans="1:30" ht="24" customHeight="1">
-      <c r="A161" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>174</v>
+      <c r="A161" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:30" ht="24" customHeight="1">
-      <c r="B162" s="12" t="s">
-        <v>48</v>
+      <c r="B162" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="163" spans="1:30" ht="24" customHeight="1">
       <c r="B163" s="11"/>
       <c r="AA163" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="AB163" s="5" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="AC163" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AD163" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="165" spans="1:30" ht="24" customHeight="1">
-      <c r="A165" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>179</v>
+      <c r="A165" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:30" ht="24" customHeight="1">
-      <c r="A166" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>181</v>
+      <c r="A166" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:30" ht="24" customHeight="1">
-      <c r="B167" s="12" t="s">
-        <v>31</v>
+      <c r="B167" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="168" spans="1:30" ht="24" customHeight="1">
       <c r="B168" s="11"/>
     </row>
     <row r="170" spans="1:30" ht="24" customHeight="1">
-      <c r="A170" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>183</v>
+      <c r="A170" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="171" spans="1:30" ht="24" customHeight="1">
-      <c r="A171" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>186</v>
+      <c r="A171" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:30" ht="24" customHeight="1">
       <c r="B172" s="11"/>
     </row>
     <row r="174" spans="1:30" ht="24" customHeight="1">
-      <c r="A174" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>188</v>
+      <c r="A174" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="1:30" ht="24" customHeight="1">
-      <c r="A175" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>190</v>
+      <c r="A175" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:30" ht="24" customHeight="1">
-      <c r="B176" s="12" t="s">
-        <v>31</v>
+      <c r="B176" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="24" customHeight="1">
@@ -3344,7 +3476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD123"/>
   <sheetViews>
@@ -3359,681 +3491,681 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>192</v>
+      <c r="A1" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>193</v>
+      <c r="B2" s="13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>196</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
+      <c r="A8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>199</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>36</v>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>201</v>
+      <c r="A14" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>202</v>
+      <c r="B15" s="13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>33</v>
+      <c r="A17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>205</v>
+      <c r="A18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>207</v>
+      <c r="A22" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="7" t="s">
-        <v>208</v>
+      <c r="B23" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>192</v>
+      <c r="A25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>211</v>
+      <c r="A26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="AD27" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>216</v>
+      <c r="A29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>218</v>
+      <c r="A30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="5" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>223</v>
+      <c r="A33" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>225</v>
+      <c r="A34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="5" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>230</v>
+      <c r="A37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>232</v>
+      <c r="A38" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>234</v>
+      <c r="A41" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>236</v>
+      <c r="A42" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
       <c r="B43" s="11"/>
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>238</v>
+      <c r="A45" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>240</v>
+      <c r="A46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
-      <c r="B47" s="12" t="s">
-        <v>36</v>
+      <c r="B47" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="178" customHeight="1">
       <c r="B48" s="11"/>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>242</v>
+      <c r="A51" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="B52" s="7" t="s">
-        <v>243</v>
+      <c r="B52" s="13" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="A54" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>245</v>
+      <c r="A54" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>247</v>
+      <c r="A55" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="B56" s="12" t="s">
-        <v>48</v>
+      <c r="B56" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="AA57" s="5" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="AB57" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="AC57" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="AD57" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>253</v>
+      <c r="A59" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>255</v>
+      <c r="A60" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="B61" s="11"/>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
-      <c r="A63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>238</v>
+      <c r="A63" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>258</v>
+      <c r="A64" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="B65" s="12" t="s">
-        <v>36</v>
+      <c r="B65" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="178" customHeight="1">
       <c r="B66" s="11"/>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>260</v>
+      <c r="A69" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="7" t="s">
-        <v>261</v>
+      <c r="B70" s="13" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>33</v>
+      <c r="A72" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>264</v>
+      <c r="A73" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="B74" s="11"/>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="A76" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>266</v>
+      <c r="A76" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>268</v>
+      <c r="A77" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
       <c r="B78" s="11"/>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>270</v>
+      <c r="A80" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>272</v>
+      <c r="A81" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="B82" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>274</v>
+      <c r="A84" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>276</v>
+      <c r="A85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="12" t="s">
-        <v>31</v>
+      <c r="B86" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>278</v>
+      <c r="A89" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>280</v>
+      <c r="A90" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="12" t="s">
-        <v>36</v>
+      <c r="B91" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="178" customHeight="1">
       <c r="B92" s="11"/>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>282</v>
+      <c r="A94" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>284</v>
+      <c r="A95" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="12" t="s">
-        <v>36</v>
+      <c r="B96" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="178" customHeight="1">
       <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>286</v>
+      <c r="A100" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="7" t="s">
-        <v>287</v>
+      <c r="B101" s="13" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>33</v>
+      <c r="A103" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>290</v>
+      <c r="A104" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>292</v>
+      <c r="A107" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>294</v>
+      <c r="A108" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>296</v>
+      <c r="A111" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>298</v>
+      <c r="A112" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>300</v>
+      <c r="A115" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>302</v>
+      <c r="A116" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="B117" s="12" t="s">
-        <v>36</v>
+      <c r="B117" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="178" customHeight="1">
       <c r="B118" s="11"/>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>238</v>
+      <c r="A120" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>305</v>
+      <c r="A121" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="12" t="s">
-        <v>36</v>
+      <c r="B122" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="178" customHeight="1">
@@ -4079,7 +4211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD32"/>
   <sheetViews>
@@ -4094,251 +4226,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>307</v>
+      <c r="A1" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>308</v>
+      <c r="B2" s="13" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>311</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
+      <c r="A8" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>314</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>36</v>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>316</v>
+      <c r="A13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>318</v>
+      <c r="A14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="5" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>323</v>
+      <c r="A17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>325</v>
+      <c r="A18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="AD19" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>328</v>
+      <c r="A21" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>330</v>
+      <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>335</v>
+      <c r="A25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>337</v>
+      <c r="A26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
-      <c r="B27" s="12" t="s">
-        <v>48</v>
+      <c r="B27" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>341</v>
+      <c r="A30" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>343</v>
+      <c r="A31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="AA32" s="5" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AD32" s="5" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="AE32" s="5" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="AF32" s="5" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="AG32" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4363,7 +4495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD215"/>
   <sheetViews>
@@ -4378,1241 +4510,1241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>352</v>
+      <c r="A1" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>353</v>
+      <c r="B2" s="13" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>356</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
+      <c r="A8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>359</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>36</v>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>361</v>
+      <c r="A14" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>362</v>
+      <c r="B15" s="13" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>33</v>
+      <c r="A17" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>365</v>
+      <c r="A18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>367</v>
+      <c r="A21" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>369</v>
+      <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="5" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>375</v>
+      <c r="A25" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>377</v>
+      <c r="A26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="5" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>381</v>
+      <c r="A29" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>383</v>
+      <c r="A30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="AA31" s="5" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>389</v>
+      <c r="A33" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>391</v>
+      <c r="A34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="AA35" s="5" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>397</v>
+      <c r="A37" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>399</v>
+      <c r="A38" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>401</v>
+      <c r="A41" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>403</v>
+      <c r="A42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
-      <c r="B43" s="12" t="s">
-        <v>36</v>
+      <c r="B43" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="178" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>405</v>
+      <c r="A46" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>407</v>
+      <c r="A47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="24" customHeight="1">
-      <c r="B48" s="12" t="s">
-        <v>36</v>
+      <c r="B48" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="178" customHeight="1">
       <c r="B49" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>409</v>
+      <c r="A52" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="7" t="s">
-        <v>410</v>
+      <c r="B53" s="13" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>33</v>
+      <c r="A55" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>413</v>
+      <c r="A56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="11"/>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>415</v>
+      <c r="A59" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>417</v>
+      <c r="A60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="12" t="s">
-        <v>36</v>
+      <c r="B61" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="178" customHeight="1">
       <c r="B62" s="11" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>420</v>
+      <c r="A64" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>422</v>
+      <c r="A65" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
-      <c r="B66" s="12" t="s">
-        <v>36</v>
+      <c r="B66" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="178" customHeight="1">
       <c r="B67" s="11"/>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>424</v>
+      <c r="A69" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>426</v>
+      <c r="A70" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="B71" s="11"/>
       <c r="AA71" s="5" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="AB71" s="5" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="AC71" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
-      <c r="A73" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>430</v>
+      <c r="A73" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>432</v>
+      <c r="A74" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
-      <c r="B75" s="12" t="s">
-        <v>36</v>
+      <c r="B75" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="178" customHeight="1">
       <c r="B76" s="11"/>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>434</v>
+      <c r="A78" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
-      <c r="A79" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>436</v>
+      <c r="A79" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
-      <c r="B80" s="12" t="s">
-        <v>36</v>
+      <c r="B80" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="178" customHeight="1">
       <c r="B81" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>438</v>
+      <c r="A84" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="B85" s="7" t="s">
-        <v>439</v>
+      <c r="B85" s="13" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>33</v>
+      <c r="A87" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>442</v>
+      <c r="A88" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="11"/>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>444</v>
+      <c r="A91" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="A92" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>446</v>
+      <c r="A92" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="B93" s="11"/>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>448</v>
+      <c r="A95" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>450</v>
+      <c r="A96" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
       <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>452</v>
+      <c r="A100" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
-      <c r="B101" s="7" t="s">
-        <v>453</v>
+      <c r="B101" s="13" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>455</v>
+      <c r="A103" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>457</v>
+      <c r="A104" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="B105" s="11"/>
       <c r="AA105" s="5" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AB105" s="5" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="AC105" s="5" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="AD105" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>461</v>
+      <c r="A107" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>463</v>
+      <c r="A108" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:30" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>238</v>
+      <c r="A111" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>466</v>
+      <c r="A112" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="113" spans="1:30" ht="24" customHeight="1">
-      <c r="B113" s="12" t="s">
-        <v>36</v>
+      <c r="B113" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:30" ht="178" customHeight="1">
       <c r="B114" s="11"/>
     </row>
     <row r="117" spans="1:30" ht="24" customHeight="1">
-      <c r="A117" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>468</v>
+      <c r="A117" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="118" spans="1:30" ht="24" customHeight="1">
-      <c r="B118" s="7" t="s">
-        <v>469</v>
+      <c r="B118" s="13" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:30" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>455</v>
+      <c r="A120" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="1:30" ht="24" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>472</v>
+      <c r="A121" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="122" spans="1:30" ht="24" customHeight="1">
       <c r="B122" s="11"/>
       <c r="AA122" s="5" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AB122" s="5" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="AC122" s="5" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="AD122" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:30" ht="24" customHeight="1">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" ht="24" customHeight="1">
+      <c r="A125" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="125" spans="1:30" ht="24" customHeight="1">
-      <c r="A125" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>474</v>
+      <c r="C125" s="9" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="126" spans="1:30" ht="24" customHeight="1">
       <c r="B126" s="11"/>
     </row>
     <row r="128" spans="1:30" ht="24" customHeight="1">
-      <c r="A128" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>238</v>
+      <c r="A128" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:29" ht="24" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C129" s="10" t="s">
+      <c r="A129" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>476</v>
       </c>
+      <c r="C129" s="9" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
-      <c r="B130" s="12" t="s">
-        <v>36</v>
+      <c r="B130" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="178" customHeight="1">
       <c r="B131" s="11"/>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
-      <c r="A134" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>478</v>
+      <c r="A134" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
-      <c r="B135" s="7" t="s">
-        <v>479</v>
+      <c r="B135" s="13" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>33</v>
+      <c r="A137" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>482</v>
+      <c r="A138" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
       <c r="B139" s="11"/>
     </row>
     <row r="141" spans="1:29" ht="24" customHeight="1">
-      <c r="A141" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>484</v>
+      <c r="A141" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="142" spans="1:29" ht="24" customHeight="1">
-      <c r="A142" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>486</v>
+      <c r="A142" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="B143" s="11"/>
       <c r="AA143" s="5" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="AB143" s="5" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="AC143" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146" spans="1:29" ht="24" customHeight="1">
-      <c r="A146" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>490</v>
+      <c r="A146" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="147" spans="1:29" ht="24" customHeight="1">
-      <c r="B147" s="7" t="s">
-        <v>491</v>
+      <c r="B147" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="149" spans="1:29" ht="24" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>33</v>
+      <c r="A149" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:29" ht="24" customHeight="1">
-      <c r="A150" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>494</v>
+      <c r="A150" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="151" spans="1:29" ht="24" customHeight="1">
       <c r="B151" s="11"/>
     </row>
     <row r="153" spans="1:29" ht="24" customHeight="1">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>484</v>
-      </c>
     </row>
     <row r="154" spans="1:29" ht="24" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>497</v>
+      <c r="A154" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="155" spans="1:29" ht="24" customHeight="1">
       <c r="B155" s="11"/>
       <c r="AA155" s="5" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="AB155" s="5" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="AC155" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="157" spans="1:29" ht="24" customHeight="1">
-      <c r="A157" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>238</v>
+      <c r="A157" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="158" spans="1:29" ht="24" customHeight="1">
-      <c r="A158" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>501</v>
+      <c r="A158" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:29" ht="24" customHeight="1">
-      <c r="B159" s="12" t="s">
-        <v>36</v>
+      <c r="B159" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:29" ht="178" customHeight="1">
       <c r="B160" s="11"/>
     </row>
     <row r="163" spans="1:29" ht="24" customHeight="1">
-      <c r="A163" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>503</v>
+      <c r="A163" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
-      <c r="B164" s="7" t="s">
-        <v>504</v>
+      <c r="B164" s="13" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
-      <c r="A166" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>33</v>
+      <c r="A166" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:29" ht="24" customHeight="1">
-      <c r="A167" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>507</v>
+      <c r="A167" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="168" spans="1:29" ht="24" customHeight="1">
       <c r="B168" s="11"/>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
-      <c r="A170" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>509</v>
+      <c r="A170" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
-      <c r="A171" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>511</v>
+      <c r="A171" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="172" spans="1:29" ht="24" customHeight="1">
       <c r="B172" s="11"/>
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
-      <c r="A174" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>513</v>
+      <c r="A174" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
-      <c r="A175" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>515</v>
+      <c r="A175" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="AA176" s="5" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="AB176" s="5" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="AC176" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="178" spans="1:30" ht="24" customHeight="1">
-      <c r="A178" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>520</v>
+      <c r="A178" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="179" spans="1:30" ht="24" customHeight="1">
-      <c r="A179" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B179" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>522</v>
+      <c r="A179" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="180" spans="1:30" ht="24" customHeight="1">
-      <c r="B180" s="12" t="s">
-        <v>48</v>
+      <c r="B180" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="181" spans="1:30" ht="24" customHeight="1">
       <c r="B181" s="11"/>
       <c r="AA181" s="5" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="AB181" s="5" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="AC181" s="5" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AD181" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="184" spans="1:30" ht="24" customHeight="1">
-      <c r="A184" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>527</v>
+      <c r="A184" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="185" spans="1:30" ht="24" customHeight="1">
-      <c r="B185" s="7" t="s">
-        <v>528</v>
+      <c r="B185" s="13" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="187" spans="1:30" ht="24" customHeight="1">
-      <c r="A187" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>33</v>
+      <c r="A187" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:30" ht="24" customHeight="1">
-      <c r="A188" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>531</v>
+      <c r="A188" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="189" spans="1:30" ht="24" customHeight="1">
       <c r="B189" s="11"/>
     </row>
     <row r="191" spans="1:30" ht="24" customHeight="1">
-      <c r="A191" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>533</v>
+      <c r="A191" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="192" spans="1:30" ht="24" customHeight="1">
-      <c r="A192" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>535</v>
+      <c r="A192" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
       <c r="B193" s="11"/>
     </row>
     <row r="195" spans="1:3" ht="24" customHeight="1">
-      <c r="A195" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>537</v>
+      <c r="A195" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="24" customHeight="1">
-      <c r="A196" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B196" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>539</v>
+      <c r="A196" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
-      <c r="B197" s="12" t="s">
-        <v>36</v>
+      <c r="B197" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="178" customHeight="1">
       <c r="B198" s="11"/>
     </row>
     <row r="200" spans="1:3" ht="24" customHeight="1">
-      <c r="A200" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>541</v>
+      <c r="A200" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="24" customHeight="1">
-      <c r="A201" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B201" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>543</v>
+      <c r="A201" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="24" customHeight="1">
       <c r="B202" s="11"/>
     </row>
     <row r="204" spans="1:3" ht="24" customHeight="1">
-      <c r="A204" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>545</v>
+      <c r="A204" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="24" customHeight="1">
-      <c r="A205" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B205" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>547</v>
+      <c r="A205" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="24" customHeight="1">
-      <c r="B206" s="12" t="s">
-        <v>36</v>
+      <c r="B206" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="178" customHeight="1">
       <c r="B207" s="11"/>
     </row>
     <row r="209" spans="1:29" ht="24" customHeight="1">
-      <c r="A209" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>335</v>
+      <c r="A209" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="210" spans="1:29" ht="24" customHeight="1">
-      <c r="A210" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B210" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>550</v>
+      <c r="A210" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="211" spans="1:29" ht="24" customHeight="1">
       <c r="B211" s="11" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="213" spans="1:29" ht="24" customHeight="1">
-      <c r="A213" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>381</v>
+      <c r="A213" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="214" spans="1:29" ht="24" customHeight="1">
-      <c r="A214" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>554</v>
+      <c r="A214" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="215" spans="1:29" ht="24" customHeight="1">
       <c r="B215" s="11" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="AA215" s="5" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="AB215" s="5" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="AC215" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5685,7 +5817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD20"/>
   <sheetViews>
@@ -5700,140 +5832,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>559</v>
+      <c r="A1" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>560</v>
+      <c r="B2" s="13" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>563</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
+      <c r="A8" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>566</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>36</v>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>568</v>
+      <c r="A13" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>570</v>
+      <c r="A14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>576</v>
+      <c r="A17" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>578</v>
+      <c r="A18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>48</v>
+      <c r="B19" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="5" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_seaice.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_seaice.xlsx
@@ -43,7 +43,7 @@
     <t>MIROC6</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Sea Ice</t>

--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_seaice.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_seaice.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komuro\Documents\プロジェクト文書\CMIP6\ES-DOCS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE50465-7237-4299-AAD3-62C3E738786D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -21,12 +15,12 @@
     <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="557">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -160,6 +154,9 @@
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
+    <t>COCO4.9</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
+    <t>Subgrid-scale thickness distribution, 1-layer thermodynamics, EVP rheology</t>
+  </si>
+  <si>
     <t>1.1.1.3 *</t>
   </si>
   <si>
@@ -190,6 +190,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>COCO is an ice-ocean coupled model which can be used as a stand-alone model or an ice-ocean component of MIROC. It has been developed in Atmosphere and Ocean Research Institute (AORI), The University of Tokyo, and Japan Agency for Marine-Earth Science and Technology (JAMSTEC).  The sea-ice part of COCO employs subgrid-scale thickness distribution, 1-layer thermodynamics, and EVP rheology.</t>
+  </si>
+  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -214,12 +217,12 @@
     <t>cmip6.seaice.key_properties.variables.prognostic</t>
   </si>
   <si>
+    <t>Sea ice concentration</t>
+  </si>
+  <si>
     <t>Sea ice temperature</t>
   </si>
   <si>
-    <t>Sea ice concentration</t>
-  </si>
-  <si>
     <t>Sea ice thickness</t>
   </si>
   <si>
@@ -241,10 +244,10 @@
     <t>Salinity</t>
   </si>
   <si>
-    <t>Snow temperature</t>
-  </si>
-  <si>
-    <t>Snow depth</t>
+    <t>Snow temperature: Snow on ice temperature</t>
+  </si>
+  <si>
+    <t>Snow depth: Snow on ice thickness</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -271,10 +274,13 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
-    <t>TEOS-10</t>
-  </si>
-  <si>
-    <t>Constant</t>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
+  </si>
+  <si>
+    <t>Constant: Constant value of seawater freezing point is used.</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.2 </t>
@@ -310,6 +316,9 @@
     <t>cmip6.seaice.key_properties.resolution.name</t>
   </si>
   <si>
+    <t>COCO medium resolution model</t>
+  </si>
+  <si>
     <t>1.4.1.2 *</t>
   </si>
   <si>
@@ -322,6 +331,9 @@
     <t>cmip6.seaice.key_properties.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
+    <t>1 degree</t>
+  </si>
+  <si>
     <t>1.4.1.3 *</t>
   </si>
   <si>
@@ -350,1310 +362,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.tuning_applied.description</t>
-  </si>
-  <si>
-    <t>1.5.1.2 *</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>What was the aim of tuning, e.g. correct sea ice minima, correct seasonal cycle?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.tuning_applied.target</t>
-  </si>
-  <si>
-    <t>1.5.1.3 *</t>
-  </si>
-  <si>
-    <t>Simulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which simulations had tuning applied, e.g. all, not historical, only pi-control? </t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.tuning_applied.simulations</t>
-  </si>
-  <si>
-    <t>1.5.1.4 *</t>
-  </si>
-  <si>
-    <t>Metrics Used</t>
-  </si>
-  <si>
-    <t>List any observed metrics used in tuning model/parameters</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.tuning_applied.metrics_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5.1.5 </t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Which (if any) variables were changed during the tuning process?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.tuning_applied.variables</t>
-  </si>
-  <si>
-    <t>1.6.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Key Parameter Values</t>
-  </si>
-  <si>
-    <t>Values of key parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.1 </t>
-  </si>
-  <si>
-    <t>Ice Strength</t>
-  </si>
-  <si>
-    <t>Ice strength (P*) in units of N m{-2}</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.key_parameter_values.ice_strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.2 </t>
-  </si>
-  <si>
-    <t>Snow Conductivity</t>
-  </si>
-  <si>
-    <t>Snow conductivity (ks) in units of W m{-1} K{-1}</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.key_parameter_values.snow_conductivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.3 </t>
-  </si>
-  <si>
-    <t>Ice Thickness In Leads</t>
-  </si>
-  <si>
-    <t>Minimum thickness of ice created in leads (h0) in units of m</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.key_parameter_values.ice_thickness_in_leads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.4 </t>
-  </si>
-  <si>
-    <t>Additional Parameters</t>
-  </si>
-  <si>
-    <t>If you have any additional paramterised values that you have used (e.g. minimum open water 
-         fraction or bare ice albedo), please provide them here as a comma separated list in the form 
-         {parameter1}: {value1}, {parameter2}: {value2}, etc.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.key_parameter_values.additional_parameters</t>
-  </si>
-  <si>
-    <t>1.7.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Assumptions</t>
-  </si>
-  <si>
-    <t>Assumptions made in the sea ice model</t>
-  </si>
-  <si>
-    <t>1.7.1.1 *</t>
-  </si>
-  <si>
-    <t>Provide a general overview description of any *key* assumptions made in this model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.assumptions.description</t>
-  </si>
-  <si>
-    <t>1.7.1.2 *</t>
-  </si>
-  <si>
-    <t>On Diagnostic Variables</t>
-  </si>
-  <si>
-    <t>Note any assumptions that specifically affect the CMIP6 diagnostic sea ice variables.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.assumptions.on_diagnostic_variables</t>
-  </si>
-  <si>
-    <t>1.7.1.3 *</t>
-  </si>
-  <si>
-    <t>Missing Processes</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.assumptions.missing_processes</t>
-  </si>
-  <si>
-    <t>1.8.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation</t>
-  </si>
-  <si>
-    <t>Conservation in the sea ice component</t>
-  </si>
-  <si>
-    <t>1.8.1.1 *</t>
-  </si>
-  <si>
-    <t>Provide a general description of conservation methodology.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.conservation.description</t>
-  </si>
-  <si>
-    <t>1.8.1.2 *</t>
-  </si>
-  <si>
-    <t>Properties</t>
-  </si>
-  <si>
-    <t>Which properties conserved in sea ice by the numerical schemes?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.conservation.properties</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>1.8.1.3 *</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>For each conserved property, specify the output variables which close 
-           the related budgets. as a comma separated list. For example: 
-           Conserved property, variable1, variable2, variable3</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.conservation.budget</t>
-  </si>
-  <si>
-    <t>1.8.1.4 *</t>
-  </si>
-  <si>
-    <t>Was Flux Correction Used</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>Does conservation involved flux correction?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.conservation.was_flux_correction_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8.1.5 </t>
-  </si>
-  <si>
-    <t>Corrected Conserved Prognostic Variables</t>
-  </si>
-  <si>
-    <t>List any variables which are conserved by *more* than the numerical scheme alone 
-            (e.g. has correction applied).</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.conservation.corrected_conserved_prognostic_variables</t>
-  </si>
-  <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>Grid</t>
-  </si>
-  <si>
-    <t>Sea Ice grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.1 </t>
-  </si>
-  <si>
-    <t>Name of grid in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of grid in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.overview</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>Grid --&gt; Discretisation --&gt; Horizontal</t>
-  </si>
-  <si>
-    <t>Sea ice discretisation in the horizontal</t>
-  </si>
-  <si>
-    <t>2.1.2.1 *</t>
-  </si>
-  <si>
-    <t>On which grid is the sea ice horizontal discretisation?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
-  </si>
-  <si>
-    <t>Ocean grid</t>
-  </si>
-  <si>
-    <t>Atmosphere Grid</t>
-  </si>
-  <si>
-    <t>Own Grid</t>
-  </si>
-  <si>
-    <t>2.1.2.2 *</t>
-  </si>
-  <si>
-    <t>Grid Type</t>
-  </si>
-  <si>
-    <t>What is the structure type of the sea ice grid?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.grid_type</t>
-  </si>
-  <si>
-    <t>Structured grid</t>
-  </si>
-  <si>
-    <t>Unstructured grid</t>
-  </si>
-  <si>
-    <t>Adaptive grid</t>
-  </si>
-  <si>
-    <t>2.1.2.3 *</t>
-  </si>
-  <si>
-    <t>Scheme</t>
-  </si>
-  <si>
-    <t>What is the horizontal discretization (advection) scheme?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.scheme</t>
-  </si>
-  <si>
-    <t>Finite differences</t>
-  </si>
-  <si>
-    <t>Finite elements</t>
-  </si>
-  <si>
-    <t>Finite volumes</t>
-  </si>
-  <si>
-    <t>2.1.2.4 *</t>
-  </si>
-  <si>
-    <t>Thermodynamics Time Step</t>
-  </si>
-  <si>
-    <t>What is the time step in the sea ice model thermodynamic component in seconds.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.thermodynamics_time_step</t>
-  </si>
-  <si>
-    <t>2.1.2.5 *</t>
-  </si>
-  <si>
-    <t>Dynamics Time Step</t>
-  </si>
-  <si>
-    <t>What is the time step in the sea ice model dynamic component in seconds.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.dynamics_time_step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.2.6 </t>
-  </si>
-  <si>
-    <t>Additional Details</t>
-  </si>
-  <si>
-    <t>Specify any additional horizontal discretisation details.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.additional_details</t>
-  </si>
-  <si>
-    <t>2.1.3</t>
-  </si>
-  <si>
-    <t>Grid --&gt; Discretisation --&gt; Vertical</t>
-  </si>
-  <si>
-    <t>Sea ice vertical properties</t>
-  </si>
-  <si>
-    <t>2.1.3.1 *</t>
-  </si>
-  <si>
-    <t>Layering</t>
-  </si>
-  <si>
-    <t>What type of sea ice vertical layers are implemented for purposes of thermodynamic calculations?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
-  </si>
-  <si>
-    <t>Zero-layer</t>
-  </si>
-  <si>
-    <t>Two-layers</t>
-  </si>
-  <si>
-    <t>Multi-layers</t>
-  </si>
-  <si>
-    <t>2.1.3.2 *</t>
-  </si>
-  <si>
-    <t>Number Of Layers</t>
-  </si>
-  <si>
-    <t>If using multi-layers specify how many.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.vertical.number_of_layers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.3.3 </t>
-  </si>
-  <si>
-    <t>Specify any additional vertical grid details.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.vertical.additional_details</t>
-  </si>
-  <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
-    <t>Grid --&gt; Seaice Categories</t>
-  </si>
-  <si>
-    <t>What method is used to represent sea ice categories?</t>
-  </si>
-  <si>
-    <t>2.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Has Mulitple Categories</t>
-  </si>
-  <si>
-    <t>Set to true if the sea ice model has multiple sea ice categories.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.seaice_categories.has_mulitple_categories</t>
-  </si>
-  <si>
-    <t>2.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Number Of Categories</t>
-  </si>
-  <si>
-    <t>If using sea ice categories specify how many.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.seaice_categories.number_of_categories</t>
-  </si>
-  <si>
-    <t>2.2.1.3 *</t>
-  </si>
-  <si>
-    <t>Category Limits</t>
-  </si>
-  <si>
-    <t>If using sea ice categories specify each of the category limits.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.seaice_categories.category_limits</t>
-  </si>
-  <si>
-    <t>2.2.1.4 *</t>
-  </si>
-  <si>
-    <t>Ice Thickness Distribution</t>
-  </si>
-  <si>
-    <t>Describe the sea ice thickness distribution.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.seaice_categories.ice_thickness_distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1.5 </t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>If the sea ice model does not use sea ice categories specify any 
-            additional details. For example models that paramterise 
-            the ice thickness distribution ITD (i.e there is no explicit ITD) but 
-            there is assumed distribution and fluxes are computed accordingly.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.seaice_categories.other</t>
-  </si>
-  <si>
-    <t>2.3.1</t>
-  </si>
-  <si>
-    <t>Grid --&gt; Snow On Seaice</t>
-  </si>
-  <si>
-    <t>Snow on sea ice details</t>
-  </si>
-  <si>
-    <t>2.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Has Snow On Ice</t>
-  </si>
-  <si>
-    <t>Is snow on ice represented in this model?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.snow_on_seaice.has_snow_on_ice</t>
-  </si>
-  <si>
-    <t>2.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Number Of Snow Levels</t>
-  </si>
-  <si>
-    <t>Number of vertical levels of snow on ice?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.snow_on_seaice.number_of_snow_levels</t>
-  </si>
-  <si>
-    <t>2.3.1.3 *</t>
-  </si>
-  <si>
-    <t>Snow Fraction</t>
-  </si>
-  <si>
-    <t>Describe how the snow fraction on sea ice is determined.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.snow_on_seaice.snow_fraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.1.4 </t>
-  </si>
-  <si>
-    <t>Specify any additional details related to snow on ice.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.snow_on_seaice.additional_details</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>Dynamics</t>
-  </si>
-  <si>
-    <t>Sea Ice Dynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the dynamics in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of sea ice dynamics in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.overview</t>
-  </si>
-  <si>
-    <t>3.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Horizontal Transport</t>
-  </si>
-  <si>
-    <t>What is the method of horizontal advection of sea ice?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.horizontal_transport</t>
-  </si>
-  <si>
-    <t>Incremental Re-mapping</t>
-  </si>
-  <si>
-    <t>Prather</t>
-  </si>
-  <si>
-    <t>Eulerian</t>
-  </si>
-  <si>
-    <t>3.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Transport In Thickness Space</t>
-  </si>
-  <si>
-    <t>What is the method of sea ice transport in thickness space (i.e. in thickness categories)?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.transport_in_thickness_space</t>
-  </si>
-  <si>
-    <t>Other: linear remapping</t>
-  </si>
-  <si>
-    <t>3.1.1.5 *</t>
-  </si>
-  <si>
-    <t>Ice Strength Formulation</t>
-  </si>
-  <si>
-    <t>Which method of sea ice strength formulation is used?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.ice_strength_formulation</t>
-  </si>
-  <si>
-    <t>Hibler 1979</t>
-  </si>
-  <si>
-    <t>Rothrock 1975</t>
-  </si>
-  <si>
-    <t>3.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Redistribution</t>
-  </si>
-  <si>
-    <t>Which processes can redistribute sea ice (including thickness)?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.redistribution</t>
-  </si>
-  <si>
-    <t>Ridging</t>
-  </si>
-  <si>
-    <t>Rafting</t>
-  </si>
-  <si>
-    <t>3.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Rheology</t>
-  </si>
-  <si>
-    <t>Rheology, what is the ice deformation formulation?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.rheology</t>
-  </si>
-  <si>
-    <t>Free-drift</t>
-  </si>
-  <si>
-    <t>Mohr-Coloumb</t>
-  </si>
-  <si>
-    <t>Visco-plastic</t>
-  </si>
-  <si>
-    <t>Elastic-visco-plastic</t>
-  </si>
-  <si>
-    <t>Elastic-anisotropic-plastic</t>
-  </si>
-  <si>
-    <t>Granular</t>
-  </si>
-  <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics</t>
-  </si>
-  <si>
-    <t>Sea Ice Thermodynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the thermodynamics in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of sea ice thermodynamics in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.overview</t>
-  </si>
-  <si>
-    <t>4.2.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Energy</t>
-  </si>
-  <si>
-    <t>Processes related to energy in sea ice thermodynamics.</t>
-  </si>
-  <si>
-    <t>4.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Enthalpy Formulation</t>
-  </si>
-  <si>
-    <t>What is the energy formulation?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.enthalpy_formulation</t>
-  </si>
-  <si>
-    <t>Pure ice latent heat (Semtner 0-layer)</t>
-  </si>
-  <si>
-    <t>Pure ice latent and sensible heat</t>
-  </si>
-  <si>
-    <t>Pure ice latent and sensible heat + brine heat reservoir (Semtner 3-layer)</t>
-  </si>
-  <si>
-    <t>Pure ice latent and sensible heat + explicit brine inclusions (Bitz and Lipscomb)</t>
-  </si>
-  <si>
-    <t>4.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Thermal Conductivity</t>
-  </si>
-  <si>
-    <t>What type of thermal conductivity is used?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.thermal_conductivity</t>
-  </si>
-  <si>
-    <t>Pure ice</t>
-  </si>
-  <si>
-    <t>Saline ice</t>
-  </si>
-  <si>
-    <t>4.2.1.3 *</t>
-  </si>
-  <si>
-    <t>Heat Diffusion</t>
-  </si>
-  <si>
-    <t>What is the method of heat diffusion?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.heat_diffusion</t>
-  </si>
-  <si>
-    <t>Conduction fluxes</t>
-  </si>
-  <si>
-    <t>Conduction and radiation heat fluxes</t>
-  </si>
-  <si>
-    <t>Conduction, radiation and latent heat transport</t>
-  </si>
-  <si>
-    <t>4.2.1.4 *</t>
-  </si>
-  <si>
-    <t>Basal Heat Flux</t>
-  </si>
-  <si>
-    <t>Method by which basal ocean heat flux is handled?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
-  </si>
-  <si>
-    <t>Other: parametrized (calculated in seaice)</t>
-  </si>
-  <si>
-    <t>Heat Reservoir</t>
-  </si>
-  <si>
-    <t>Thermal Fixed Salinity</t>
-  </si>
-  <si>
-    <t>Thermal Varying Salinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.5 </t>
-  </si>
-  <si>
-    <t>Fixed Salinity Value</t>
-  </si>
-  <si>
-    <t>If you have selected {Thermal properties depend on S-T (with fixed salinity)},
-             supply fixed salinity value for each sea ice layer.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.fixed_salinity_value</t>
-  </si>
-  <si>
-    <t>4.2.1.6 *</t>
-  </si>
-  <si>
-    <t>Heat Content Of Precipitation</t>
-  </si>
-  <si>
-    <t>Describe the method by which the heat content of precipitation is handled.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.heat_content_of_precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.7 </t>
-  </si>
-  <si>
-    <t>Precipitation Effects On Salinity</t>
-  </si>
-  <si>
-    <t>If precipitation (freshwater) that falls on sea ice affects the ocean surface
-             salinity please provide further details.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.precipitation_effects_on_salinity</t>
-  </si>
-  <si>
-    <t>4.3.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Mass</t>
-  </si>
-  <si>
-    <t>Processes related to mass in sea ice thermodynamics.</t>
-  </si>
-  <si>
-    <t>4.3.1.1 *</t>
-  </si>
-  <si>
-    <t>New Ice Formation</t>
-  </si>
-  <si>
-    <t>Describe the method by which new sea ice is formed in open water.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.mass.new_ice_formation</t>
-  </si>
-  <si>
-    <t>From open water, bottom, and lateral</t>
-  </si>
-  <si>
-    <t>4.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Ice Vertical Growth And Melt</t>
-  </si>
-  <si>
-    <t>Describe the method that governs the vertical growth and melt of sea ice.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.mass.ice_vertical_growth_and_melt</t>
-  </si>
-  <si>
-    <t>4.3.1.3 *</t>
-  </si>
-  <si>
-    <t>Ice Lateral Melting</t>
-  </si>
-  <si>
-    <t>What is the method of sea ice lateral melting?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.mass.ice_lateral_melting</t>
-  </si>
-  <si>
-    <t>Floe-size dependent (Bitz et al 2001)</t>
-  </si>
-  <si>
-    <t>Virtual thin ice melting (for single-category)</t>
-  </si>
-  <si>
-    <t>4.3.1.4 *</t>
-  </si>
-  <si>
-    <t>Ice Surface Sublimation</t>
-  </si>
-  <si>
-    <t>Describe the method that governs sea ice surface sublimation.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.mass.ice_surface_sublimation</t>
-  </si>
-  <si>
-    <t>4.3.1.5 *</t>
-  </si>
-  <si>
-    <t>Frazil Ice</t>
-  </si>
-  <si>
-    <t>Describe the method of frazil ice formation.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.mass.frazil_ice</t>
-  </si>
-  <si>
-    <t>4.4.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Salt</t>
-  </si>
-  <si>
-    <t>Processes related to salt in sea ice thermodynamics.</t>
-  </si>
-  <si>
-    <t>4.4.1.1 *</t>
-  </si>
-  <si>
-    <t>Has Multiple Sea Ice Salinities</t>
-  </si>
-  <si>
-    <t>Does the sea ice model use two different salinities: one for
-            thermodynamic calculations; and one for the salt budget?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.has_multiple_sea_ice_salinities</t>
-  </si>
-  <si>
-    <t>4.4.1.2 *</t>
-  </si>
-  <si>
-    <t>Sea Ice Salinity Thermal Impacts</t>
-  </si>
-  <si>
-    <t>Does sea ice salinity impact the thermal properties of sea ice?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.sea_ice_salinity_thermal_impacts</t>
-  </si>
-  <si>
-    <t>4.4.2</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Salt --&gt; Mass Transport</t>
-  </si>
-  <si>
-    <t>Mass transport of salt.</t>
-  </si>
-  <si>
-    <t>4.4.2.1 *</t>
-  </si>
-  <si>
-    <t>Salinity Type</t>
-  </si>
-  <si>
-    <t>How is salinity determined in the mass transport of salt calculation?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
-  </si>
-  <si>
-    <t>Prescribed salinity profile</t>
-  </si>
-  <si>
-    <t>Prognostic salinity profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.2.2 </t>
-  </si>
-  <si>
-    <t>Constant Salinity Value</t>
-  </si>
-  <si>
-    <t>If using a constant salinity value specify this value in PSU?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.mass_transport.constant_salinity_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.2.3 </t>
-  </si>
-  <si>
-    <t>Describe the salinity profile used.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.mass_transport.additional_details</t>
-  </si>
-  <si>
-    <t>4.4.3</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Salt --&gt; Thermodynamics</t>
-  </si>
-  <si>
-    <t>Salt thermodynamics</t>
-  </si>
-  <si>
-    <t>4.4.3.1 *</t>
-  </si>
-  <si>
-    <t>How is salinity determined in the thermodynamic calculation?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.salinity_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.3.2 </t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.constant_salinity_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.3.3 </t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.additional_details</t>
-  </si>
-  <si>
-    <t>4.5.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Ice Thickness Distribution</t>
-  </si>
-  <si>
-    <t>Ice thickness distribution details.</t>
-  </si>
-  <si>
-    <t>4.5.1.1 *</t>
-  </si>
-  <si>
-    <t>Representation</t>
-  </si>
-  <si>
-    <t>How is the sea ice thickness distribution represented?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.ice_thickness_distribution.representation</t>
-  </si>
-  <si>
-    <t>Explicit</t>
-  </si>
-  <si>
-    <t>Virtual (enhancement of thermal conductivity, thin ice melting)</t>
-  </si>
-  <si>
-    <t>4.6.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Ice Floe Size Distribution</t>
-  </si>
-  <si>
-    <t>Ice floe-size distribution details.</t>
-  </si>
-  <si>
-    <t>4.6.1.1 *</t>
-  </si>
-  <si>
-    <t>How is the sea ice floe-size represented?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.representation</t>
-  </si>
-  <si>
-    <t>Parameterised</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6.1.2 </t>
-  </si>
-  <si>
-    <t>Provide further details on any parameterisation of floe-size.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.additional_details</t>
-  </si>
-  <si>
-    <t>4.7.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Melt Ponds</t>
-  </si>
-  <si>
-    <t>Characteristics of melt ponds.</t>
-  </si>
-  <si>
-    <t>4.7.1.1 *</t>
-  </si>
-  <si>
-    <t>Are Included</t>
-  </si>
-  <si>
-    <t>Are melt ponds included in the sea ice model?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.melt_ponds.are_included</t>
-  </si>
-  <si>
-    <t>4.7.1.2 *</t>
-  </si>
-  <si>
-    <t>Formulation</t>
-  </si>
-  <si>
-    <t>What method of melt pond formulation is used?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.melt_ponds.formulation</t>
-  </si>
-  <si>
-    <t>Other: no</t>
-  </si>
-  <si>
-    <t>Flocco and Feltham (2010)</t>
-  </si>
-  <si>
-    <t>Level-ice melt ponds</t>
-  </si>
-  <si>
-    <t>4.7.1.3 *</t>
-  </si>
-  <si>
-    <t>Impacts</t>
-  </si>
-  <si>
-    <t>What do melt ponds have an impact on?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.melt_ponds.impacts</t>
-  </si>
-  <si>
-    <t>Albedo</t>
-  </si>
-  <si>
-    <t>Freshwater</t>
-  </si>
-  <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>4.8.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Snow Processes</t>
-  </si>
-  <si>
-    <t>Thermodynamic processes in snow on sea ice</t>
-  </si>
-  <si>
-    <t>4.8.1.1 *</t>
-  </si>
-  <si>
-    <t>Has Snow Aging</t>
-  </si>
-  <si>
-    <t>Set to True if the sea ice model has a snow aging scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_aging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8.1.2 </t>
-  </si>
-  <si>
-    <t>Snow Aging Scheme</t>
-  </si>
-  <si>
-    <t>Describe the snow aging scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.snow_aging_scheme</t>
-  </si>
-  <si>
-    <t>4.8.1.3 *</t>
-  </si>
-  <si>
-    <t>Has Snow Ice Formation</t>
-  </si>
-  <si>
-    <t>Set to True if the sea ice model has snow ice formation.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_ice_formation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8.1.4 </t>
-  </si>
-  <si>
-    <t>Snow Ice Formation Scheme</t>
-  </si>
-  <si>
-    <t>Describe the snow ice formation scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.snow_ice_formation_scheme</t>
-  </si>
-  <si>
-    <t>4.8.1.5 *</t>
-  </si>
-  <si>
-    <t>What is the impact of ridging on snow cover?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
-  </si>
-  <si>
-    <t>Snow-ice</t>
-  </si>
-  <si>
-    <t>4.8.1.6 *</t>
-  </si>
-  <si>
-    <t>What is the heat diffusion through snow methodology in sea ice thermodynamics?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.heat_diffusion</t>
-  </si>
-  <si>
-    <t>Single-layered heat diffusion</t>
-  </si>
-  <si>
-    <t>Multi-layered heat diffusion</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
-    <t>Radiative Processes</t>
-  </si>
-  <si>
-    <t>Sea Ice Radiative Processes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the radiative processes in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.radiative_processes.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of sea ice radiative processes in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.radiative_processes.overview</t>
-  </si>
-  <si>
-    <t>5.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Surface Albedo</t>
-  </si>
-  <si>
-    <t>Method used to handle surface albedo?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.radiative_processes.surface_albedo</t>
-  </si>
-  <si>
-    <t>Other: 0.85-0.95 for visible, 0.65-0.8 for near infrared, depends on temperature</t>
-  </si>
-  <si>
-    <t>Delta-Eddington</t>
-  </si>
-  <si>
-    <t>Parameterized</t>
-  </si>
-  <si>
-    <t>Multi-band albedo</t>
-  </si>
-  <si>
-    <t>5.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Ice Radiation Transmission</t>
-  </si>
-  <si>
-    <t>Method by which solar radiation through sea ice is handled?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.radiative_processes.ice_radiation_transmission</t>
-  </si>
-  <si>
-    <t>Exponential attenuation</t>
-  </si>
-  <si>
-    <t>Ice radiation transmission per category</t>
-  </si>
-  <si>
-    <t>COCO4.9</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>T_frz [C] = -0.0543 * Salinity</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>1 degree</t>
-    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Provide a general overview description of tuning: explain and motivate 
@@ -1662,118 +370,1355 @@
             possible conflicts with parameterization level tuning. In particular describe 
             any struggle with a parameter value that required pushing it to its limits to 
             solve a particular model deficiency.</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.tuning_applied.description</t>
   </si>
   <si>
     <t>Our primary target of tuning to retain reasonable sea-ice extent in each hemisphere and realistic horizontal distribution of sea-ice concentration/thickness. Climate performance metrics generally take priority. Note that most of the parameters in other submodels are tuned mainly for improving global climate processes rather than sea-ice states.  Sea-ice and snow on the ice have quite a high albedo to enhance the reproducibility with the other submodels' setting.</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1.5.1.2 *</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>What was the aim of tuning, e.g. correct sea ice minima, correct seasonal cycle?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.tuning_applied.target</t>
   </si>
   <si>
     <t>sea ice minima in NH, sea ice maxima in SH, and reasonable horizontal distibution</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1.5.1.3 *</t>
+  </si>
+  <si>
+    <t>Simulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which simulations had tuning applied, e.g. all, not historical, only pi-control? </t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.tuning_applied.simulations</t>
   </si>
   <si>
     <t>pi-control only</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1.5.1.4 *</t>
+  </si>
+  <si>
+    <t>Metrics Used</t>
+  </si>
+  <si>
+    <t>List any observed metrics used in tuning model/parameters</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.tuning_applied.metrics_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.1.5 </t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Which (if any) variables were changed during the tuning process?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.tuning_applied.variables</t>
   </si>
   <si>
     <t>albedo-related paramters</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Key Parameter Values</t>
+  </si>
+  <si>
+    <t>Values of key parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.1 </t>
+  </si>
+  <si>
+    <t>Ice Strength</t>
+  </si>
+  <si>
+    <t>Ice strength (P*) in units of N m{-2}</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.key_parameter_values.ice_strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.2 </t>
+  </si>
+  <si>
+    <t>Snow Conductivity</t>
+  </si>
+  <si>
+    <t>Snow conductivity (ks) in units of W m{-1} K{-1}</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.key_parameter_values.snow_conductivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.3 </t>
+  </si>
+  <si>
+    <t>Ice Thickness In Leads</t>
+  </si>
+  <si>
+    <t>Minimum thickness of ice created in leads (h0) in units of m</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.key_parameter_values.ice_thickness_in_leads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.4 </t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>If you have any additional paramterised values that you have used (e.g. minimum open water 
+         fraction or bare ice albedo), please provide them here as a comma separated list in the form 
+         {parameter1}: {value1}, {parameter2}: {value2}, etc.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.key_parameter_values.additional_parameters</t>
   </si>
   <si>
     <t>maximum concentration in a specific grid: 0.99</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Assumptions</t>
+  </si>
+  <si>
+    <t>Assumptions made in the sea ice model</t>
+  </si>
+  <si>
+    <t>1.7.1.1 *</t>
+  </si>
+  <si>
+    <t>Provide a general overview description of any *key* assumptions made in this model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.assumptions.description</t>
+  </si>
+  <si>
+    <t>Ice thinner than minimum thickness, 0.3 m, is not allowed to exist. Snow area fraction over sea ice is not explicitly handled; instead, albedo dependency on skin temperature and snow thickness implicitly includes the effect of snow area fraction change.</t>
+  </si>
+  <si>
+    <t>1.7.1.2 *</t>
+  </si>
+  <si>
+    <t>On Diagnostic Variables</t>
+  </si>
+  <si>
+    <t>Note any assumptions that specifically affect the CMIP6 diagnostic sea ice variables.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.assumptions.on_diagnostic_variables</t>
+  </si>
+  <si>
+    <t>Some of variables such as snow area fraction is not defined</t>
+  </si>
+  <si>
+    <t>1.7.1.3 *</t>
+  </si>
+  <si>
+    <t>Missing Processes</t>
   </si>
   <si>
     <t>List any *key* processes missing in this model configuration? Provide full details 
              where this affects the CMIP6 diagnostic sea ice variables?</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Ice thinner than minimum thickness, 0.3 m, is not allowed to exist. Snow area fraction over sea ice is not explicitly handled; instead, albedo dependency on skin temperature and snow thickness implicitly includes the effect of snow area fraction change.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Some of variables such as snow area fraction is not defined</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.assumptions.missing_processes</t>
   </si>
   <si>
     <t>Melt pond is not represented. Rainfall as a form of water directly falls into the ocean and does not interact with the sea-ice component.</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation</t>
+  </si>
+  <si>
+    <t>Conservation in the sea ice component</t>
+  </si>
+  <si>
+    <t>1.8.1.1 *</t>
+  </si>
+  <si>
+    <t>Provide a general description of conservation methodology.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.conservation.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have checked changes of the properties which should be conserved are in the range of numerical error by calculating the difference of these properties by using multiple snapshots of the modeled ocean. </t>
+  </si>
+  <si>
+    <t>1.8.1.2 *</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Which properties conserved in sea ice by the numerical schemes?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.conservation.properties</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>1.8.1.3 *</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>For each conserved property, specify the output variables which close 
+           the related budgets. as a comma separated list. For example: 
+           Conserved property, variable1, variable2, variable3</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.conservation.budget</t>
   </si>
   <si>
     <t>Mass, sea-ice mass per area, snow mass per area. Salt, sea-ice mass per area.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>One-Layer</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1.8.1.4 *</t>
+  </si>
+  <si>
+    <t>Was Flux Correction Used</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>Does conservation involved flux correction?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.conservation.was_flux_correction_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8.1.5 </t>
+  </si>
+  <si>
+    <t>Corrected Conserved Prognostic Variables</t>
+  </si>
+  <si>
+    <t>List any variables which are conserved by *more* than the numerical scheme alone 
+            (e.g. has correction applied).</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.conservation.corrected_conserved_prognostic_variables</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>Sea Ice grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.1 </t>
+  </si>
+  <si>
+    <t>Name of grid in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of grid in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.overview</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>Grid --&gt; Discretisation --&gt; Horizontal</t>
+  </si>
+  <si>
+    <t>Sea ice discretisation in the horizontal</t>
+  </si>
+  <si>
+    <t>2.1.2.1 *</t>
+  </si>
+  <si>
+    <t>On which grid is the sea ice horizontal discretisation?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
+  </si>
+  <si>
+    <t>Ocean grid: Sea ice is horizontally discretised on the ocean grid.</t>
+  </si>
+  <si>
+    <t>Atmosphere Grid: Sea ice is horizontally discretised on the atmospheric grid.</t>
+  </si>
+  <si>
+    <t>Own Grid: Sea ice is horizontally discretised on its own independent grid.</t>
+  </si>
+  <si>
+    <t>2.1.2.2 *</t>
+  </si>
+  <si>
+    <t>Grid Type</t>
+  </si>
+  <si>
+    <t>What is the structure type of the sea ice grid?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.grid_type</t>
+  </si>
+  <si>
+    <t>Structured grid</t>
+  </si>
+  <si>
+    <t>Unstructured grid</t>
+  </si>
+  <si>
+    <t>Adaptive grid: Computational grid changes during the run</t>
+  </si>
+  <si>
+    <t>2.1.2.3 *</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>What is the horizontal discretization (advection) scheme?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.scheme</t>
+  </si>
+  <si>
+    <t>Finite differences</t>
+  </si>
+  <si>
+    <t>Finite elements</t>
+  </si>
+  <si>
+    <t>Finite volumes</t>
+  </si>
+  <si>
+    <t>2.1.2.4 *</t>
+  </si>
+  <si>
+    <t>Thermodynamics Time Step</t>
+  </si>
+  <si>
+    <t>What is the time step in the sea ice model thermodynamic component in seconds.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.thermodynamics_time_step</t>
+  </si>
+  <si>
+    <t>2.1.2.5 *</t>
+  </si>
+  <si>
+    <t>Dynamics Time Step</t>
+  </si>
+  <si>
+    <t>What is the time step in the sea ice model dynamic component in seconds.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.dynamics_time_step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.2.6 </t>
+  </si>
+  <si>
+    <t>Additional Details</t>
+  </si>
+  <si>
+    <t>Specify any additional horizontal discretisation details.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.additional_details</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>Grid --&gt; Discretisation --&gt; Vertical</t>
+  </si>
+  <si>
+    <t>Sea ice vertical properties</t>
+  </si>
+  <si>
+    <t>2.1.3.1 *</t>
+  </si>
+  <si>
+    <t>Layering</t>
+  </si>
+  <si>
+    <t>What type of sea ice vertical layers are implemented for purposes of thermodynamic calculations?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
+  </si>
+  <si>
+    <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>Two-layers: Simulation uses two layers (i.e. one ice and one snow layer).</t>
+  </si>
+  <si>
+    <t>Multi-layers: Simulation uses more than two layers.</t>
+  </si>
+  <si>
+    <t>2.1.3.2 *</t>
+  </si>
+  <si>
+    <t>Number Of Layers</t>
+  </si>
+  <si>
+    <t>If using multi-layers specify how many.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.vertical.number_of_layers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.3.3 </t>
+  </si>
+  <si>
+    <t>Specify any additional vertical grid details.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.vertical.additional_details</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>Grid --&gt; Seaice Categories</t>
+  </si>
+  <si>
+    <t>What method is used to represent sea ice categories?</t>
+  </si>
+  <si>
+    <t>2.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Has Mulitple Categories</t>
+  </si>
+  <si>
+    <t>Set to true if the sea ice model has multiple sea ice categories.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.seaice_categories.has_mulitple_categories</t>
+  </si>
+  <si>
+    <t>2.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Number Of Categories</t>
+  </si>
+  <si>
+    <t>If using sea ice categories specify how many.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.seaice_categories.number_of_categories</t>
+  </si>
+  <si>
+    <t>2.2.1.3 *</t>
+  </si>
+  <si>
+    <t>Category Limits</t>
+  </si>
+  <si>
+    <t>If using sea ice categories specify each of the category limits.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.seaice_categories.category_limits</t>
+  </si>
+  <si>
+    <t>0.3, 0.6, 1.0, 2.5, 5.0</t>
+  </si>
+  <si>
+    <t>2.2.1.4 *</t>
+  </si>
+  <si>
+    <t>Ice Thickness Distribution</t>
+  </si>
+  <si>
+    <t>Describe the sea ice thickness distribution.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.seaice_categories.ice_thickness_distribution</t>
   </si>
   <si>
     <t>The governing equation follows Thorndike et al. (1975). Its discritizaion as well as the evaluation of mechanical redistribution term follows Bitz et al. (2001).</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1.5 </t>
+  </si>
+  <si>
+    <t>If the sea ice model does not use sea ice categories specify any 
+            additional details. For example models that paramterise 
+            the ice thickness distribution ITD (i.e there is no explicit ITD) but 
+            there is assumed distribution and fluxes are computed accordingly.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.seaice_categories.other</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>Grid --&gt; Snow On Seaice</t>
+  </si>
+  <si>
+    <t>Snow on sea ice details</t>
+  </si>
+  <si>
+    <t>2.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Has Snow On Ice</t>
+  </si>
+  <si>
+    <t>Is snow on ice represented in this model?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.snow_on_seaice.has_snow_on_ice</t>
+  </si>
+  <si>
+    <t>2.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Number Of Snow Levels</t>
+  </si>
+  <si>
+    <t>Number of vertical levels of snow on ice?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.snow_on_seaice.number_of_snow_levels</t>
+  </si>
+  <si>
+    <t>2.3.1.3 *</t>
+  </si>
+  <si>
+    <t>Snow Fraction</t>
+  </si>
+  <si>
+    <t>Describe how the snow fraction on sea ice is determined.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.snow_on_seaice.snow_fraction</t>
   </si>
   <si>
     <t>Snow area fraction is not explicitly handled; instead, albedo dependency on skin temperature and snow thickness implicitly includes the effect of snow area fraction change.</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.1.4 </t>
+  </si>
+  <si>
+    <t>Specify any additional details related to snow on ice.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.snow_on_seaice.additional_details</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>Dynamics</t>
+  </si>
+  <si>
+    <t>Sea Ice Dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the dynamics in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of sea ice dynamics in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.overview</t>
+  </si>
+  <si>
+    <t>3.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Horizontal Transport</t>
+  </si>
+  <si>
+    <t>What is the method of horizontal advection of sea ice?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.horizontal_transport</t>
+  </si>
+  <si>
+    <t>Eulerian</t>
+  </si>
+  <si>
+    <t>Incremental Re-mapping: (including Semi-Lagrangian)</t>
+  </si>
+  <si>
+    <t>Prather</t>
+  </si>
+  <si>
+    <t>3.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Transport In Thickness Space</t>
+  </si>
+  <si>
+    <t>What is the method of sea ice transport in thickness space (i.e. in thickness categories)?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.transport_in_thickness_space</t>
+  </si>
+  <si>
+    <t>3.1.1.5 *</t>
+  </si>
+  <si>
+    <t>Ice Strength Formulation</t>
+  </si>
+  <si>
+    <t>Which method of sea ice strength formulation is used?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.ice_strength_formulation</t>
+  </si>
+  <si>
+    <t>Hibler 1979</t>
+  </si>
+  <si>
+    <t>Rothrock 1975</t>
+  </si>
+  <si>
+    <t>3.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Redistribution</t>
+  </si>
+  <si>
+    <t>Which processes can redistribute sea ice (including thickness)?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.redistribution</t>
+  </si>
+  <si>
+    <t>Ridging</t>
+  </si>
+  <si>
+    <t>Rafting</t>
+  </si>
+  <si>
+    <t>3.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Rheology</t>
+  </si>
+  <si>
+    <t>Rheology, what is the ice deformation formulation?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.rheology</t>
+  </si>
+  <si>
+    <t>Free-drift</t>
+  </si>
+  <si>
+    <t>Mohr-Coloumb</t>
+  </si>
+  <si>
+    <t>Visco-plastic: VP</t>
+  </si>
+  <si>
+    <t>Elastic-visco-plastic: EVP</t>
+  </si>
+  <si>
+    <t>Elastic-anisotropic-plastic</t>
+  </si>
+  <si>
+    <t>Granular</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics</t>
+  </si>
+  <si>
+    <t>Sea Ice Thermodynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the thermodynamics in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of sea ice thermodynamics in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.overview</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Energy</t>
+  </si>
+  <si>
+    <t>Processes related to energy in sea ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>4.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Enthalpy Formulation</t>
+  </si>
+  <si>
+    <t>What is the energy formulation?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.enthalpy_formulation</t>
+  </si>
+  <si>
+    <t>Pure ice latent and sensible heat + explicit brine inclusions (Bitz and Lipscomb)</t>
+  </si>
+  <si>
+    <t>Pure ice latent heat (Semtner 0-layer)</t>
+  </si>
+  <si>
+    <t>Pure ice latent and sensible heat</t>
+  </si>
+  <si>
+    <t>Pure ice latent and sensible heat + brine heat reservoir (Semtner 3-layer)</t>
+  </si>
+  <si>
+    <t>4.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Thermal Conductivity</t>
+  </si>
+  <si>
+    <t>What type of thermal conductivity is used?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.thermal_conductivity</t>
+  </si>
+  <si>
+    <t>Pure ice</t>
+  </si>
+  <si>
+    <t>Saline ice</t>
+  </si>
+  <si>
+    <t>4.2.1.3 *</t>
+  </si>
+  <si>
+    <t>Heat Diffusion</t>
+  </si>
+  <si>
+    <t>What is the method of heat diffusion?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.heat_diffusion</t>
+  </si>
+  <si>
+    <t>Conduction fluxes</t>
+  </si>
+  <si>
+    <t>Conduction and radiation heat fluxes</t>
+  </si>
+  <si>
+    <t>Conduction, radiation and latent heat transport</t>
+  </si>
+  <si>
+    <t>4.2.1.4 *</t>
+  </si>
+  <si>
+    <t>Basal Heat Flux</t>
+  </si>
+  <si>
+    <t>Method by which basal ocean heat flux is handled?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
+  </si>
+  <si>
+    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
+  </si>
+  <si>
+    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
+  </si>
+  <si>
+    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.5 </t>
+  </si>
+  <si>
+    <t>Fixed Salinity Value</t>
+  </si>
+  <si>
+    <t>If you have selected {Thermal properties depend on S-T (with fixed salinity)},
+             supply fixed salinity value for each sea ice layer.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.fixed_salinity_value</t>
+  </si>
+  <si>
+    <t>4.2.1.6 *</t>
+  </si>
+  <si>
+    <t>Heat Content Of Precipitation</t>
+  </si>
+  <si>
+    <t>Describe the method by which the heat content of precipitation is handled.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.heat_content_of_precipitation</t>
   </si>
   <si>
     <t>Precipitation as a form of water directly falls into the ocean and does not interact with the sea-ice component.</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.7 </t>
+  </si>
+  <si>
+    <t>Precipitation Effects On Salinity</t>
+  </si>
+  <si>
+    <t>If precipitation (freshwater) that falls on sea ice affects the ocean surface
+             salinity please provide further details.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.precipitation_effects_on_salinity</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Mass</t>
+  </si>
+  <si>
+    <t>Processes related to mass in sea ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>4.3.1.1 *</t>
+  </si>
+  <si>
+    <t>New Ice Formation</t>
+  </si>
+  <si>
+    <t>Describe the method by which new sea ice is formed in open water.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.mass.new_ice_formation</t>
   </si>
   <si>
     <t>From open water</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>Parameterized (ratio of basal melting:lateral melting prescribed)</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>4.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Ice Vertical Growth And Melt</t>
+  </si>
+  <si>
+    <t>Describe the method that governs the vertical growth and melt of sea ice.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.mass.ice_vertical_growth_and_melt</t>
+  </si>
+  <si>
+    <t>From open water, bottom, and lateral</t>
+  </si>
+  <si>
+    <t>4.3.1.3 *</t>
+  </si>
+  <si>
+    <t>Ice Lateral Melting</t>
+  </si>
+  <si>
+    <t>What is the method of sea ice lateral melting?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.mass.ice_lateral_melting</t>
+  </si>
+  <si>
+    <t>Floe-size dependent (Bitz et al 2001)</t>
+  </si>
+  <si>
+    <t>Virtual thin ice melting (for single-category)</t>
+  </si>
+  <si>
+    <t>4.3.1.4 *</t>
+  </si>
+  <si>
+    <t>Ice Surface Sublimation</t>
+  </si>
+  <si>
+    <t>Describe the method that governs sea ice surface sublimation.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.mass.ice_surface_sublimation</t>
   </si>
   <si>
     <t>Sublimation flux is diagnosed in the coupler to the atmospheric component.</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>4.3.1.5 *</t>
+  </si>
+  <si>
+    <t>Frazil Ice</t>
+  </si>
+  <si>
+    <t>Describe the method of frazil ice formation.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.mass.frazil_ice</t>
   </si>
   <si>
     <t xml:space="preserve">New ice formation from open water implicitly includes frazil ice formation. </t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>4.4.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Salt</t>
+  </si>
+  <si>
+    <t>Processes related to salt in sea ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>4.4.1.1 *</t>
+  </si>
+  <si>
+    <t>Has Multiple Sea Ice Salinities</t>
+  </si>
+  <si>
+    <t>Does the sea ice model use two different salinities: one for
+            thermodynamic calculations; and one for the salt budget?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.has_multiple_sea_ice_salinities</t>
+  </si>
+  <si>
+    <t>4.4.1.2 *</t>
+  </si>
+  <si>
+    <t>Sea Ice Salinity Thermal Impacts</t>
+  </si>
+  <si>
+    <t>Does sea ice salinity impact the thermal properties of sea ice?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.sea_ice_salinity_thermal_impacts</t>
+  </si>
+  <si>
+    <t>4.4.2</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Salt --&gt; Mass Transport</t>
+  </si>
+  <si>
+    <t>Mass transport of salt.</t>
+  </si>
+  <si>
+    <t>4.4.2.1 *</t>
+  </si>
+  <si>
+    <t>Salinity Type</t>
+  </si>
+  <si>
+    <t>How is salinity determined in the mass transport of salt calculation?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Prescribed salinity profile</t>
+  </si>
+  <si>
+    <t>Prognostic salinity profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.2.2 </t>
+  </si>
+  <si>
+    <t>Constant Salinity Value</t>
+  </si>
+  <si>
+    <t>If using a constant salinity value specify this value in PSU?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.mass_transport.constant_salinity_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.2.3 </t>
+  </si>
+  <si>
+    <t>Describe the salinity profile used.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.mass_transport.additional_details</t>
+  </si>
+  <si>
+    <t>4.4.3</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Salt --&gt; Thermodynamics</t>
+  </si>
+  <si>
+    <t>Salt thermodynamics</t>
+  </si>
+  <si>
+    <t>4.4.3.1 *</t>
+  </si>
+  <si>
+    <t>How is salinity determined in the thermodynamic calculation?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.salinity_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.3.2 </t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.constant_salinity_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.3.3 </t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.additional_details</t>
+  </si>
+  <si>
+    <t>4.5.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Ice Thickness Distribution</t>
+  </si>
+  <si>
+    <t>Ice thickness distribution details.</t>
+  </si>
+  <si>
+    <t>4.5.1.1 *</t>
+  </si>
+  <si>
+    <t>Representation</t>
+  </si>
+  <si>
+    <t>How is the sea ice thickness distribution represented?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.ice_thickness_distribution.representation</t>
+  </si>
+  <si>
+    <t>Explicit</t>
+  </si>
+  <si>
+    <t>Virtual (enhancement of thermal conductivity, thin ice melting)</t>
+  </si>
+  <si>
+    <t>4.6.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Ice Floe Size Distribution</t>
+  </si>
+  <si>
+    <t>Ice floe-size distribution details.</t>
+  </si>
+  <si>
+    <t>4.6.1.1 *</t>
+  </si>
+  <si>
+    <t>How is the sea ice floe-size represented?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.representation</t>
+  </si>
+  <si>
+    <t>Parameterised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6.1.2 </t>
+  </si>
+  <si>
+    <t>Provide further details on any parameterisation of floe-size.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.additional_details</t>
+  </si>
+  <si>
+    <t>4.7.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Melt Ponds</t>
+  </si>
+  <si>
+    <t>Characteristics of melt ponds.</t>
+  </si>
+  <si>
+    <t>4.7.1.1 *</t>
+  </si>
+  <si>
+    <t>Are Included</t>
+  </si>
+  <si>
+    <t>Are melt ponds included in the sea ice model?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.melt_ponds.are_included</t>
+  </si>
+  <si>
+    <t>4.7.1.2 *</t>
+  </si>
+  <si>
+    <t>Formulation</t>
+  </si>
+  <si>
+    <t>What method of melt pond formulation is used?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.melt_ponds.formulation</t>
+  </si>
+  <si>
+    <t>Flocco and Feltham (2010)</t>
+  </si>
+  <si>
+    <t>Level-ice melt ponds</t>
+  </si>
+  <si>
+    <t>4.7.1.3 *</t>
+  </si>
+  <si>
+    <t>Impacts</t>
+  </si>
+  <si>
+    <t>What do melt ponds have an impact on?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.melt_ponds.impacts</t>
+  </si>
+  <si>
+    <t>Albedo</t>
+  </si>
+  <si>
+    <t>Freshwater</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>4.8.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Snow Processes</t>
+  </si>
+  <si>
+    <t>Thermodynamic processes in snow on sea ice</t>
+  </si>
+  <si>
+    <t>4.8.1.1 *</t>
+  </si>
+  <si>
+    <t>Has Snow Aging</t>
+  </si>
+  <si>
+    <t>Set to True if the sea ice model has a snow aging scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_aging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8.1.2 </t>
+  </si>
+  <si>
+    <t>Snow Aging Scheme</t>
+  </si>
+  <si>
+    <t>Describe the snow aging scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.snow_aging_scheme</t>
+  </si>
+  <si>
+    <t>4.8.1.3 *</t>
+  </si>
+  <si>
+    <t>Has Snow Ice Formation</t>
+  </si>
+  <si>
+    <t>Set to True if the sea ice model has snow ice formation.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_ice_formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8.1.4 </t>
+  </si>
+  <si>
+    <t>Snow Ice Formation Scheme</t>
+  </si>
+  <si>
+    <t>Describe the snow ice formation scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.snow_ice_formation_scheme</t>
   </si>
   <si>
     <t>When snow-ice interface comes below sea level, the snow between the interface and sea level turns into sea ice.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>absorbed at the top</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>COCO medium resolution model</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t xml:space="preserve">We have checked changes of the properties which should be conserved are in the range of numerical error by calculating the difference of these properties by using multiple snapshots of the modeled ocean. </t>
-  </si>
-  <si>
-    <t>Subgrid-scale thickness distribution, 1-layer thermodynamics, EVP rheology</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>COCO is an ice-ocean coupled model which can be used as a stand-alone model or an ice-ocean component of MIROC. It has been developed in Atmosphere and Ocean Research Institute (AORI), The University of Tokyo, and Japan Agency for Marine-Earth Science and Technology (JAMSTEC).  The sea-ice part of COCO employs subgrid-scale thickness distribution, 1-layer thermodynamics, and EVP rheology.</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>0.3, 0.6, 1.0, 2.5, 5.0</t>
-    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>4.8.1.5 *</t>
+  </si>
+  <si>
+    <t>What is the impact of ridging on snow cover?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
+  </si>
+  <si>
+    <t>Snow-ice</t>
+  </si>
+  <si>
+    <t>4.8.1.6 *</t>
+  </si>
+  <si>
+    <t>What is the heat diffusion through snow methodology in sea ice thermodynamics?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.heat_diffusion</t>
+  </si>
+  <si>
+    <t>Single-layered heat diffusion</t>
+  </si>
+  <si>
+    <t>Multi-layered heat diffusion</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>Radiative Processes</t>
+  </si>
+  <si>
+    <t>Sea Ice Radiative Processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the radiative processes in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.radiative_processes.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of sea ice radiative processes in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.radiative_processes.overview</t>
+  </si>
+  <si>
+    <t>5.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Surface Albedo</t>
+  </si>
+  <si>
+    <t>Method used to handle surface albedo?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.radiative_processes.surface_albedo</t>
+  </si>
+  <si>
+    <t>Delta-Eddington</t>
+  </si>
+  <si>
+    <t>Parameterized: Sea ice albedo is parameterized.</t>
+  </si>
+  <si>
+    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
+  </si>
+  <si>
+    <t>5.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Ice Radiation Transmission</t>
+  </si>
+  <si>
+    <t>Method by which solar radiation through sea ice is handled?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.radiative_processes.ice_radiation_transmission</t>
+  </si>
+  <si>
+    <t>Exponential attenuation</t>
+  </si>
+  <si>
+    <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1870,15 +1815,8 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1909,12 +1847,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1928,7 +1860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1972,34 +1904,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2041,7 +1956,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2073,27 +1988,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2125,24 +2022,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2318,24 +2197,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33.75">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2343,7 +2222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2351,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2359,7 +2238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2367,7 +2246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2375,27 +2254,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.25">
+    <row r="10" spans="1:2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.25">
+    <row r="11" spans="1:2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2403,7 +2282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18">
+    <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2411,7 +2290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2419,7 +2298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2427,42 +2306,41 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" ht="20.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.75" customWidth="1"/>
-    <col min="2" max="2" width="40.75" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="6"/>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -2473,7 +2351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -2489,7 +2367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
+    <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
@@ -2497,11 +2375,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
+    <row r="9" spans="1:2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -2517,7 +2395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
@@ -2525,42 +2403,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
+    <row r="17" spans="1:2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"Top Level,Key Properties,Grid,Dynamics,Thermodynamics,Radiative Processes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="150.75" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2597,15 +2472,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>535</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="17" t="s">
         <v>45</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2613,28 +2488,28 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>561</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2642,52 +2517,52 @@
         <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>562</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
@@ -2697,357 +2572,354 @@
     </row>
     <row r="25" spans="1:38" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK25" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AL25" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AI26" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ26" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK26" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AL26" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AA27" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="AB27" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AI27" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ27" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK27" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AL27" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AA28" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC28" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="AD28" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AE28" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AF28" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AI28" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ28" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK28" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AL28" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD29" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AA29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="AE29" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AF29" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AG29" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AI29" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ29" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK29" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AL29" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE30" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AA30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="AF30" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AI30" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ30" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK30" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AL30" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH31" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AA31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG31" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH31" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="AI31" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ31" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK31" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AL31" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>536</v>
+        <v>84</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -3055,22 +2927,22 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3079,23 +2951,23 @@
         <v>41</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>559</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -3103,34 +2975,34 @@
         <v>41</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>537</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -3140,52 +3012,52 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>538</v>
+      <c r="B66" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="178" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>539</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3193,23 +3065,23 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="11" t="s">
-        <v>540</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
@@ -3217,28 +3089,28 @@
         <v>41</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="B76" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="11" t="s">
-        <v>541</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
@@ -3246,15 +3118,15 @@
         <v>41</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="B81" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -3262,10 +3134,10 @@
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
@@ -3273,76 +3145,76 @@
         <v>41</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="11" t="s">
-        <v>542</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="A90" s="12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="B91" s="13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="16">
+      <c r="B95" s="11">
         <v>20000</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="A98" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -3352,21 +3224,21 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -3376,10 +3248,10 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -3387,41 +3259,41 @@
         <v>41</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="B107" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="11" t="s">
-        <v>543</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="12" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="B112" s="13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -3429,28 +3301,28 @@
         <v>41</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="B116" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="178" customHeight="1">
       <c r="B117" s="11" t="s">
-        <v>545</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -3458,70 +3330,70 @@
         <v>41</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="B122" s="11" t="s">
-        <v>546</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B125" s="15" t="s">
-        <v>544</v>
+      <c r="B125" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="11" t="s">
-        <v>547</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:30" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="1:30" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="133" spans="1:30" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>107</v>
+        <v>176</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:30" ht="24" customHeight="1">
@@ -3529,39 +3401,39 @@
         <v>41</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="1:30" ht="24" customHeight="1">
       <c r="B135" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="136" spans="1:30" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" ht="178" customHeight="1">
       <c r="B136" s="11" t="s">
-        <v>560</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" spans="1:30" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="139" spans="1:30" ht="24" customHeight="1">
       <c r="A139" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140" spans="1:30" ht="24" customHeight="1">
@@ -3571,44 +3443,44 @@
     </row>
     <row r="141" spans="1:30" ht="24" customHeight="1">
       <c r="B141" s="11" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="AA141" s="6" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="AB141" s="6" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="AC141" s="6" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AD141" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:30" ht="24" customHeight="1">
       <c r="B142" s="11" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AA142" s="6" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="AB142" s="6" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="AC142" s="6" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AD142" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144" spans="1:30" ht="24" customHeight="1">
       <c r="A144" s="9" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
@@ -3616,39 +3488,39 @@
         <v>41</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="B146" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="B147" s="11" t="s">
-        <v>548</v>
+        <v>191</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="A149" s="9" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
       <c r="A150" s="14" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
@@ -3658,10 +3530,10 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="9" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
@@ -3669,40 +3541,72 @@
         <v>41</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
       <c r="B155" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="B156" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B31" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>AA25:AL25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>AA26:AL26</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>AA27:AL27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>AA28:AL28</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
+      <formula1>AA29:AL29</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>AA30:AL30</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AL31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>AA39:AC39</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 B103 B99 B95" xr:uid="{00000000-0002-0000-0200-000002000000}">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141:B142" xr:uid="{00000000-0002-0000-0200-000007000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B103">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141">
       <formula1>AA141:AD141</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151" xr:uid="{00000000-0002-0000-0200-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
+      <formula1>AA142:AD142</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3711,37 +3615,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD107"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="150.75" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -3752,10 +3654,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3763,10 +3665,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3774,158 +3676,158 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -3935,21 +3837,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>220</v>
+        <v>237</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3959,10 +3861,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3970,50 +3872,50 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="178" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -4023,41 +3925,38 @@
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>549</v>
+        <v>84</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
@@ -4067,10 +3966,10 @@
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
@@ -4078,50 +3977,50 @@
         <v>41</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="B57" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="178" customHeight="1">
       <c r="B58" s="11"/>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4131,21 +4030,21 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -4155,10 +4054,10 @@
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
@@ -4166,28 +4065,28 @@
         <v>41</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>563</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -4195,28 +4094,28 @@
         <v>41</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="178" customHeight="1">
       <c r="B80" s="11" t="s">
-        <v>550</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>264</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -4224,50 +4123,50 @@
         <v>41</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="B84" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="178" customHeight="1">
       <c r="B85" s="11"/>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -4277,21 +4176,21 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -4301,10 +4200,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -4312,28 +4211,28 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="178" customHeight="1">
       <c r="B102" s="11" t="s">
-        <v>551</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -4341,31 +4240,54 @@
         <v>41</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="178" customHeight="1">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B49 B27 B23" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>AA19:AD19</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B97 B70 B53 B35" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AD23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>AA27:AD27</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B93" xr:uid="{00000000-0002-0000-0300-000007000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
+      <formula1>AA49:AD49</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
       <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4373,37 +4295,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AG32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="150.75" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4414,10 +4334,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -4425,10 +4345,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -4436,142 +4356,142 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
@@ -4581,73 +4501,76 @@
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
-      <c r="B32" s="11" t="s">
-        <v>325</v>
-      </c>
+      <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B19" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>AA15:AD15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B28" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>AA19:AD19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0400-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>AA28:AC28</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
       <formula1>AA32:AG32</formula1>
     </dataValidation>
   </dataValidations>
@@ -4656,37 +4579,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AE187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B187" sqref="B187"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="150.75" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4697,10 +4618,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4708,10 +4629,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4719,194 +4640,194 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>365</v>
+        <v>84</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4916,10 +4837,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -4927,28 +4848,28 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="178" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>552</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4956,39 +4877,39 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="178" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -4996,28 +4917,28 @@
         <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="178" customHeight="1">
       <c r="B54" s="11" t="s">
-        <v>553</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -5025,64 +4946,61 @@
         <v>41</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="178" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="B63" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>554</v>
+        <v>84</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -5090,28 +5008,28 @@
         <v>41</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="178" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>555</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -5119,52 +5037,52 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="178" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>556</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
@@ -5174,21 +5092,21 @@
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -5198,70 +5116,70 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="B93" s="11" t="s">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="AA93" s="6" t="s">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
@@ -5271,10 +5189,10 @@
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
@@ -5282,86 +5200,86 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:30" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" ht="178" customHeight="1">
       <c r="B102" s="11"/>
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
       <c r="B110" s="11" t="s">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="AA110" s="6" t="s">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
@@ -5371,10 +5289,10 @@
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="24" customHeight="1">
@@ -5382,118 +5300,118 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
       <c r="B118" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" ht="178" customHeight="1">
       <c r="B119" s="11"/>
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
       <c r="B127" s="11" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="AA127" s="6" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
       <c r="B135" s="11" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="AA135" s="6" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
@@ -5501,50 +5419,50 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="140" spans="1:29" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" ht="178" customHeight="1">
       <c r="B140" s="11"/>
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
@@ -5554,54 +5472,54 @@
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
       <c r="B152" s="11" t="s">
-        <v>474</v>
+        <v>84</v>
       </c>
       <c r="AA152" s="6" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="AC152" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5612,48 +5530,48 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="AD157" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="14" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -5663,10 +5581,10 @@
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5674,37 +5592,37 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="B169" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="178" customHeight="1">
       <c r="B170" s="11"/>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5714,10 +5632,10 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5725,28 +5643,28 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="B178" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="179" spans="1:29" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" ht="178" customHeight="1">
       <c r="B179" s="11" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
@@ -5754,68 +5672,112 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
       <c r="B183" s="11" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
     </row>
     <row r="186" spans="1:29" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
-      <c r="B187" s="11" t="s">
-        <v>510</v>
-      </c>
+      <c r="B187" s="11"/>
       <c r="AA187" s="6" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="AC187" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>AA19:AE19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B187 B152 B135 B127 B63" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B157 B110 B93 B31" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
       <formula1>AA27:AD27</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B114 B97" xr:uid="{00000000-0002-0000-0500-000004000000}">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AD31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81 B174 B165 B148 B85" xr:uid="{00000000-0002-0000-0500-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+      <formula1>AA63:AC63</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
       <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+      <formula1>AA93:AD93</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
+      <formula1>AA110:AD110</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
+      <formula1>AA127:AC127</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
+      <formula1>AA135:AC135</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
+      <formula1>AA152:AC152</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B157">
+      <formula1>AA157:AD157</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B174">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
+      <formula1>AA187:AC187</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5823,37 +5785,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="150.75" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5864,10 +5824,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5875,10 +5835,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5886,73 +5846,73 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="177.95" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>525</v>
+        <v>84</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5961,33 +5921,29 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>558</v>
-      </c>
+      <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20" xr:uid="{00000000-0002-0000-0600-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>AA15:AD15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AD20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_seaice.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_seaice.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komuro\Documents\プロジェクト文書\CMIP6\ES-DOCS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE50465-7237-4299-AAD3-62C3E738786D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,12 @@
     <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="564">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -154,214 +160,1500 @@
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
+    <t>1.1.1.2 *</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Keywords associated with seaice model code</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.keywords</t>
+  </si>
+  <si>
+    <t>NOTE: Please enter a comma seperated list</t>
+  </si>
+  <si>
+    <t>1.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Overview of seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.overview</t>
+  </si>
+  <si>
+    <t>NOTE: Double click to expand if text is too long for cell</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Variables</t>
+  </si>
+  <si>
+    <t>List of prognostic variable in the sea ice model.</t>
+  </si>
+  <si>
+    <t>1.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Prognostic</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>Select all prognostic variables in the sea ice component.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.variables.prognostic</t>
+  </si>
+  <si>
+    <t>Sea ice temperature</t>
+  </si>
+  <si>
+    <t>Sea ice concentration</t>
+  </si>
+  <si>
+    <t>Sea ice thickness</t>
+  </si>
+  <si>
+    <t>Sea ice volume per grid cell area</t>
+  </si>
+  <si>
+    <t>Sea ice u-velocity</t>
+  </si>
+  <si>
+    <t>Sea ice v-velocity</t>
+  </si>
+  <si>
+    <t>Sea ice enthalpy</t>
+  </si>
+  <si>
+    <t>Internal ice stress</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>Snow temperature</t>
+  </si>
+  <si>
+    <t>Snow depth</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Seawater Properties</t>
+  </si>
+  <si>
+    <t>Properties of seawater relevant to sea ice</t>
+  </si>
+  <si>
+    <t>1.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Ocean Freezing Point</t>
+  </si>
+  <si>
+    <t>What is the equation used to compute the freezing point (in deg C) of seawater, as a function of salinity and pressure?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
+  </si>
+  <si>
+    <t>TEOS-10</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1.2 </t>
+  </si>
+  <si>
+    <t>Ocean Freezing Point Value</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>If using a constant seawater freezing point, specify this value.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point_value</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Resolution</t>
+  </si>
+  <si>
+    <t>Resolution of the sea ice grid</t>
+  </si>
+  <si>
+    <t>1.4.1.1 *</t>
+  </si>
+  <si>
+    <t>This is a string usually used by the modelling group to describe the resolution of this grid e.g. N512L180, T512L70, ORCA025 etc.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.resolution.name</t>
+  </si>
+  <si>
+    <t>1.4.1.2 *</t>
+  </si>
+  <si>
+    <t>Canonical Horizontal Resolution</t>
+  </si>
+  <si>
+    <t>Expression quoted for gross comparisons of resolution, eg. 50km or 0.1 degrees etc.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.resolution.canonical_horizontal_resolution</t>
+  </si>
+  <si>
+    <t>1.4.1.3 *</t>
+  </si>
+  <si>
+    <t>Number Of Horizontal Gridpoints</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>What are the total number of horizontal (XY) points (or degrees of freedom) on computational grid?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.resolution.number_of_horizontal_gridpoints</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Tuning Applied</t>
+  </si>
+  <si>
+    <t>Tuning applied to sea ice model component</t>
+  </si>
+  <si>
+    <t>1.5.1.1 *</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.tuning_applied.description</t>
+  </si>
+  <si>
+    <t>1.5.1.2 *</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>What was the aim of tuning, e.g. correct sea ice minima, correct seasonal cycle?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.tuning_applied.target</t>
+  </si>
+  <si>
+    <t>1.5.1.3 *</t>
+  </si>
+  <si>
+    <t>Simulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which simulations had tuning applied, e.g. all, not historical, only pi-control? </t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.tuning_applied.simulations</t>
+  </si>
+  <si>
+    <t>1.5.1.4 *</t>
+  </si>
+  <si>
+    <t>Metrics Used</t>
+  </si>
+  <si>
+    <t>List any observed metrics used in tuning model/parameters</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.tuning_applied.metrics_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.1.5 </t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Which (if any) variables were changed during the tuning process?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.tuning_applied.variables</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Key Parameter Values</t>
+  </si>
+  <si>
+    <t>Values of key parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.1 </t>
+  </si>
+  <si>
+    <t>Ice Strength</t>
+  </si>
+  <si>
+    <t>Ice strength (P*) in units of N m{-2}</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.key_parameter_values.ice_strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.2 </t>
+  </si>
+  <si>
+    <t>Snow Conductivity</t>
+  </si>
+  <si>
+    <t>Snow conductivity (ks) in units of W m{-1} K{-1}</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.key_parameter_values.snow_conductivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.3 </t>
+  </si>
+  <si>
+    <t>Ice Thickness In Leads</t>
+  </si>
+  <si>
+    <t>Minimum thickness of ice created in leads (h0) in units of m</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.key_parameter_values.ice_thickness_in_leads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.4 </t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>If you have any additional paramterised values that you have used (e.g. minimum open water 
+         fraction or bare ice albedo), please provide them here as a comma separated list in the form 
+         {parameter1}: {value1}, {parameter2}: {value2}, etc.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.key_parameter_values.additional_parameters</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Assumptions</t>
+  </si>
+  <si>
+    <t>Assumptions made in the sea ice model</t>
+  </si>
+  <si>
+    <t>1.7.1.1 *</t>
+  </si>
+  <si>
+    <t>Provide a general overview description of any *key* assumptions made in this model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.assumptions.description</t>
+  </si>
+  <si>
+    <t>1.7.1.2 *</t>
+  </si>
+  <si>
+    <t>On Diagnostic Variables</t>
+  </si>
+  <si>
+    <t>Note any assumptions that specifically affect the CMIP6 diagnostic sea ice variables.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.assumptions.on_diagnostic_variables</t>
+  </si>
+  <si>
+    <t>1.7.1.3 *</t>
+  </si>
+  <si>
+    <t>Missing Processes</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.assumptions.missing_processes</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation</t>
+  </si>
+  <si>
+    <t>Conservation in the sea ice component</t>
+  </si>
+  <si>
+    <t>1.8.1.1 *</t>
+  </si>
+  <si>
+    <t>Provide a general description of conservation methodology.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.conservation.description</t>
+  </si>
+  <si>
+    <t>1.8.1.2 *</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Which properties conserved in sea ice by the numerical schemes?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.conservation.properties</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>1.8.1.3 *</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>For each conserved property, specify the output variables which close 
+           the related budgets. as a comma separated list. For example: 
+           Conserved property, variable1, variable2, variable3</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.conservation.budget</t>
+  </si>
+  <si>
+    <t>1.8.1.4 *</t>
+  </si>
+  <si>
+    <t>Was Flux Correction Used</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>Does conservation involved flux correction?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.conservation.was_flux_correction_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8.1.5 </t>
+  </si>
+  <si>
+    <t>Corrected Conserved Prognostic Variables</t>
+  </si>
+  <si>
+    <t>List any variables which are conserved by *more* than the numerical scheme alone 
+            (e.g. has correction applied).</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.conservation.corrected_conserved_prognostic_variables</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>Sea Ice grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.1 </t>
+  </si>
+  <si>
+    <t>Name of grid in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of grid in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.overview</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>Grid --&gt; Discretisation --&gt; Horizontal</t>
+  </si>
+  <si>
+    <t>Sea ice discretisation in the horizontal</t>
+  </si>
+  <si>
+    <t>2.1.2.1 *</t>
+  </si>
+  <si>
+    <t>On which grid is the sea ice horizontal discretisation?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
+  </si>
+  <si>
+    <t>Ocean grid</t>
+  </si>
+  <si>
+    <t>Atmosphere Grid</t>
+  </si>
+  <si>
+    <t>Own Grid</t>
+  </si>
+  <si>
+    <t>2.1.2.2 *</t>
+  </si>
+  <si>
+    <t>Grid Type</t>
+  </si>
+  <si>
+    <t>What is the structure type of the sea ice grid?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.grid_type</t>
+  </si>
+  <si>
+    <t>Structured grid</t>
+  </si>
+  <si>
+    <t>Unstructured grid</t>
+  </si>
+  <si>
+    <t>Adaptive grid</t>
+  </si>
+  <si>
+    <t>2.1.2.3 *</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>What is the horizontal discretization (advection) scheme?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.scheme</t>
+  </si>
+  <si>
+    <t>Finite differences</t>
+  </si>
+  <si>
+    <t>Finite elements</t>
+  </si>
+  <si>
+    <t>Finite volumes</t>
+  </si>
+  <si>
+    <t>2.1.2.4 *</t>
+  </si>
+  <si>
+    <t>Thermodynamics Time Step</t>
+  </si>
+  <si>
+    <t>What is the time step in the sea ice model thermodynamic component in seconds.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.thermodynamics_time_step</t>
+  </si>
+  <si>
+    <t>2.1.2.5 *</t>
+  </si>
+  <si>
+    <t>Dynamics Time Step</t>
+  </si>
+  <si>
+    <t>What is the time step in the sea ice model dynamic component in seconds.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.dynamics_time_step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.2.6 </t>
+  </si>
+  <si>
+    <t>Additional Details</t>
+  </si>
+  <si>
+    <t>Specify any additional horizontal discretisation details.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.additional_details</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>Grid --&gt; Discretisation --&gt; Vertical</t>
+  </si>
+  <si>
+    <t>Sea ice vertical properties</t>
+  </si>
+  <si>
+    <t>2.1.3.1 *</t>
+  </si>
+  <si>
+    <t>Layering</t>
+  </si>
+  <si>
+    <t>What type of sea ice vertical layers are implemented for purposes of thermodynamic calculations?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
+  </si>
+  <si>
+    <t>Zero-layer</t>
+  </si>
+  <si>
+    <t>Two-layers</t>
+  </si>
+  <si>
+    <t>Multi-layers</t>
+  </si>
+  <si>
+    <t>2.1.3.2 *</t>
+  </si>
+  <si>
+    <t>Number Of Layers</t>
+  </si>
+  <si>
+    <t>If using multi-layers specify how many.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.vertical.number_of_layers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.3.3 </t>
+  </si>
+  <si>
+    <t>Specify any additional vertical grid details.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.vertical.additional_details</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>Grid --&gt; Seaice Categories</t>
+  </si>
+  <si>
+    <t>What method is used to represent sea ice categories?</t>
+  </si>
+  <si>
+    <t>2.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Has Mulitple Categories</t>
+  </si>
+  <si>
+    <t>Set to true if the sea ice model has multiple sea ice categories.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.seaice_categories.has_mulitple_categories</t>
+  </si>
+  <si>
+    <t>2.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Number Of Categories</t>
+  </si>
+  <si>
+    <t>If using sea ice categories specify how many.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.seaice_categories.number_of_categories</t>
+  </si>
+  <si>
+    <t>2.2.1.3 *</t>
+  </si>
+  <si>
+    <t>Category Limits</t>
+  </si>
+  <si>
+    <t>If using sea ice categories specify each of the category limits.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.seaice_categories.category_limits</t>
+  </si>
+  <si>
+    <t>2.2.1.4 *</t>
+  </si>
+  <si>
+    <t>Ice Thickness Distribution</t>
+  </si>
+  <si>
+    <t>Describe the sea ice thickness distribution.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.seaice_categories.ice_thickness_distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1.5 </t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>If the sea ice model does not use sea ice categories specify any 
+            additional details. For example models that paramterise 
+            the ice thickness distribution ITD (i.e there is no explicit ITD) but 
+            there is assumed distribution and fluxes are computed accordingly.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.seaice_categories.other</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>Grid --&gt; Snow On Seaice</t>
+  </si>
+  <si>
+    <t>Snow on sea ice details</t>
+  </si>
+  <si>
+    <t>2.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Has Snow On Ice</t>
+  </si>
+  <si>
+    <t>Is snow on ice represented in this model?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.snow_on_seaice.has_snow_on_ice</t>
+  </si>
+  <si>
+    <t>2.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Number Of Snow Levels</t>
+  </si>
+  <si>
+    <t>Number of vertical levels of snow on ice?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.snow_on_seaice.number_of_snow_levels</t>
+  </si>
+  <si>
+    <t>2.3.1.3 *</t>
+  </si>
+  <si>
+    <t>Snow Fraction</t>
+  </si>
+  <si>
+    <t>Describe how the snow fraction on sea ice is determined.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.snow_on_seaice.snow_fraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.1.4 </t>
+  </si>
+  <si>
+    <t>Specify any additional details related to snow on ice.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.snow_on_seaice.additional_details</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>Dynamics</t>
+  </si>
+  <si>
+    <t>Sea Ice Dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the dynamics in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of sea ice dynamics in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.overview</t>
+  </si>
+  <si>
+    <t>3.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Horizontal Transport</t>
+  </si>
+  <si>
+    <t>What is the method of horizontal advection of sea ice?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.horizontal_transport</t>
+  </si>
+  <si>
+    <t>Incremental Re-mapping</t>
+  </si>
+  <si>
+    <t>Prather</t>
+  </si>
+  <si>
+    <t>Eulerian</t>
+  </si>
+  <si>
+    <t>3.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Transport In Thickness Space</t>
+  </si>
+  <si>
+    <t>What is the method of sea ice transport in thickness space (i.e. in thickness categories)?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.transport_in_thickness_space</t>
+  </si>
+  <si>
+    <t>Other: linear remapping</t>
+  </si>
+  <si>
+    <t>3.1.1.5 *</t>
+  </si>
+  <si>
+    <t>Ice Strength Formulation</t>
+  </si>
+  <si>
+    <t>Which method of sea ice strength formulation is used?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.ice_strength_formulation</t>
+  </si>
+  <si>
+    <t>Hibler 1979</t>
+  </si>
+  <si>
+    <t>Rothrock 1975</t>
+  </si>
+  <si>
+    <t>3.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Redistribution</t>
+  </si>
+  <si>
+    <t>Which processes can redistribute sea ice (including thickness)?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.redistribution</t>
+  </si>
+  <si>
+    <t>Ridging</t>
+  </si>
+  <si>
+    <t>Rafting</t>
+  </si>
+  <si>
+    <t>3.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Rheology</t>
+  </si>
+  <si>
+    <t>Rheology, what is the ice deformation formulation?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.rheology</t>
+  </si>
+  <si>
+    <t>Free-drift</t>
+  </si>
+  <si>
+    <t>Mohr-Coloumb</t>
+  </si>
+  <si>
+    <t>Visco-plastic</t>
+  </si>
+  <si>
+    <t>Elastic-visco-plastic</t>
+  </si>
+  <si>
+    <t>Elastic-anisotropic-plastic</t>
+  </si>
+  <si>
+    <t>Granular</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics</t>
+  </si>
+  <si>
+    <t>Sea Ice Thermodynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the thermodynamics in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of sea ice thermodynamics in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.overview</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Energy</t>
+  </si>
+  <si>
+    <t>Processes related to energy in sea ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>4.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Enthalpy Formulation</t>
+  </si>
+  <si>
+    <t>What is the energy formulation?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.enthalpy_formulation</t>
+  </si>
+  <si>
+    <t>Pure ice latent heat (Semtner 0-layer)</t>
+  </si>
+  <si>
+    <t>Pure ice latent and sensible heat</t>
+  </si>
+  <si>
+    <t>Pure ice latent and sensible heat + brine heat reservoir (Semtner 3-layer)</t>
+  </si>
+  <si>
+    <t>Pure ice latent and sensible heat + explicit brine inclusions (Bitz and Lipscomb)</t>
+  </si>
+  <si>
+    <t>4.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Thermal Conductivity</t>
+  </si>
+  <si>
+    <t>What type of thermal conductivity is used?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.thermal_conductivity</t>
+  </si>
+  <si>
+    <t>Pure ice</t>
+  </si>
+  <si>
+    <t>Saline ice</t>
+  </si>
+  <si>
+    <t>4.2.1.3 *</t>
+  </si>
+  <si>
+    <t>Heat Diffusion</t>
+  </si>
+  <si>
+    <t>What is the method of heat diffusion?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.heat_diffusion</t>
+  </si>
+  <si>
+    <t>Conduction fluxes</t>
+  </si>
+  <si>
+    <t>Conduction and radiation heat fluxes</t>
+  </si>
+  <si>
+    <t>Conduction, radiation and latent heat transport</t>
+  </si>
+  <si>
+    <t>4.2.1.4 *</t>
+  </si>
+  <si>
+    <t>Basal Heat Flux</t>
+  </si>
+  <si>
+    <t>Method by which basal ocean heat flux is handled?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
+  </si>
+  <si>
+    <t>Other: parametrized (calculated in seaice)</t>
+  </si>
+  <si>
+    <t>Heat Reservoir</t>
+  </si>
+  <si>
+    <t>Thermal Fixed Salinity</t>
+  </si>
+  <si>
+    <t>Thermal Varying Salinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.5 </t>
+  </si>
+  <si>
+    <t>Fixed Salinity Value</t>
+  </si>
+  <si>
+    <t>If you have selected {Thermal properties depend on S-T (with fixed salinity)},
+             supply fixed salinity value for each sea ice layer.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.fixed_salinity_value</t>
+  </si>
+  <si>
+    <t>4.2.1.6 *</t>
+  </si>
+  <si>
+    <t>Heat Content Of Precipitation</t>
+  </si>
+  <si>
+    <t>Describe the method by which the heat content of precipitation is handled.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.heat_content_of_precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.7 </t>
+  </si>
+  <si>
+    <t>Precipitation Effects On Salinity</t>
+  </si>
+  <si>
+    <t>If precipitation (freshwater) that falls on sea ice affects the ocean surface
+             salinity please provide further details.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.precipitation_effects_on_salinity</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Mass</t>
+  </si>
+  <si>
+    <t>Processes related to mass in sea ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>4.3.1.1 *</t>
+  </si>
+  <si>
+    <t>New Ice Formation</t>
+  </si>
+  <si>
+    <t>Describe the method by which new sea ice is formed in open water.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.mass.new_ice_formation</t>
+  </si>
+  <si>
+    <t>From open water, bottom, and lateral</t>
+  </si>
+  <si>
+    <t>4.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Ice Vertical Growth And Melt</t>
+  </si>
+  <si>
+    <t>Describe the method that governs the vertical growth and melt of sea ice.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.mass.ice_vertical_growth_and_melt</t>
+  </si>
+  <si>
+    <t>4.3.1.3 *</t>
+  </si>
+  <si>
+    <t>Ice Lateral Melting</t>
+  </si>
+  <si>
+    <t>What is the method of sea ice lateral melting?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.mass.ice_lateral_melting</t>
+  </si>
+  <si>
+    <t>Floe-size dependent (Bitz et al 2001)</t>
+  </si>
+  <si>
+    <t>Virtual thin ice melting (for single-category)</t>
+  </si>
+  <si>
+    <t>4.3.1.4 *</t>
+  </si>
+  <si>
+    <t>Ice Surface Sublimation</t>
+  </si>
+  <si>
+    <t>Describe the method that governs sea ice surface sublimation.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.mass.ice_surface_sublimation</t>
+  </si>
+  <si>
+    <t>4.3.1.5 *</t>
+  </si>
+  <si>
+    <t>Frazil Ice</t>
+  </si>
+  <si>
+    <t>Describe the method of frazil ice formation.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.mass.frazil_ice</t>
+  </si>
+  <si>
+    <t>4.4.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Salt</t>
+  </si>
+  <si>
+    <t>Processes related to salt in sea ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>4.4.1.1 *</t>
+  </si>
+  <si>
+    <t>Has Multiple Sea Ice Salinities</t>
+  </si>
+  <si>
+    <t>Does the sea ice model use two different salinities: one for
+            thermodynamic calculations; and one for the salt budget?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.has_multiple_sea_ice_salinities</t>
+  </si>
+  <si>
+    <t>4.4.1.2 *</t>
+  </si>
+  <si>
+    <t>Sea Ice Salinity Thermal Impacts</t>
+  </si>
+  <si>
+    <t>Does sea ice salinity impact the thermal properties of sea ice?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.sea_ice_salinity_thermal_impacts</t>
+  </si>
+  <si>
+    <t>4.4.2</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Salt --&gt; Mass Transport</t>
+  </si>
+  <si>
+    <t>Mass transport of salt.</t>
+  </si>
+  <si>
+    <t>4.4.2.1 *</t>
+  </si>
+  <si>
+    <t>Salinity Type</t>
+  </si>
+  <si>
+    <t>How is salinity determined in the mass transport of salt calculation?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
+  </si>
+  <si>
+    <t>Prescribed salinity profile</t>
+  </si>
+  <si>
+    <t>Prognostic salinity profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.2.2 </t>
+  </si>
+  <si>
+    <t>Constant Salinity Value</t>
+  </si>
+  <si>
+    <t>If using a constant salinity value specify this value in PSU?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.mass_transport.constant_salinity_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.2.3 </t>
+  </si>
+  <si>
+    <t>Describe the salinity profile used.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.mass_transport.additional_details</t>
+  </si>
+  <si>
+    <t>4.4.3</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Salt --&gt; Thermodynamics</t>
+  </si>
+  <si>
+    <t>Salt thermodynamics</t>
+  </si>
+  <si>
+    <t>4.4.3.1 *</t>
+  </si>
+  <si>
+    <t>How is salinity determined in the thermodynamic calculation?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.salinity_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.3.2 </t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.constant_salinity_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.3.3 </t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.additional_details</t>
+  </si>
+  <si>
+    <t>4.5.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Ice Thickness Distribution</t>
+  </si>
+  <si>
+    <t>Ice thickness distribution details.</t>
+  </si>
+  <si>
+    <t>4.5.1.1 *</t>
+  </si>
+  <si>
+    <t>Representation</t>
+  </si>
+  <si>
+    <t>How is the sea ice thickness distribution represented?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.ice_thickness_distribution.representation</t>
+  </si>
+  <si>
+    <t>Explicit</t>
+  </si>
+  <si>
+    <t>Virtual (enhancement of thermal conductivity, thin ice melting)</t>
+  </si>
+  <si>
+    <t>4.6.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Ice Floe Size Distribution</t>
+  </si>
+  <si>
+    <t>Ice floe-size distribution details.</t>
+  </si>
+  <si>
+    <t>4.6.1.1 *</t>
+  </si>
+  <si>
+    <t>How is the sea ice floe-size represented?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.representation</t>
+  </si>
+  <si>
+    <t>Parameterised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6.1.2 </t>
+  </si>
+  <si>
+    <t>Provide further details on any parameterisation of floe-size.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.additional_details</t>
+  </si>
+  <si>
+    <t>4.7.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Melt Ponds</t>
+  </si>
+  <si>
+    <t>Characteristics of melt ponds.</t>
+  </si>
+  <si>
+    <t>4.7.1.1 *</t>
+  </si>
+  <si>
+    <t>Are Included</t>
+  </si>
+  <si>
+    <t>Are melt ponds included in the sea ice model?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.melt_ponds.are_included</t>
+  </si>
+  <si>
+    <t>4.7.1.2 *</t>
+  </si>
+  <si>
+    <t>Formulation</t>
+  </si>
+  <si>
+    <t>What method of melt pond formulation is used?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.melt_ponds.formulation</t>
+  </si>
+  <si>
+    <t>Other: no</t>
+  </si>
+  <si>
+    <t>Flocco and Feltham (2010)</t>
+  </si>
+  <si>
+    <t>Level-ice melt ponds</t>
+  </si>
+  <si>
+    <t>4.7.1.3 *</t>
+  </si>
+  <si>
+    <t>Impacts</t>
+  </si>
+  <si>
+    <t>What do melt ponds have an impact on?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.melt_ponds.impacts</t>
+  </si>
+  <si>
+    <t>Albedo</t>
+  </si>
+  <si>
+    <t>Freshwater</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>4.8.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Snow Processes</t>
+  </si>
+  <si>
+    <t>Thermodynamic processes in snow on sea ice</t>
+  </si>
+  <si>
+    <t>4.8.1.1 *</t>
+  </si>
+  <si>
+    <t>Has Snow Aging</t>
+  </si>
+  <si>
+    <t>Set to True if the sea ice model has a snow aging scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_aging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8.1.2 </t>
+  </si>
+  <si>
+    <t>Snow Aging Scheme</t>
+  </si>
+  <si>
+    <t>Describe the snow aging scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.snow_aging_scheme</t>
+  </si>
+  <si>
+    <t>4.8.1.3 *</t>
+  </si>
+  <si>
+    <t>Has Snow Ice Formation</t>
+  </si>
+  <si>
+    <t>Set to True if the sea ice model has snow ice formation.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_ice_formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8.1.4 </t>
+  </si>
+  <si>
+    <t>Snow Ice Formation Scheme</t>
+  </si>
+  <si>
+    <t>Describe the snow ice formation scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.snow_ice_formation_scheme</t>
+  </si>
+  <si>
+    <t>4.8.1.5 *</t>
+  </si>
+  <si>
+    <t>What is the impact of ridging on snow cover?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
+  </si>
+  <si>
+    <t>Snow-ice</t>
+  </si>
+  <si>
+    <t>4.8.1.6 *</t>
+  </si>
+  <si>
+    <t>What is the heat diffusion through snow methodology in sea ice thermodynamics?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.heat_diffusion</t>
+  </si>
+  <si>
+    <t>Single-layered heat diffusion</t>
+  </si>
+  <si>
+    <t>Multi-layered heat diffusion</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>Radiative Processes</t>
+  </si>
+  <si>
+    <t>Sea Ice Radiative Processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the radiative processes in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.radiative_processes.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of sea ice radiative processes in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.radiative_processes.overview</t>
+  </si>
+  <si>
+    <t>5.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Surface Albedo</t>
+  </si>
+  <si>
+    <t>Method used to handle surface albedo?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.radiative_processes.surface_albedo</t>
+  </si>
+  <si>
+    <t>Other: 0.85-0.95 for visible, 0.65-0.8 for near infrared, depends on temperature</t>
+  </si>
+  <si>
+    <t>Delta-Eddington</t>
+  </si>
+  <si>
+    <t>Parameterized</t>
+  </si>
+  <si>
+    <t>Multi-band albedo</t>
+  </si>
+  <si>
+    <t>5.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Ice Radiation Transmission</t>
+  </si>
+  <si>
+    <t>Method by which solar radiation through sea ice is handled?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.radiative_processes.ice_radiation_transmission</t>
+  </si>
+  <si>
+    <t>Exponential attenuation</t>
+  </si>
+  <si>
+    <t>Ice radiation transmission per category</t>
+  </si>
+  <si>
     <t>COCO4.9</t>
-  </si>
-  <si>
-    <t>1.1.1.2 *</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Keywords associated with seaice model code</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.keywords</t>
-  </si>
-  <si>
-    <t>NOTE: Please enter a comma seperated list</t>
-  </si>
-  <si>
-    <t>Subgrid-scale thickness distribution, 1-layer thermodynamics, EVP rheology</t>
-  </si>
-  <si>
-    <t>1.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>Overview of seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.overview</t>
-  </si>
-  <si>
-    <t>NOTE: Double click to expand if text is too long for cell</t>
-  </si>
-  <si>
-    <t>COCO is an ice-ocean coupled model which can be used as a stand-alone model or an ice-ocean component of MIROC. It has been developed in Atmosphere and Ocean Research Institute (AORI), The University of Tokyo, and Japan Agency for Marine-Earth Science and Technology (JAMSTEC).  The sea-ice part of COCO employs subgrid-scale thickness distribution, 1-layer thermodynamics, and EVP rheology.</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Variables</t>
-  </si>
-  <si>
-    <t>List of prognostic variable in the sea ice model.</t>
-  </si>
-  <si>
-    <t>1.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Prognostic</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>Select all prognostic variables in the sea ice component.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.variables.prognostic</t>
-  </si>
-  <si>
-    <t>Sea ice concentration</t>
-  </si>
-  <si>
-    <t>Sea ice temperature</t>
-  </si>
-  <si>
-    <t>Sea ice thickness</t>
-  </si>
-  <si>
-    <t>Sea ice volume per grid cell area</t>
-  </si>
-  <si>
-    <t>Sea ice u-velocity</t>
-  </si>
-  <si>
-    <t>Sea ice v-velocity</t>
-  </si>
-  <si>
-    <t>Sea ice enthalpy</t>
-  </si>
-  <si>
-    <t>Internal ice stress</t>
-  </si>
-  <si>
-    <t>Salinity</t>
-  </si>
-  <si>
-    <t>Snow temperature: Snow on ice temperature</t>
-  </si>
-  <si>
-    <t>Snow depth: Snow on ice thickness</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Seawater Properties</t>
-  </si>
-  <si>
-    <t>Properties of seawater relevant to sea ice</t>
-  </si>
-  <si>
-    <t>1.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Ocean Freezing Point</t>
-  </si>
-  <si>
-    <t>What is the equation used to compute the freezing point (in deg C) of seawater, as a function of salinity and pressure?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
-  </si>
-  <si>
-    <t>Constant: Constant value of seawater freezing point is used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1.2 </t>
-  </si>
-  <si>
-    <t>Ocean Freezing Point Value</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>If using a constant seawater freezing point, specify this value.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point_value</t>
-  </si>
-  <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Resolution</t>
-  </si>
-  <si>
-    <t>Resolution of the sea ice grid</t>
-  </si>
-  <si>
-    <t>1.4.1.1 *</t>
-  </si>
-  <si>
-    <t>This is a string usually used by the modelling group to describe the resolution of this grid e.g. N512L180, T512L70, ORCA025 etc.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.resolution.name</t>
-  </si>
-  <si>
-    <t>COCO medium resolution model</t>
-  </si>
-  <si>
-    <t>1.4.1.2 *</t>
-  </si>
-  <si>
-    <t>Canonical Horizontal Resolution</t>
-  </si>
-  <si>
-    <t>Expression quoted for gross comparisons of resolution, eg. 50km or 0.1 degrees etc.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.resolution.canonical_horizontal_resolution</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>T_frz [C] = -0.0543 * Salinity</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>1 degree</t>
-  </si>
-  <si>
-    <t>1.4.1.3 *</t>
-  </si>
-  <si>
-    <t>Number Of Horizontal Gridpoints</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>What are the total number of horizontal (XY) points (or degrees of freedom) on computational grid?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.resolution.number_of_horizontal_gridpoints</t>
-  </si>
-  <si>
-    <t>1.5.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Tuning Applied</t>
-  </si>
-  <si>
-    <t>Tuning applied to sea ice model component</t>
-  </si>
-  <si>
-    <t>1.5.1.1 *</t>
-  </si>
-  <si>
-    <t>Description</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Provide a general overview description of tuning: explain and motivate 
@@ -370,1355 +1662,118 @@
             possible conflicts with parameterization level tuning. In particular describe 
             any struggle with a parameter value that required pushing it to its limits to 
             solve a particular model deficiency.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.tuning_applied.description</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Our primary target of tuning to retain reasonable sea-ice extent in each hemisphere and realistic horizontal distribution of sea-ice concentration/thickness. Climate performance metrics generally take priority. Note that most of the parameters in other submodels are tuned mainly for improving global climate processes rather than sea-ice states.  Sea-ice and snow on the ice have quite a high albedo to enhance the reproducibility with the other submodels' setting.</t>
-  </si>
-  <si>
-    <t>1.5.1.2 *</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>What was the aim of tuning, e.g. correct sea ice minima, correct seasonal cycle?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.tuning_applied.target</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>sea ice minima in NH, sea ice maxima in SH, and reasonable horizontal distibution</t>
-  </si>
-  <si>
-    <t>1.5.1.3 *</t>
-  </si>
-  <si>
-    <t>Simulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which simulations had tuning applied, e.g. all, not historical, only pi-control? </t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.tuning_applied.simulations</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>pi-control only</t>
-  </si>
-  <si>
-    <t>1.5.1.4 *</t>
-  </si>
-  <si>
-    <t>Metrics Used</t>
-  </si>
-  <si>
-    <t>List any observed metrics used in tuning model/parameters</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.tuning_applied.metrics_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5.1.5 </t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Which (if any) variables were changed during the tuning process?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.tuning_applied.variables</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>albedo-related paramters</t>
-  </si>
-  <si>
-    <t>1.6.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Key Parameter Values</t>
-  </si>
-  <si>
-    <t>Values of key parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.1 </t>
-  </si>
-  <si>
-    <t>Ice Strength</t>
-  </si>
-  <si>
-    <t>Ice strength (P*) in units of N m{-2}</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.key_parameter_values.ice_strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.2 </t>
-  </si>
-  <si>
-    <t>Snow Conductivity</t>
-  </si>
-  <si>
-    <t>Snow conductivity (ks) in units of W m{-1} K{-1}</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.key_parameter_values.snow_conductivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.3 </t>
-  </si>
-  <si>
-    <t>Ice Thickness In Leads</t>
-  </si>
-  <si>
-    <t>Minimum thickness of ice created in leads (h0) in units of m</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.key_parameter_values.ice_thickness_in_leads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.4 </t>
-  </si>
-  <si>
-    <t>Additional Parameters</t>
-  </si>
-  <si>
-    <t>If you have any additional paramterised values that you have used (e.g. minimum open water 
-         fraction or bare ice albedo), please provide them here as a comma separated list in the form 
-         {parameter1}: {value1}, {parameter2}: {value2}, etc.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.key_parameter_values.additional_parameters</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>maximum concentration in a specific grid: 0.99</t>
-  </si>
-  <si>
-    <t>1.7.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Assumptions</t>
-  </si>
-  <si>
-    <t>Assumptions made in the sea ice model</t>
-  </si>
-  <si>
-    <t>1.7.1.1 *</t>
-  </si>
-  <si>
-    <t>Provide a general overview description of any *key* assumptions made in this model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.assumptions.description</t>
-  </si>
-  <si>
-    <t>Ice thinner than minimum thickness, 0.3 m, is not allowed to exist. Snow area fraction over sea ice is not explicitly handled; instead, albedo dependency on skin temperature and snow thickness implicitly includes the effect of snow area fraction change.</t>
-  </si>
-  <si>
-    <t>1.7.1.2 *</t>
-  </si>
-  <si>
-    <t>On Diagnostic Variables</t>
-  </si>
-  <si>
-    <t>Note any assumptions that specifically affect the CMIP6 diagnostic sea ice variables.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.assumptions.on_diagnostic_variables</t>
-  </si>
-  <si>
-    <t>Some of variables such as snow area fraction is not defined</t>
-  </si>
-  <si>
-    <t>1.7.1.3 *</t>
-  </si>
-  <si>
-    <t>Missing Processes</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>List any *key* processes missing in this model configuration? Provide full details 
              where this affects the CMIP6 diagnostic sea ice variables?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.assumptions.missing_processes</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Ice thinner than minimum thickness, 0.3 m, is not allowed to exist. Snow area fraction over sea ice is not explicitly handled; instead, albedo dependency on skin temperature and snow thickness implicitly includes the effect of snow area fraction change.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Some of variables such as snow area fraction is not defined</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Melt pond is not represented. Rainfall as a form of water directly falls into the ocean and does not interact with the sea-ice component.</t>
-  </si>
-  <si>
-    <t>1.8.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation</t>
-  </si>
-  <si>
-    <t>Conservation in the sea ice component</t>
-  </si>
-  <si>
-    <t>1.8.1.1 *</t>
-  </si>
-  <si>
-    <t>Provide a general description of conservation methodology.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.conservation.description</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Mass, sea-ice mass per area, snow mass per area. Salt, sea-ice mass per area.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>One-Layer</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The governing equation follows Thorndike et al. (1975). Its discritizaion as well as the evaluation of mechanical redistribution term follows Bitz et al. (2001).</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Snow area fraction is not explicitly handled; instead, albedo dependency on skin temperature and snow thickness implicitly includes the effect of snow area fraction change.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Precipitation as a form of water directly falls into the ocean and does not interact with the sea-ice component.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>From open water</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Parameterized (ratio of basal melting:lateral melting prescribed)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Sublimation flux is diagnosed in the coupler to the atmospheric component.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve">New ice formation from open water implicitly includes frazil ice formation. </t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>When snow-ice interface comes below sea level, the snow between the interface and sea level turns into sea ice.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>absorbed at the top</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>COCO medium resolution model</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t xml:space="preserve">We have checked changes of the properties which should be conserved are in the range of numerical error by calculating the difference of these properties by using multiple snapshots of the modeled ocean. </t>
   </si>
   <si>
-    <t>1.8.1.2 *</t>
-  </si>
-  <si>
-    <t>Properties</t>
-  </si>
-  <si>
-    <t>Which properties conserved in sea ice by the numerical schemes?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.conservation.properties</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>1.8.1.3 *</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>For each conserved property, specify the output variables which close 
-           the related budgets. as a comma separated list. For example: 
-           Conserved property, variable1, variable2, variable3</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.conservation.budget</t>
-  </si>
-  <si>
-    <t>Mass, sea-ice mass per area, snow mass per area. Salt, sea-ice mass per area.</t>
-  </si>
-  <si>
-    <t>1.8.1.4 *</t>
-  </si>
-  <si>
-    <t>Was Flux Correction Used</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>Does conservation involved flux correction?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.conservation.was_flux_correction_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8.1.5 </t>
-  </si>
-  <si>
-    <t>Corrected Conserved Prognostic Variables</t>
-  </si>
-  <si>
-    <t>List any variables which are conserved by *more* than the numerical scheme alone 
-            (e.g. has correction applied).</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.conservation.corrected_conserved_prognostic_variables</t>
-  </si>
-  <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>Grid</t>
-  </si>
-  <si>
-    <t>Sea Ice grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.1 </t>
-  </si>
-  <si>
-    <t>Name of grid in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of grid in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.overview</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>Grid --&gt; Discretisation --&gt; Horizontal</t>
-  </si>
-  <si>
-    <t>Sea ice discretisation in the horizontal</t>
-  </si>
-  <si>
-    <t>2.1.2.1 *</t>
-  </si>
-  <si>
-    <t>On which grid is the sea ice horizontal discretisation?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
-  </si>
-  <si>
-    <t>Ocean grid: Sea ice is horizontally discretised on the ocean grid.</t>
-  </si>
-  <si>
-    <t>Atmosphere Grid: Sea ice is horizontally discretised on the atmospheric grid.</t>
-  </si>
-  <si>
-    <t>Own Grid: Sea ice is horizontally discretised on its own independent grid.</t>
-  </si>
-  <si>
-    <t>2.1.2.2 *</t>
-  </si>
-  <si>
-    <t>Grid Type</t>
-  </si>
-  <si>
-    <t>What is the structure type of the sea ice grid?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.grid_type</t>
-  </si>
-  <si>
-    <t>Structured grid</t>
-  </si>
-  <si>
-    <t>Unstructured grid</t>
-  </si>
-  <si>
-    <t>Adaptive grid: Computational grid changes during the run</t>
-  </si>
-  <si>
-    <t>2.1.2.3 *</t>
-  </si>
-  <si>
-    <t>Scheme</t>
-  </si>
-  <si>
-    <t>What is the horizontal discretization (advection) scheme?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.scheme</t>
-  </si>
-  <si>
-    <t>Finite differences</t>
-  </si>
-  <si>
-    <t>Finite elements</t>
-  </si>
-  <si>
-    <t>Finite volumes</t>
-  </si>
-  <si>
-    <t>2.1.2.4 *</t>
-  </si>
-  <si>
-    <t>Thermodynamics Time Step</t>
-  </si>
-  <si>
-    <t>What is the time step in the sea ice model thermodynamic component in seconds.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.thermodynamics_time_step</t>
-  </si>
-  <si>
-    <t>2.1.2.5 *</t>
-  </si>
-  <si>
-    <t>Dynamics Time Step</t>
-  </si>
-  <si>
-    <t>What is the time step in the sea ice model dynamic component in seconds.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.dynamics_time_step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.2.6 </t>
-  </si>
-  <si>
-    <t>Additional Details</t>
-  </si>
-  <si>
-    <t>Specify any additional horizontal discretisation details.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.additional_details</t>
-  </si>
-  <si>
-    <t>2.1.3</t>
-  </si>
-  <si>
-    <t>Grid --&gt; Discretisation --&gt; Vertical</t>
-  </si>
-  <si>
-    <t>Sea ice vertical properties</t>
-  </si>
-  <si>
-    <t>2.1.3.1 *</t>
-  </si>
-  <si>
-    <t>Layering</t>
-  </si>
-  <si>
-    <t>What type of sea ice vertical layers are implemented for purposes of thermodynamic calculations?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
-  </si>
-  <si>
-    <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
-  </si>
-  <si>
-    <t>Two-layers: Simulation uses two layers (i.e. one ice and one snow layer).</t>
-  </si>
-  <si>
-    <t>Multi-layers: Simulation uses more than two layers.</t>
-  </si>
-  <si>
-    <t>2.1.3.2 *</t>
-  </si>
-  <si>
-    <t>Number Of Layers</t>
-  </si>
-  <si>
-    <t>If using multi-layers specify how many.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.vertical.number_of_layers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.3.3 </t>
-  </si>
-  <si>
-    <t>Specify any additional vertical grid details.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.vertical.additional_details</t>
-  </si>
-  <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
-    <t>Grid --&gt; Seaice Categories</t>
-  </si>
-  <si>
-    <t>What method is used to represent sea ice categories?</t>
-  </si>
-  <si>
-    <t>2.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Has Mulitple Categories</t>
-  </si>
-  <si>
-    <t>Set to true if the sea ice model has multiple sea ice categories.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.seaice_categories.has_mulitple_categories</t>
-  </si>
-  <si>
-    <t>2.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Number Of Categories</t>
-  </si>
-  <si>
-    <t>If using sea ice categories specify how many.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.seaice_categories.number_of_categories</t>
-  </si>
-  <si>
-    <t>2.2.1.3 *</t>
-  </si>
-  <si>
-    <t>Category Limits</t>
-  </si>
-  <si>
-    <t>If using sea ice categories specify each of the category limits.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.seaice_categories.category_limits</t>
+    <t>Subgrid-scale thickness distribution, 1-layer thermodynamics, EVP rheology</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>COCO is an ice-ocean coupled model which can be used as a stand-alone model or an ice-ocean component of MIROC. It has been developed in Atmosphere and Ocean Research Institute (AORI), The University of Tokyo, and Japan Agency for Marine-Earth Science and Technology (JAMSTEC).  The sea-ice part of COCO employs subgrid-scale thickness distribution, 1-layer thermodynamics, and EVP rheology.</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>0.3, 0.6, 1.0, 2.5, 5.0</t>
-  </si>
-  <si>
-    <t>2.2.1.4 *</t>
-  </si>
-  <si>
-    <t>Ice Thickness Distribution</t>
-  </si>
-  <si>
-    <t>Describe the sea ice thickness distribution.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.seaice_categories.ice_thickness_distribution</t>
-  </si>
-  <si>
-    <t>The governing equation follows Thorndike et al. (1975). Its discritizaion as well as the evaluation of mechanical redistribution term follows Bitz et al. (2001).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1.5 </t>
-  </si>
-  <si>
-    <t>If the sea ice model does not use sea ice categories specify any 
-            additional details. For example models that paramterise 
-            the ice thickness distribution ITD (i.e there is no explicit ITD) but 
-            there is assumed distribution and fluxes are computed accordingly.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.seaice_categories.other</t>
-  </si>
-  <si>
-    <t>2.3.1</t>
-  </si>
-  <si>
-    <t>Grid --&gt; Snow On Seaice</t>
-  </si>
-  <si>
-    <t>Snow on sea ice details</t>
-  </si>
-  <si>
-    <t>2.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Has Snow On Ice</t>
-  </si>
-  <si>
-    <t>Is snow on ice represented in this model?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.snow_on_seaice.has_snow_on_ice</t>
-  </si>
-  <si>
-    <t>2.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Number Of Snow Levels</t>
-  </si>
-  <si>
-    <t>Number of vertical levels of snow on ice?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.snow_on_seaice.number_of_snow_levels</t>
-  </si>
-  <si>
-    <t>2.3.1.3 *</t>
-  </si>
-  <si>
-    <t>Snow Fraction</t>
-  </si>
-  <si>
-    <t>Describe how the snow fraction on sea ice is determined.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.snow_on_seaice.snow_fraction</t>
-  </si>
-  <si>
-    <t>Snow area fraction is not explicitly handled; instead, albedo dependency on skin temperature and snow thickness implicitly includes the effect of snow area fraction change.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.1.4 </t>
-  </si>
-  <si>
-    <t>Specify any additional details related to snow on ice.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.snow_on_seaice.additional_details</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>Dynamics</t>
-  </si>
-  <si>
-    <t>Sea Ice Dynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the dynamics in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of sea ice dynamics in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.overview</t>
-  </si>
-  <si>
-    <t>3.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Horizontal Transport</t>
-  </si>
-  <si>
-    <t>What is the method of horizontal advection of sea ice?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.horizontal_transport</t>
-  </si>
-  <si>
-    <t>Eulerian</t>
-  </si>
-  <si>
-    <t>Incremental Re-mapping: (including Semi-Lagrangian)</t>
-  </si>
-  <si>
-    <t>Prather</t>
-  </si>
-  <si>
-    <t>3.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Transport In Thickness Space</t>
-  </si>
-  <si>
-    <t>What is the method of sea ice transport in thickness space (i.e. in thickness categories)?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.transport_in_thickness_space</t>
-  </si>
-  <si>
-    <t>3.1.1.5 *</t>
-  </si>
-  <si>
-    <t>Ice Strength Formulation</t>
-  </si>
-  <si>
-    <t>Which method of sea ice strength formulation is used?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.ice_strength_formulation</t>
-  </si>
-  <si>
-    <t>Hibler 1979</t>
-  </si>
-  <si>
-    <t>Rothrock 1975</t>
-  </si>
-  <si>
-    <t>3.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Redistribution</t>
-  </si>
-  <si>
-    <t>Which processes can redistribute sea ice (including thickness)?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.redistribution</t>
-  </si>
-  <si>
-    <t>Ridging</t>
-  </si>
-  <si>
-    <t>Rafting</t>
-  </si>
-  <si>
-    <t>3.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Rheology</t>
-  </si>
-  <si>
-    <t>Rheology, what is the ice deformation formulation?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.rheology</t>
-  </si>
-  <si>
-    <t>Free-drift</t>
-  </si>
-  <si>
-    <t>Mohr-Coloumb</t>
-  </si>
-  <si>
-    <t>Visco-plastic: VP</t>
-  </si>
-  <si>
-    <t>Elastic-visco-plastic: EVP</t>
-  </si>
-  <si>
-    <t>Elastic-anisotropic-plastic</t>
-  </si>
-  <si>
-    <t>Granular</t>
-  </si>
-  <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics</t>
-  </si>
-  <si>
-    <t>Sea Ice Thermodynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the thermodynamics in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of sea ice thermodynamics in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.overview</t>
-  </si>
-  <si>
-    <t>4.2.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Energy</t>
-  </si>
-  <si>
-    <t>Processes related to energy in sea ice thermodynamics.</t>
-  </si>
-  <si>
-    <t>4.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Enthalpy Formulation</t>
-  </si>
-  <si>
-    <t>What is the energy formulation?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.enthalpy_formulation</t>
-  </si>
-  <si>
-    <t>Pure ice latent and sensible heat + explicit brine inclusions (Bitz and Lipscomb)</t>
-  </si>
-  <si>
-    <t>Pure ice latent heat (Semtner 0-layer)</t>
-  </si>
-  <si>
-    <t>Pure ice latent and sensible heat</t>
-  </si>
-  <si>
-    <t>Pure ice latent and sensible heat + brine heat reservoir (Semtner 3-layer)</t>
-  </si>
-  <si>
-    <t>4.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Thermal Conductivity</t>
-  </si>
-  <si>
-    <t>What type of thermal conductivity is used?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.thermal_conductivity</t>
-  </si>
-  <si>
-    <t>Pure ice</t>
-  </si>
-  <si>
-    <t>Saline ice</t>
-  </si>
-  <si>
-    <t>4.2.1.3 *</t>
-  </si>
-  <si>
-    <t>Heat Diffusion</t>
-  </si>
-  <si>
-    <t>What is the method of heat diffusion?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.heat_diffusion</t>
-  </si>
-  <si>
-    <t>Conduction fluxes</t>
-  </si>
-  <si>
-    <t>Conduction and radiation heat fluxes</t>
-  </si>
-  <si>
-    <t>Conduction, radiation and latent heat transport</t>
-  </si>
-  <si>
-    <t>4.2.1.4 *</t>
-  </si>
-  <si>
-    <t>Basal Heat Flux</t>
-  </si>
-  <si>
-    <t>Method by which basal ocean heat flux is handled?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
-  </si>
-  <si>
-    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
-  </si>
-  <si>
-    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
-  </si>
-  <si>
-    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.5 </t>
-  </si>
-  <si>
-    <t>Fixed Salinity Value</t>
-  </si>
-  <si>
-    <t>If you have selected {Thermal properties depend on S-T (with fixed salinity)},
-             supply fixed salinity value for each sea ice layer.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.fixed_salinity_value</t>
-  </si>
-  <si>
-    <t>4.2.1.6 *</t>
-  </si>
-  <si>
-    <t>Heat Content Of Precipitation</t>
-  </si>
-  <si>
-    <t>Describe the method by which the heat content of precipitation is handled.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.heat_content_of_precipitation</t>
-  </si>
-  <si>
-    <t>Precipitation as a form of water directly falls into the ocean and does not interact with the sea-ice component.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.7 </t>
-  </si>
-  <si>
-    <t>Precipitation Effects On Salinity</t>
-  </si>
-  <si>
-    <t>If precipitation (freshwater) that falls on sea ice affects the ocean surface
-             salinity please provide further details.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.precipitation_effects_on_salinity</t>
-  </si>
-  <si>
-    <t>4.3.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Mass</t>
-  </si>
-  <si>
-    <t>Processes related to mass in sea ice thermodynamics.</t>
-  </si>
-  <si>
-    <t>4.3.1.1 *</t>
-  </si>
-  <si>
-    <t>New Ice Formation</t>
-  </si>
-  <si>
-    <t>Describe the method by which new sea ice is formed in open water.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.mass.new_ice_formation</t>
-  </si>
-  <si>
-    <t>From open water</t>
-  </si>
-  <si>
-    <t>4.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Ice Vertical Growth And Melt</t>
-  </si>
-  <si>
-    <t>Describe the method that governs the vertical growth and melt of sea ice.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.mass.ice_vertical_growth_and_melt</t>
-  </si>
-  <si>
-    <t>From open water, bottom, and lateral</t>
-  </si>
-  <si>
-    <t>4.3.1.3 *</t>
-  </si>
-  <si>
-    <t>Ice Lateral Melting</t>
-  </si>
-  <si>
-    <t>What is the method of sea ice lateral melting?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.mass.ice_lateral_melting</t>
-  </si>
-  <si>
-    <t>Floe-size dependent (Bitz et al 2001)</t>
-  </si>
-  <si>
-    <t>Virtual thin ice melting (for single-category)</t>
-  </si>
-  <si>
-    <t>4.3.1.4 *</t>
-  </si>
-  <si>
-    <t>Ice Surface Sublimation</t>
-  </si>
-  <si>
-    <t>Describe the method that governs sea ice surface sublimation.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.mass.ice_surface_sublimation</t>
-  </si>
-  <si>
-    <t>Sublimation flux is diagnosed in the coupler to the atmospheric component.</t>
-  </si>
-  <si>
-    <t>4.3.1.5 *</t>
-  </si>
-  <si>
-    <t>Frazil Ice</t>
-  </si>
-  <si>
-    <t>Describe the method of frazil ice formation.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.mass.frazil_ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New ice formation from open water implicitly includes frazil ice formation. </t>
-  </si>
-  <si>
-    <t>4.4.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Salt</t>
-  </si>
-  <si>
-    <t>Processes related to salt in sea ice thermodynamics.</t>
-  </si>
-  <si>
-    <t>4.4.1.1 *</t>
-  </si>
-  <si>
-    <t>Has Multiple Sea Ice Salinities</t>
-  </si>
-  <si>
-    <t>Does the sea ice model use two different salinities: one for
-            thermodynamic calculations; and one for the salt budget?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.has_multiple_sea_ice_salinities</t>
-  </si>
-  <si>
-    <t>4.4.1.2 *</t>
-  </si>
-  <si>
-    <t>Sea Ice Salinity Thermal Impacts</t>
-  </si>
-  <si>
-    <t>Does sea ice salinity impact the thermal properties of sea ice?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.sea_ice_salinity_thermal_impacts</t>
-  </si>
-  <si>
-    <t>4.4.2</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Salt --&gt; Mass Transport</t>
-  </si>
-  <si>
-    <t>Mass transport of salt.</t>
-  </si>
-  <si>
-    <t>4.4.2.1 *</t>
-  </si>
-  <si>
-    <t>Salinity Type</t>
-  </si>
-  <si>
-    <t>How is salinity determined in the mass transport of salt calculation?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Prescribed salinity profile</t>
-  </si>
-  <si>
-    <t>Prognostic salinity profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.2.2 </t>
-  </si>
-  <si>
-    <t>Constant Salinity Value</t>
-  </si>
-  <si>
-    <t>If using a constant salinity value specify this value in PSU?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.mass_transport.constant_salinity_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.2.3 </t>
-  </si>
-  <si>
-    <t>Describe the salinity profile used.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.mass_transport.additional_details</t>
-  </si>
-  <si>
-    <t>4.4.3</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Salt --&gt; Thermodynamics</t>
-  </si>
-  <si>
-    <t>Salt thermodynamics</t>
-  </si>
-  <si>
-    <t>4.4.3.1 *</t>
-  </si>
-  <si>
-    <t>How is salinity determined in the thermodynamic calculation?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.salinity_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.3.2 </t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.constant_salinity_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.3.3 </t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.additional_details</t>
-  </si>
-  <si>
-    <t>4.5.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Ice Thickness Distribution</t>
-  </si>
-  <si>
-    <t>Ice thickness distribution details.</t>
-  </si>
-  <si>
-    <t>4.5.1.1 *</t>
-  </si>
-  <si>
-    <t>Representation</t>
-  </si>
-  <si>
-    <t>How is the sea ice thickness distribution represented?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.ice_thickness_distribution.representation</t>
-  </si>
-  <si>
-    <t>Explicit</t>
-  </si>
-  <si>
-    <t>Virtual (enhancement of thermal conductivity, thin ice melting)</t>
-  </si>
-  <si>
-    <t>4.6.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Ice Floe Size Distribution</t>
-  </si>
-  <si>
-    <t>Ice floe-size distribution details.</t>
-  </si>
-  <si>
-    <t>4.6.1.1 *</t>
-  </si>
-  <si>
-    <t>How is the sea ice floe-size represented?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.representation</t>
-  </si>
-  <si>
-    <t>Parameterised</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6.1.2 </t>
-  </si>
-  <si>
-    <t>Provide further details on any parameterisation of floe-size.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.additional_details</t>
-  </si>
-  <si>
-    <t>4.7.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Melt Ponds</t>
-  </si>
-  <si>
-    <t>Characteristics of melt ponds.</t>
-  </si>
-  <si>
-    <t>4.7.1.1 *</t>
-  </si>
-  <si>
-    <t>Are Included</t>
-  </si>
-  <si>
-    <t>Are melt ponds included in the sea ice model?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.melt_ponds.are_included</t>
-  </si>
-  <si>
-    <t>4.7.1.2 *</t>
-  </si>
-  <si>
-    <t>Formulation</t>
-  </si>
-  <si>
-    <t>What method of melt pond formulation is used?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.melt_ponds.formulation</t>
-  </si>
-  <si>
-    <t>Flocco and Feltham (2010)</t>
-  </si>
-  <si>
-    <t>Level-ice melt ponds</t>
-  </si>
-  <si>
-    <t>4.7.1.3 *</t>
-  </si>
-  <si>
-    <t>Impacts</t>
-  </si>
-  <si>
-    <t>What do melt ponds have an impact on?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.melt_ponds.impacts</t>
-  </si>
-  <si>
-    <t>Albedo</t>
-  </si>
-  <si>
-    <t>Freshwater</t>
-  </si>
-  <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>4.8.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Snow Processes</t>
-  </si>
-  <si>
-    <t>Thermodynamic processes in snow on sea ice</t>
-  </si>
-  <si>
-    <t>4.8.1.1 *</t>
-  </si>
-  <si>
-    <t>Has Snow Aging</t>
-  </si>
-  <si>
-    <t>Set to True if the sea ice model has a snow aging scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_aging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8.1.2 </t>
-  </si>
-  <si>
-    <t>Snow Aging Scheme</t>
-  </si>
-  <si>
-    <t>Describe the snow aging scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.snow_aging_scheme</t>
-  </si>
-  <si>
-    <t>4.8.1.3 *</t>
-  </si>
-  <si>
-    <t>Has Snow Ice Formation</t>
-  </si>
-  <si>
-    <t>Set to True if the sea ice model has snow ice formation.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_ice_formation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8.1.4 </t>
-  </si>
-  <si>
-    <t>Snow Ice Formation Scheme</t>
-  </si>
-  <si>
-    <t>Describe the snow ice formation scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.snow_ice_formation_scheme</t>
-  </si>
-  <si>
-    <t>When snow-ice interface comes below sea level, the snow between the interface and sea level turns into sea ice.</t>
-  </si>
-  <si>
-    <t>4.8.1.5 *</t>
-  </si>
-  <si>
-    <t>What is the impact of ridging on snow cover?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
-  </si>
-  <si>
-    <t>Snow-ice</t>
-  </si>
-  <si>
-    <t>4.8.1.6 *</t>
-  </si>
-  <si>
-    <t>What is the heat diffusion through snow methodology in sea ice thermodynamics?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.heat_diffusion</t>
-  </si>
-  <si>
-    <t>Single-layered heat diffusion</t>
-  </si>
-  <si>
-    <t>Multi-layered heat diffusion</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
-    <t>Radiative Processes</t>
-  </si>
-  <si>
-    <t>Sea Ice Radiative Processes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the radiative processes in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.radiative_processes.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of sea ice radiative processes in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.radiative_processes.overview</t>
-  </si>
-  <si>
-    <t>5.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Surface Albedo</t>
-  </si>
-  <si>
-    <t>Method used to handle surface albedo?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.radiative_processes.surface_albedo</t>
-  </si>
-  <si>
-    <t>Delta-Eddington</t>
-  </si>
-  <si>
-    <t>Parameterized: Sea ice albedo is parameterized.</t>
-  </si>
-  <si>
-    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
-  </si>
-  <si>
-    <t>5.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Ice Radiation Transmission</t>
-  </si>
-  <si>
-    <t>Method by which solar radiation through sea ice is handled?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.radiative_processes.ice_radiation_transmission</t>
-  </si>
-  <si>
-    <t>Exponential attenuation</t>
-  </si>
-  <si>
-    <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
+    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1815,8 +1870,15 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1847,6 +1909,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1860,7 +1928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1904,17 +1972,34 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1956,7 +2041,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1988,9 +2073,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2022,6 +2125,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2197,24 +2318,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.75" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2222,7 +2343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,7 +2351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2238,7 +2359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2246,7 +2367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2254,27 +2375,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20.25">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20.25">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20.25">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2282,7 +2403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="18">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2290,7 +2411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="18">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2298,7 +2419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2306,41 +2427,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="20.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="20.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.75" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -2351,7 +2473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -2367,7 +2489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
@@ -2375,11 +2497,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -2395,7 +2517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
@@ -2403,39 +2525,42 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Dynamics,Thermodynamics,Radiative Processes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AL156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2472,15 +2597,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2488,28 +2613,28 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>50</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2517,52 +2642,52 @@
         <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>56</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
@@ -2572,354 +2697,357 @@
     </row>
     <row r="25" spans="1:38" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA25" s="6" t="s">
+      <c r="AE25" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AB25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AF25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AG25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AH25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AI25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AG25" s="6" t="s">
+      <c r="AJ25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AH25" s="6" t="s">
+      <c r="AK25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AI25" s="6" t="s">
+      <c r="AL25" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK25" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL25" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AA26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD26" s="6" t="s">
+      <c r="AG26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AE26" s="6" t="s">
+      <c r="AH26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AF26" s="6" t="s">
+      <c r="AI26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AG26" s="6" t="s">
+      <c r="AJ26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AH26" s="6" t="s">
+      <c r="AK26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AI26" s="6" t="s">
+      <c r="AL26" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL26" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AA27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF27" s="6" t="s">
+      <c r="AI27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AG27" s="6" t="s">
+      <c r="AJ27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AH27" s="6" t="s">
+      <c r="AK27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AI27" s="6" t="s">
+      <c r="AL27" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL27" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AA28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG28" s="6" t="s">
+      <c r="AJ28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AH28" s="6" t="s">
+      <c r="AK28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AI28" s="6" t="s">
+      <c r="AL28" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL28" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH29" s="6" t="s">
+      <c r="AK29" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AI29" s="6" t="s">
+      <c r="AL29" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL29" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AA30" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI30" s="6" t="s">
+      <c r="AL30" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ30" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL30" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AA31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE31" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AB31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC31" s="6" t="s">
+      <c r="AF31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AD31" s="6" t="s">
+      <c r="AG31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AE31" s="6" t="s">
+      <c r="AH31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AF31" s="6" t="s">
+      <c r="AI31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AG31" s="6" t="s">
+      <c r="AJ31" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AH31" s="6" t="s">
+      <c r="AK31" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AI31" s="6" t="s">
+      <c r="AL31" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL31" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>536</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -2927,22 +3055,22 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2951,23 +3079,23 @@
         <v>41</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>98</v>
+        <v>559</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -2975,34 +3103,34 @@
         <v>41</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>103</v>
+        <v>537</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -3012,52 +3140,52 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>114</v>
+      <c r="B66" s="15" t="s">
+        <v>538</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="177.95" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>116</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3065,23 +3193,23 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="11" t="s">
-        <v>121</v>
+        <v>540</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
@@ -3089,28 +3217,28 @@
         <v>41</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="B76" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="11" t="s">
-        <v>126</v>
+        <v>541</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
@@ -3118,15 +3246,15 @@
         <v>41</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="B81" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -3134,10 +3262,10 @@
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
@@ -3145,76 +3273,76 @@
         <v>41</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="11" t="s">
-        <v>135</v>
+        <v>542</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="A90" s="12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="B91" s="13" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="11">
+      <c r="B95" s="16">
         <v>20000</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="A98" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -3224,21 +3352,21 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -3248,10 +3376,10 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -3259,41 +3387,41 @@
         <v>41</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="B107" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="11" t="s">
-        <v>155</v>
+        <v>543</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="12" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="B112" s="13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -3301,28 +3429,28 @@
         <v>41</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="B116" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="177.95" customHeight="1">
       <c r="B117" s="11" t="s">
-        <v>162</v>
+        <v>545</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -3330,70 +3458,70 @@
         <v>41</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="B122" s="11" t="s">
-        <v>167</v>
+        <v>546</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>170</v>
+      <c r="B125" s="15" t="s">
+        <v>544</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="11" t="s">
-        <v>172</v>
+        <v>547</v>
       </c>
     </row>
     <row r="130" spans="1:30" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:30" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:30" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>113</v>
+        <v>160</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:30" ht="24" customHeight="1">
@@ -3401,39 +3529,39 @@
         <v>41</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:30" ht="24" customHeight="1">
       <c r="B135" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="136" spans="1:30" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" ht="177.95" customHeight="1">
       <c r="B136" s="11" t="s">
-        <v>179</v>
+        <v>560</v>
       </c>
     </row>
     <row r="138" spans="1:30" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:30" ht="24" customHeight="1">
       <c r="A139" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:30" ht="24" customHeight="1">
@@ -3443,44 +3571,44 @@
     </row>
     <row r="141" spans="1:30" ht="24" customHeight="1">
       <c r="B141" s="11" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="AA141" s="6" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="AB141" s="6" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="AC141" s="6" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="AD141" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="1:30" ht="24" customHeight="1">
       <c r="B142" s="11" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="AA142" s="6" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="AB142" s="6" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="AC142" s="6" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="AD142" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="1:30" ht="24" customHeight="1">
       <c r="A144" s="9" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
@@ -3488,39 +3616,39 @@
         <v>41</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="B146" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="B147" s="11" t="s">
-        <v>191</v>
+        <v>548</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="A149" s="9" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
       <c r="A150" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
@@ -3530,10 +3658,10 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="9" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
@@ -3541,72 +3669,40 @@
         <v>41</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
       <c r="B155" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="B156" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="16">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B31" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>AA25:AL25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>AA26:AL26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AL27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AL28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>AA29:AL29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AL30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AL31</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>AA39:AC39</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 B103 B99 B95" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B103">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141:B142" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>AA141:AD141</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
-      <formula1>AA142:AD142</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3615,35 +3711,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -3654,10 +3752,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3665,10 +3763,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3676,158 +3774,158 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -3837,21 +3935,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>238</v>
+        <v>219</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3861,10 +3959,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3872,50 +3970,50 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="177.95" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -3925,38 +4023,41 @@
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>549</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
@@ -3966,10 +4067,10 @@
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
@@ -3977,50 +4078,50 @@
         <v>41</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="B57" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="177.95" customHeight="1">
       <c r="B58" s="11"/>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4030,21 +4131,21 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -4054,10 +4155,10 @@
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
@@ -4065,28 +4166,28 @@
         <v>41</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>277</v>
+        <v>563</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -4094,28 +4195,28 @@
         <v>41</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="177.95" customHeight="1">
       <c r="B80" s="11" t="s">
-        <v>282</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>84</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -4123,50 +4224,50 @@
         <v>41</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="B84" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="177.95" customHeight="1">
       <c r="B85" s="11"/>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -4176,21 +4277,21 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -4200,10 +4301,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -4211,28 +4312,28 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="177.95" customHeight="1">
       <c r="B102" s="11" t="s">
-        <v>301</v>
+        <v>551</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -4240,54 +4341,31 @@
         <v>41</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="177.95" customHeight="1">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B49 B27 B23" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AA19:AD19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AD23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AD27</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B97 B70 B53 B35" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
-      <formula1>AA49:AD49</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B93" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4295,35 +4373,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4334,10 +4414,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -4345,10 +4425,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -4356,142 +4436,142 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>84</v>
+        <v>305</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
@@ -4501,76 +4581,73 @@
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>325</v>
+      </c>
       <c r="AA32" s="6" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>AA15:AD15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AD19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B28" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AC28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>AA32:AG32</formula1>
     </dataValidation>
   </dataValidations>
@@ -4579,35 +4656,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AE187"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B187" sqref="B187"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4618,10 +4697,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4629,10 +4708,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4640,194 +4719,194 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>84</v>
+        <v>365</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4837,10 +4916,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -4848,28 +4927,28 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="177.95" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>395</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4877,39 +4956,39 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="177.95" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -4917,28 +4996,28 @@
         <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="177.95" customHeight="1">
       <c r="B54" s="11" t="s">
-        <v>407</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -4946,61 +5025,64 @@
         <v>41</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="177.95" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="B63" s="11" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>554</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -5008,28 +5090,28 @@
         <v>41</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="177.95" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>423</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -5037,52 +5119,52 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="177.95" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>428</v>
+        <v>556</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
@@ -5092,21 +5174,21 @@
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -5116,70 +5198,70 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="B93" s="11" t="s">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AA93" s="6" t="s">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
@@ -5189,10 +5271,10 @@
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
@@ -5200,86 +5282,86 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:30" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" ht="177.95" customHeight="1">
       <c r="B102" s="11"/>
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
       <c r="B110" s="11" t="s">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AA110" s="6" t="s">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
@@ -5289,10 +5371,10 @@
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="24" customHeight="1">
@@ -5300,118 +5382,118 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
       <c r="B118" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" ht="177.95" customHeight="1">
       <c r="B119" s="11"/>
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
       <c r="B127" s="11" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="AA127" s="6" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
       <c r="B135" s="11" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="AA135" s="6" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
@@ -5419,50 +5501,50 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="140" spans="1:29" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" ht="177.95" customHeight="1">
       <c r="B140" s="11"/>
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
@@ -5472,54 +5554,54 @@
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
       <c r="B152" s="11" t="s">
-        <v>84</v>
+        <v>474</v>
       </c>
       <c r="AA152" s="6" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="AC152" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5530,48 +5612,48 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="AD157" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -5581,10 +5663,10 @@
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5592,37 +5674,37 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="B169" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="177.95" customHeight="1">
       <c r="B170" s="11"/>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5632,10 +5714,10 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5643,28 +5725,28 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="B178" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="179" spans="1:29" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" ht="177.95" customHeight="1">
       <c r="B179" s="11" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
@@ -5672,112 +5754,68 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
       <c r="B183" s="11" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
     </row>
     <row r="186" spans="1:29" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
-      <c r="B187" s="11"/>
+      <c r="B187" s="11" t="s">
+        <v>510</v>
+      </c>
       <c r="AA187" s="6" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="AC187" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA19:AE19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B187 B152 B135 B127 B63" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B157 B110 B93 B31" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>AA27:AD27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AD31</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B114 B97" xr:uid="{00000000-0002-0000-0500-000004000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AC63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81 B174 B165 B148 B85" xr:uid="{00000000-0002-0000-0500-000006000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>AA93:AD93</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
-      <formula1>AA110:AD110</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
-      <formula1>AA127:AC127</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AC135</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
-      <formula1>AA152:AC152</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B157">
-      <formula1>AA157:AD157</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B174">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
-      <formula1>AA187:AC187</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5785,35 +5823,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="150.75" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5824,10 +5864,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5835,10 +5875,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5846,73 +5886,73 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>84</v>
+        <v>525</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5921,29 +5961,33 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>558</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>AA15:AD15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AD20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_seaice.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_seaice.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d566ba9b8f1570b/仕事/ES-DOC/collected/miroc6/20190201Ocean/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE50465-7237-4299-AAD3-62C3E738786D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,12 @@
     <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="564">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -154,214 +160,1500 @@
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
+    <t>1.1.1.2 *</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Keywords associated with seaice model code</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.keywords</t>
+  </si>
+  <si>
+    <t>NOTE: Please enter a comma seperated list</t>
+  </si>
+  <si>
+    <t>1.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Overview of seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.overview</t>
+  </si>
+  <si>
+    <t>NOTE: Double click to expand if text is too long for cell</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Variables</t>
+  </si>
+  <si>
+    <t>List of prognostic variable in the sea ice model.</t>
+  </si>
+  <si>
+    <t>1.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Prognostic</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>Select all prognostic variables in the sea ice component.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.variables.prognostic</t>
+  </si>
+  <si>
+    <t>Sea ice temperature</t>
+  </si>
+  <si>
+    <t>Sea ice concentration</t>
+  </si>
+  <si>
+    <t>Sea ice thickness</t>
+  </si>
+  <si>
+    <t>Sea ice volume per grid cell area</t>
+  </si>
+  <si>
+    <t>Sea ice u-velocity</t>
+  </si>
+  <si>
+    <t>Sea ice v-velocity</t>
+  </si>
+  <si>
+    <t>Sea ice enthalpy</t>
+  </si>
+  <si>
+    <t>Internal ice stress</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>Snow temperature</t>
+  </si>
+  <si>
+    <t>Snow depth</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Seawater Properties</t>
+  </si>
+  <si>
+    <t>Properties of seawater relevant to sea ice</t>
+  </si>
+  <si>
+    <t>1.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Ocean Freezing Point</t>
+  </si>
+  <si>
+    <t>What is the equation used to compute the freezing point (in deg C) of seawater, as a function of salinity and pressure?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
+  </si>
+  <si>
+    <t>TEOS-10</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1.2 </t>
+  </si>
+  <si>
+    <t>Ocean Freezing Point Value</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>If using a constant seawater freezing point, specify this value.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point_value</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Resolution</t>
+  </si>
+  <si>
+    <t>Resolution of the sea ice grid</t>
+  </si>
+  <si>
+    <t>1.4.1.1 *</t>
+  </si>
+  <si>
+    <t>This is a string usually used by the modelling group to describe the resolution of this grid e.g. N512L180, T512L70, ORCA025 etc.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.resolution.name</t>
+  </si>
+  <si>
+    <t>1.4.1.2 *</t>
+  </si>
+  <si>
+    <t>Canonical Horizontal Resolution</t>
+  </si>
+  <si>
+    <t>Expression quoted for gross comparisons of resolution, eg. 50km or 0.1 degrees etc.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.resolution.canonical_horizontal_resolution</t>
+  </si>
+  <si>
+    <t>1.4.1.3 *</t>
+  </si>
+  <si>
+    <t>Number Of Horizontal Gridpoints</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>What are the total number of horizontal (XY) points (or degrees of freedom) on computational grid?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.resolution.number_of_horizontal_gridpoints</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Tuning Applied</t>
+  </si>
+  <si>
+    <t>Tuning applied to sea ice model component</t>
+  </si>
+  <si>
+    <t>1.5.1.1 *</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.tuning_applied.description</t>
+  </si>
+  <si>
+    <t>1.5.1.2 *</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>What was the aim of tuning, e.g. correct sea ice minima, correct seasonal cycle?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.tuning_applied.target</t>
+  </si>
+  <si>
+    <t>1.5.1.3 *</t>
+  </si>
+  <si>
+    <t>Simulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which simulations had tuning applied, e.g. all, not historical, only pi-control? </t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.tuning_applied.simulations</t>
+  </si>
+  <si>
+    <t>1.5.1.4 *</t>
+  </si>
+  <si>
+    <t>Metrics Used</t>
+  </si>
+  <si>
+    <t>List any observed metrics used in tuning model/parameters</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.tuning_applied.metrics_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.1.5 </t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Which (if any) variables were changed during the tuning process?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.tuning_applied.variables</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Key Parameter Values</t>
+  </si>
+  <si>
+    <t>Values of key parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.1 </t>
+  </si>
+  <si>
+    <t>Ice Strength</t>
+  </si>
+  <si>
+    <t>Ice strength (P*) in units of N m{-2}</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.key_parameter_values.ice_strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.2 </t>
+  </si>
+  <si>
+    <t>Snow Conductivity</t>
+  </si>
+  <si>
+    <t>Snow conductivity (ks) in units of W m{-1} K{-1}</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.key_parameter_values.snow_conductivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.3 </t>
+  </si>
+  <si>
+    <t>Ice Thickness In Leads</t>
+  </si>
+  <si>
+    <t>Minimum thickness of ice created in leads (h0) in units of m</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.key_parameter_values.ice_thickness_in_leads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.4 </t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>If you have any additional paramterised values that you have used (e.g. minimum open water 
+         fraction or bare ice albedo), please provide them here as a comma separated list in the form 
+         {parameter1}: {value1}, {parameter2}: {value2}, etc.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.key_parameter_values.additional_parameters</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Assumptions</t>
+  </si>
+  <si>
+    <t>Assumptions made in the sea ice model</t>
+  </si>
+  <si>
+    <t>1.7.1.1 *</t>
+  </si>
+  <si>
+    <t>Provide a general overview description of any *key* assumptions made in this model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.assumptions.description</t>
+  </si>
+  <si>
+    <t>1.7.1.2 *</t>
+  </si>
+  <si>
+    <t>On Diagnostic Variables</t>
+  </si>
+  <si>
+    <t>Note any assumptions that specifically affect the CMIP6 diagnostic sea ice variables.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.assumptions.on_diagnostic_variables</t>
+  </si>
+  <si>
+    <t>1.7.1.3 *</t>
+  </si>
+  <si>
+    <t>Missing Processes</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.assumptions.missing_processes</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation</t>
+  </si>
+  <si>
+    <t>Conservation in the sea ice component</t>
+  </si>
+  <si>
+    <t>1.8.1.1 *</t>
+  </si>
+  <si>
+    <t>Provide a general description of conservation methodology.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.conservation.description</t>
+  </si>
+  <si>
+    <t>1.8.1.2 *</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Which properties conserved in sea ice by the numerical schemes?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.conservation.properties</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>1.8.1.3 *</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>For each conserved property, specify the output variables which close 
+           the related budgets. as a comma separated list. For example: 
+           Conserved property, variable1, variable2, variable3</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.conservation.budget</t>
+  </si>
+  <si>
+    <t>1.8.1.4 *</t>
+  </si>
+  <si>
+    <t>Was Flux Correction Used</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>Does conservation involved flux correction?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.conservation.was_flux_correction_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8.1.5 </t>
+  </si>
+  <si>
+    <t>Corrected Conserved Prognostic Variables</t>
+  </si>
+  <si>
+    <t>List any variables which are conserved by *more* than the numerical scheme alone 
+            (e.g. has correction applied).</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.key_properties.conservation.corrected_conserved_prognostic_variables</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>Sea Ice grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.1 </t>
+  </si>
+  <si>
+    <t>Name of grid in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of grid in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.overview</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>Grid --&gt; Discretisation --&gt; Horizontal</t>
+  </si>
+  <si>
+    <t>Sea ice discretisation in the horizontal</t>
+  </si>
+  <si>
+    <t>2.1.2.1 *</t>
+  </si>
+  <si>
+    <t>On which grid is the sea ice horizontal discretisation?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
+  </si>
+  <si>
+    <t>Ocean grid</t>
+  </si>
+  <si>
+    <t>Atmosphere Grid</t>
+  </si>
+  <si>
+    <t>Own Grid</t>
+  </si>
+  <si>
+    <t>2.1.2.2 *</t>
+  </si>
+  <si>
+    <t>Grid Type</t>
+  </si>
+  <si>
+    <t>What is the structure type of the sea ice grid?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.grid_type</t>
+  </si>
+  <si>
+    <t>Structured grid</t>
+  </si>
+  <si>
+    <t>Unstructured grid</t>
+  </si>
+  <si>
+    <t>Adaptive grid</t>
+  </si>
+  <si>
+    <t>2.1.2.3 *</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>What is the horizontal discretization (advection) scheme?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.scheme</t>
+  </si>
+  <si>
+    <t>Finite differences</t>
+  </si>
+  <si>
+    <t>Finite elements</t>
+  </si>
+  <si>
+    <t>Finite volumes</t>
+  </si>
+  <si>
+    <t>2.1.2.4 *</t>
+  </si>
+  <si>
+    <t>Thermodynamics Time Step</t>
+  </si>
+  <si>
+    <t>What is the time step in the sea ice model thermodynamic component in seconds.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.thermodynamics_time_step</t>
+  </si>
+  <si>
+    <t>2.1.2.5 *</t>
+  </si>
+  <si>
+    <t>Dynamics Time Step</t>
+  </si>
+  <si>
+    <t>What is the time step in the sea ice model dynamic component in seconds.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.dynamics_time_step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.2.6 </t>
+  </si>
+  <si>
+    <t>Additional Details</t>
+  </si>
+  <si>
+    <t>Specify any additional horizontal discretisation details.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.horizontal.additional_details</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>Grid --&gt; Discretisation --&gt; Vertical</t>
+  </si>
+  <si>
+    <t>Sea ice vertical properties</t>
+  </si>
+  <si>
+    <t>2.1.3.1 *</t>
+  </si>
+  <si>
+    <t>Layering</t>
+  </si>
+  <si>
+    <t>What type of sea ice vertical layers are implemented for purposes of thermodynamic calculations?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
+  </si>
+  <si>
+    <t>Zero-layer</t>
+  </si>
+  <si>
+    <t>Two-layers</t>
+  </si>
+  <si>
+    <t>Multi-layers</t>
+  </si>
+  <si>
+    <t>2.1.3.2 *</t>
+  </si>
+  <si>
+    <t>Number Of Layers</t>
+  </si>
+  <si>
+    <t>If using multi-layers specify how many.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.vertical.number_of_layers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.3.3 </t>
+  </si>
+  <si>
+    <t>Specify any additional vertical grid details.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.discretisation.vertical.additional_details</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>Grid --&gt; Seaice Categories</t>
+  </si>
+  <si>
+    <t>What method is used to represent sea ice categories?</t>
+  </si>
+  <si>
+    <t>2.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Has Mulitple Categories</t>
+  </si>
+  <si>
+    <t>Set to true if the sea ice model has multiple sea ice categories.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.seaice_categories.has_mulitple_categories</t>
+  </si>
+  <si>
+    <t>2.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Number Of Categories</t>
+  </si>
+  <si>
+    <t>If using sea ice categories specify how many.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.seaice_categories.number_of_categories</t>
+  </si>
+  <si>
+    <t>2.2.1.3 *</t>
+  </si>
+  <si>
+    <t>Category Limits</t>
+  </si>
+  <si>
+    <t>If using sea ice categories specify each of the category limits.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.seaice_categories.category_limits</t>
+  </si>
+  <si>
+    <t>2.2.1.4 *</t>
+  </si>
+  <si>
+    <t>Ice Thickness Distribution</t>
+  </si>
+  <si>
+    <t>Describe the sea ice thickness distribution.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.seaice_categories.ice_thickness_distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1.5 </t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>If the sea ice model does not use sea ice categories specify any 
+            additional details. For example models that paramterise 
+            the ice thickness distribution ITD (i.e there is no explicit ITD) but 
+            there is assumed distribution and fluxes are computed accordingly.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.seaice_categories.other</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>Grid --&gt; Snow On Seaice</t>
+  </si>
+  <si>
+    <t>Snow on sea ice details</t>
+  </si>
+  <si>
+    <t>2.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Has Snow On Ice</t>
+  </si>
+  <si>
+    <t>Is snow on ice represented in this model?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.snow_on_seaice.has_snow_on_ice</t>
+  </si>
+  <si>
+    <t>2.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Number Of Snow Levels</t>
+  </si>
+  <si>
+    <t>Number of vertical levels of snow on ice?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.snow_on_seaice.number_of_snow_levels</t>
+  </si>
+  <si>
+    <t>2.3.1.3 *</t>
+  </si>
+  <si>
+    <t>Snow Fraction</t>
+  </si>
+  <si>
+    <t>Describe how the snow fraction on sea ice is determined.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.snow_on_seaice.snow_fraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.1.4 </t>
+  </si>
+  <si>
+    <t>Specify any additional details related to snow on ice.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.grid.snow_on_seaice.additional_details</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>Dynamics</t>
+  </si>
+  <si>
+    <t>Sea Ice Dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the dynamics in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of sea ice dynamics in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.overview</t>
+  </si>
+  <si>
+    <t>3.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Horizontal Transport</t>
+  </si>
+  <si>
+    <t>What is the method of horizontal advection of sea ice?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.horizontal_transport</t>
+  </si>
+  <si>
+    <t>Incremental Re-mapping</t>
+  </si>
+  <si>
+    <t>Prather</t>
+  </si>
+  <si>
+    <t>Eulerian</t>
+  </si>
+  <si>
+    <t>3.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Transport In Thickness Space</t>
+  </si>
+  <si>
+    <t>What is the method of sea ice transport in thickness space (i.e. in thickness categories)?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.transport_in_thickness_space</t>
+  </si>
+  <si>
+    <t>Other: linear remapping</t>
+  </si>
+  <si>
+    <t>3.1.1.5 *</t>
+  </si>
+  <si>
+    <t>Ice Strength Formulation</t>
+  </si>
+  <si>
+    <t>Which method of sea ice strength formulation is used?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.ice_strength_formulation</t>
+  </si>
+  <si>
+    <t>Hibler 1979</t>
+  </si>
+  <si>
+    <t>Rothrock 1975</t>
+  </si>
+  <si>
+    <t>3.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Redistribution</t>
+  </si>
+  <si>
+    <t>Which processes can redistribute sea ice (including thickness)?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.redistribution</t>
+  </si>
+  <si>
+    <t>Ridging</t>
+  </si>
+  <si>
+    <t>Rafting</t>
+  </si>
+  <si>
+    <t>3.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Rheology</t>
+  </si>
+  <si>
+    <t>Rheology, what is the ice deformation formulation?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.dynamics.rheology</t>
+  </si>
+  <si>
+    <t>Free-drift</t>
+  </si>
+  <si>
+    <t>Mohr-Coloumb</t>
+  </si>
+  <si>
+    <t>Visco-plastic</t>
+  </si>
+  <si>
+    <t>Elastic-visco-plastic</t>
+  </si>
+  <si>
+    <t>Elastic-anisotropic-plastic</t>
+  </si>
+  <si>
+    <t>Granular</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics</t>
+  </si>
+  <si>
+    <t>Sea Ice Thermodynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the thermodynamics in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of sea ice thermodynamics in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.overview</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Energy</t>
+  </si>
+  <si>
+    <t>Processes related to energy in sea ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>4.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Enthalpy Formulation</t>
+  </si>
+  <si>
+    <t>What is the energy formulation?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.enthalpy_formulation</t>
+  </si>
+  <si>
+    <t>Pure ice latent heat (Semtner 0-layer)</t>
+  </si>
+  <si>
+    <t>Pure ice latent and sensible heat</t>
+  </si>
+  <si>
+    <t>Pure ice latent and sensible heat + brine heat reservoir (Semtner 3-layer)</t>
+  </si>
+  <si>
+    <t>Pure ice latent and sensible heat + explicit brine inclusions (Bitz and Lipscomb)</t>
+  </si>
+  <si>
+    <t>4.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Thermal Conductivity</t>
+  </si>
+  <si>
+    <t>What type of thermal conductivity is used?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.thermal_conductivity</t>
+  </si>
+  <si>
+    <t>Pure ice</t>
+  </si>
+  <si>
+    <t>Saline ice</t>
+  </si>
+  <si>
+    <t>4.2.1.3 *</t>
+  </si>
+  <si>
+    <t>Heat Diffusion</t>
+  </si>
+  <si>
+    <t>What is the method of heat diffusion?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.heat_diffusion</t>
+  </si>
+  <si>
+    <t>Conduction fluxes</t>
+  </si>
+  <si>
+    <t>Conduction and radiation heat fluxes</t>
+  </si>
+  <si>
+    <t>Conduction, radiation and latent heat transport</t>
+  </si>
+  <si>
+    <t>4.2.1.4 *</t>
+  </si>
+  <si>
+    <t>Basal Heat Flux</t>
+  </si>
+  <si>
+    <t>Method by which basal ocean heat flux is handled?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
+  </si>
+  <si>
+    <t>Other: parametrized (calculated in seaice)</t>
+  </si>
+  <si>
+    <t>Heat Reservoir</t>
+  </si>
+  <si>
+    <t>Thermal Fixed Salinity</t>
+  </si>
+  <si>
+    <t>Thermal Varying Salinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.5 </t>
+  </si>
+  <si>
+    <t>Fixed Salinity Value</t>
+  </si>
+  <si>
+    <t>If you have selected {Thermal properties depend on S-T (with fixed salinity)},
+             supply fixed salinity value for each sea ice layer.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.fixed_salinity_value</t>
+  </si>
+  <si>
+    <t>4.2.1.6 *</t>
+  </si>
+  <si>
+    <t>Heat Content Of Precipitation</t>
+  </si>
+  <si>
+    <t>Describe the method by which the heat content of precipitation is handled.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.heat_content_of_precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.7 </t>
+  </si>
+  <si>
+    <t>Precipitation Effects On Salinity</t>
+  </si>
+  <si>
+    <t>If precipitation (freshwater) that falls on sea ice affects the ocean surface
+             salinity please provide further details.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.energy.precipitation_effects_on_salinity</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Mass</t>
+  </si>
+  <si>
+    <t>Processes related to mass in sea ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>4.3.1.1 *</t>
+  </si>
+  <si>
+    <t>New Ice Formation</t>
+  </si>
+  <si>
+    <t>Describe the method by which new sea ice is formed in open water.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.mass.new_ice_formation</t>
+  </si>
+  <si>
+    <t>From open water, bottom, and lateral</t>
+  </si>
+  <si>
+    <t>4.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Ice Vertical Growth And Melt</t>
+  </si>
+  <si>
+    <t>Describe the method that governs the vertical growth and melt of sea ice.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.mass.ice_vertical_growth_and_melt</t>
+  </si>
+  <si>
+    <t>4.3.1.3 *</t>
+  </si>
+  <si>
+    <t>Ice Lateral Melting</t>
+  </si>
+  <si>
+    <t>What is the method of sea ice lateral melting?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.mass.ice_lateral_melting</t>
+  </si>
+  <si>
+    <t>Floe-size dependent (Bitz et al 2001)</t>
+  </si>
+  <si>
+    <t>Virtual thin ice melting (for single-category)</t>
+  </si>
+  <si>
+    <t>4.3.1.4 *</t>
+  </si>
+  <si>
+    <t>Ice Surface Sublimation</t>
+  </si>
+  <si>
+    <t>Describe the method that governs sea ice surface sublimation.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.mass.ice_surface_sublimation</t>
+  </si>
+  <si>
+    <t>4.3.1.5 *</t>
+  </si>
+  <si>
+    <t>Frazil Ice</t>
+  </si>
+  <si>
+    <t>Describe the method of frazil ice formation.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.mass.frazil_ice</t>
+  </si>
+  <si>
+    <t>4.4.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Salt</t>
+  </si>
+  <si>
+    <t>Processes related to salt in sea ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>4.4.1.1 *</t>
+  </si>
+  <si>
+    <t>Has Multiple Sea Ice Salinities</t>
+  </si>
+  <si>
+    <t>Does the sea ice model use two different salinities: one for
+            thermodynamic calculations; and one for the salt budget?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.has_multiple_sea_ice_salinities</t>
+  </si>
+  <si>
+    <t>4.4.1.2 *</t>
+  </si>
+  <si>
+    <t>Sea Ice Salinity Thermal Impacts</t>
+  </si>
+  <si>
+    <t>Does sea ice salinity impact the thermal properties of sea ice?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.sea_ice_salinity_thermal_impacts</t>
+  </si>
+  <si>
+    <t>4.4.2</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Salt --&gt; Mass Transport</t>
+  </si>
+  <si>
+    <t>Mass transport of salt.</t>
+  </si>
+  <si>
+    <t>4.4.2.1 *</t>
+  </si>
+  <si>
+    <t>Salinity Type</t>
+  </si>
+  <si>
+    <t>How is salinity determined in the mass transport of salt calculation?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
+  </si>
+  <si>
+    <t>Prescribed salinity profile</t>
+  </si>
+  <si>
+    <t>Prognostic salinity profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.2.2 </t>
+  </si>
+  <si>
+    <t>Constant Salinity Value</t>
+  </si>
+  <si>
+    <t>If using a constant salinity value specify this value in PSU?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.mass_transport.constant_salinity_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.2.3 </t>
+  </si>
+  <si>
+    <t>Describe the salinity profile used.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.mass_transport.additional_details</t>
+  </si>
+  <si>
+    <t>4.4.3</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Salt --&gt; Thermodynamics</t>
+  </si>
+  <si>
+    <t>Salt thermodynamics</t>
+  </si>
+  <si>
+    <t>4.4.3.1 *</t>
+  </si>
+  <si>
+    <t>How is salinity determined in the thermodynamic calculation?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.salinity_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.3.2 </t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.constant_salinity_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.3.3 </t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.additional_details</t>
+  </si>
+  <si>
+    <t>4.5.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Ice Thickness Distribution</t>
+  </si>
+  <si>
+    <t>Ice thickness distribution details.</t>
+  </si>
+  <si>
+    <t>4.5.1.1 *</t>
+  </si>
+  <si>
+    <t>Representation</t>
+  </si>
+  <si>
+    <t>How is the sea ice thickness distribution represented?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.ice_thickness_distribution.representation</t>
+  </si>
+  <si>
+    <t>Explicit</t>
+  </si>
+  <si>
+    <t>Virtual (enhancement of thermal conductivity, thin ice melting)</t>
+  </si>
+  <si>
+    <t>4.6.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Ice Floe Size Distribution</t>
+  </si>
+  <si>
+    <t>Ice floe-size distribution details.</t>
+  </si>
+  <si>
+    <t>4.6.1.1 *</t>
+  </si>
+  <si>
+    <t>How is the sea ice floe-size represented?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.representation</t>
+  </si>
+  <si>
+    <t>Parameterised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6.1.2 </t>
+  </si>
+  <si>
+    <t>Provide further details on any parameterisation of floe-size.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.additional_details</t>
+  </si>
+  <si>
+    <t>4.7.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Melt Ponds</t>
+  </si>
+  <si>
+    <t>Characteristics of melt ponds.</t>
+  </si>
+  <si>
+    <t>4.7.1.1 *</t>
+  </si>
+  <si>
+    <t>Are Included</t>
+  </si>
+  <si>
+    <t>Are melt ponds included in the sea ice model?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.melt_ponds.are_included</t>
+  </si>
+  <si>
+    <t>4.7.1.2 *</t>
+  </si>
+  <si>
+    <t>Formulation</t>
+  </si>
+  <si>
+    <t>What method of melt pond formulation is used?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.melt_ponds.formulation</t>
+  </si>
+  <si>
+    <t>Other: no</t>
+  </si>
+  <si>
+    <t>Flocco and Feltham (2010)</t>
+  </si>
+  <si>
+    <t>Level-ice melt ponds</t>
+  </si>
+  <si>
+    <t>4.7.1.3 *</t>
+  </si>
+  <si>
+    <t>Impacts</t>
+  </si>
+  <si>
+    <t>What do melt ponds have an impact on?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.melt_ponds.impacts</t>
+  </si>
+  <si>
+    <t>Albedo</t>
+  </si>
+  <si>
+    <t>Freshwater</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>4.8.1</t>
+  </si>
+  <si>
+    <t>Thermodynamics --&gt; Snow Processes</t>
+  </si>
+  <si>
+    <t>Thermodynamic processes in snow on sea ice</t>
+  </si>
+  <si>
+    <t>4.8.1.1 *</t>
+  </si>
+  <si>
+    <t>Has Snow Aging</t>
+  </si>
+  <si>
+    <t>Set to True if the sea ice model has a snow aging scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_aging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8.1.2 </t>
+  </si>
+  <si>
+    <t>Snow Aging Scheme</t>
+  </si>
+  <si>
+    <t>Describe the snow aging scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.snow_aging_scheme</t>
+  </si>
+  <si>
+    <t>4.8.1.3 *</t>
+  </si>
+  <si>
+    <t>Has Snow Ice Formation</t>
+  </si>
+  <si>
+    <t>Set to True if the sea ice model has snow ice formation.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_ice_formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8.1.4 </t>
+  </si>
+  <si>
+    <t>Snow Ice Formation Scheme</t>
+  </si>
+  <si>
+    <t>Describe the snow ice formation scheme.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.snow_ice_formation_scheme</t>
+  </si>
+  <si>
+    <t>4.8.1.5 *</t>
+  </si>
+  <si>
+    <t>What is the impact of ridging on snow cover?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
+  </si>
+  <si>
+    <t>Snow-ice</t>
+  </si>
+  <si>
+    <t>4.8.1.6 *</t>
+  </si>
+  <si>
+    <t>What is the heat diffusion through snow methodology in sea ice thermodynamics?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.thermodynamics.snow_processes.heat_diffusion</t>
+  </si>
+  <si>
+    <t>Single-layered heat diffusion</t>
+  </si>
+  <si>
+    <t>Multi-layered heat diffusion</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>Radiative Processes</t>
+  </si>
+  <si>
+    <t>Sea Ice Radiative Processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the radiative processes in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.radiative_processes.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of sea ice radiative processes in seaice model.</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.radiative_processes.overview</t>
+  </si>
+  <si>
+    <t>5.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Surface Albedo</t>
+  </si>
+  <si>
+    <t>Method used to handle surface albedo?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.radiative_processes.surface_albedo</t>
+  </si>
+  <si>
+    <t>Other: 0.85-0.95 for visible, 0.65-0.8 for near infrared, depends on temperature</t>
+  </si>
+  <si>
+    <t>Delta-Eddington</t>
+  </si>
+  <si>
+    <t>Parameterized</t>
+  </si>
+  <si>
+    <t>Multi-band albedo</t>
+  </si>
+  <si>
+    <t>5.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Ice Radiation Transmission</t>
+  </si>
+  <si>
+    <t>Method by which solar radiation through sea ice is handled?</t>
+  </si>
+  <si>
+    <t>cmip6.seaice.radiative_processes.ice_radiation_transmission</t>
+  </si>
+  <si>
+    <t>Exponential attenuation</t>
+  </si>
+  <si>
+    <t>Ice radiation transmission per category</t>
+  </si>
+  <si>
     <t>COCO4.9</t>
-  </si>
-  <si>
-    <t>1.1.1.2 *</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Keywords associated with seaice model code</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.keywords</t>
-  </si>
-  <si>
-    <t>NOTE: Please enter a comma seperated list</t>
-  </si>
-  <si>
-    <t>Subgrid-scale thickness distribution, 1-layer thermodynamics, EVP rheology</t>
-  </si>
-  <si>
-    <t>1.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>Overview of seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.overview</t>
-  </si>
-  <si>
-    <t>NOTE: Double click to expand if text is too long for cell</t>
-  </si>
-  <si>
-    <t>COCO is an ice-ocean coupled model which can be used as a stand-alone model or an ice-ocean component of MIROC. It has been developed in Atmosphere and Ocean Research Institute (AORI), The University of Tokyo, and Japan Agency for Marine-Earth Science and Technology (JAMSTEC).  The sea-ice part of COCO employs subgrid-scale thickness distribution, 1-layer thermodynamics, and EVP rheology.</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Variables</t>
-  </si>
-  <si>
-    <t>List of prognostic variable in the sea ice model.</t>
-  </si>
-  <si>
-    <t>1.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Prognostic</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>Select all prognostic variables in the sea ice component.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.variables.prognostic</t>
-  </si>
-  <si>
-    <t>Sea ice concentration</t>
-  </si>
-  <si>
-    <t>Sea ice temperature</t>
-  </si>
-  <si>
-    <t>Sea ice thickness</t>
-  </si>
-  <si>
-    <t>Sea ice volume per grid cell area</t>
-  </si>
-  <si>
-    <t>Sea ice u-velocity</t>
-  </si>
-  <si>
-    <t>Sea ice v-velocity</t>
-  </si>
-  <si>
-    <t>Sea ice enthalpy</t>
-  </si>
-  <si>
-    <t>Internal ice stress</t>
-  </si>
-  <si>
-    <t>Salinity</t>
-  </si>
-  <si>
-    <t>Snow temperature: Snow on ice temperature</t>
-  </si>
-  <si>
-    <t>Snow depth: Snow on ice thickness</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Seawater Properties</t>
-  </si>
-  <si>
-    <t>Properties of seawater relevant to sea ice</t>
-  </si>
-  <si>
-    <t>1.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Ocean Freezing Point</t>
-  </si>
-  <si>
-    <t>What is the equation used to compute the freezing point (in deg C) of seawater, as a function of salinity and pressure?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
-  </si>
-  <si>
-    <t>Constant: Constant value of seawater freezing point is used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1.2 </t>
-  </si>
-  <si>
-    <t>Ocean Freezing Point Value</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>If using a constant seawater freezing point, specify this value.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point_value</t>
-  </si>
-  <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Resolution</t>
-  </si>
-  <si>
-    <t>Resolution of the sea ice grid</t>
-  </si>
-  <si>
-    <t>1.4.1.1 *</t>
-  </si>
-  <si>
-    <t>This is a string usually used by the modelling group to describe the resolution of this grid e.g. N512L180, T512L70, ORCA025 etc.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.resolution.name</t>
-  </si>
-  <si>
-    <t>COCO medium resolution model</t>
-  </si>
-  <si>
-    <t>1.4.1.2 *</t>
-  </si>
-  <si>
-    <t>Canonical Horizontal Resolution</t>
-  </si>
-  <si>
-    <t>Expression quoted for gross comparisons of resolution, eg. 50km or 0.1 degrees etc.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.resolution.canonical_horizontal_resolution</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>T_frz [C] = -0.0543 * Salinity</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>1 degree</t>
-  </si>
-  <si>
-    <t>1.4.1.3 *</t>
-  </si>
-  <si>
-    <t>Number Of Horizontal Gridpoints</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>What are the total number of horizontal (XY) points (or degrees of freedom) on computational grid?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.resolution.number_of_horizontal_gridpoints</t>
-  </si>
-  <si>
-    <t>1.5.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Tuning Applied</t>
-  </si>
-  <si>
-    <t>Tuning applied to sea ice model component</t>
-  </si>
-  <si>
-    <t>1.5.1.1 *</t>
-  </si>
-  <si>
-    <t>Description</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Provide a general overview description of tuning: explain and motivate 
@@ -370,1355 +1662,118 @@
             possible conflicts with parameterization level tuning. In particular describe 
             any struggle with a parameter value that required pushing it to its limits to 
             solve a particular model deficiency.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.tuning_applied.description</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Our primary target of tuning to retain reasonable sea-ice extent in each hemisphere and realistic horizontal distribution of sea-ice concentration/thickness. Climate performance metrics generally take priority. Note that most of the parameters in other submodels are tuned mainly for improving global climate processes rather than sea-ice states.  Sea-ice and snow on the ice have quite a high albedo to enhance the reproducibility with the other submodels' setting.</t>
-  </si>
-  <si>
-    <t>1.5.1.2 *</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>What was the aim of tuning, e.g. correct sea ice minima, correct seasonal cycle?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.tuning_applied.target</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>sea ice minima in NH, sea ice maxima in SH, and reasonable horizontal distibution</t>
-  </si>
-  <si>
-    <t>1.5.1.3 *</t>
-  </si>
-  <si>
-    <t>Simulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which simulations had tuning applied, e.g. all, not historical, only pi-control? </t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.tuning_applied.simulations</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>pi-control only</t>
-  </si>
-  <si>
-    <t>1.5.1.4 *</t>
-  </si>
-  <si>
-    <t>Metrics Used</t>
-  </si>
-  <si>
-    <t>List any observed metrics used in tuning model/parameters</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.tuning_applied.metrics_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5.1.5 </t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Which (if any) variables were changed during the tuning process?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.tuning_applied.variables</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>albedo-related paramters</t>
-  </si>
-  <si>
-    <t>1.6.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Key Parameter Values</t>
-  </si>
-  <si>
-    <t>Values of key parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.1 </t>
-  </si>
-  <si>
-    <t>Ice Strength</t>
-  </si>
-  <si>
-    <t>Ice strength (P*) in units of N m{-2}</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.key_parameter_values.ice_strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.2 </t>
-  </si>
-  <si>
-    <t>Snow Conductivity</t>
-  </si>
-  <si>
-    <t>Snow conductivity (ks) in units of W m{-1} K{-1}</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.key_parameter_values.snow_conductivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.3 </t>
-  </si>
-  <si>
-    <t>Ice Thickness In Leads</t>
-  </si>
-  <si>
-    <t>Minimum thickness of ice created in leads (h0) in units of m</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.key_parameter_values.ice_thickness_in_leads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.4 </t>
-  </si>
-  <si>
-    <t>Additional Parameters</t>
-  </si>
-  <si>
-    <t>If you have any additional paramterised values that you have used (e.g. minimum open water 
-         fraction or bare ice albedo), please provide them here as a comma separated list in the form 
-         {parameter1}: {value1}, {parameter2}: {value2}, etc.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.key_parameter_values.additional_parameters</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>maximum concentration in a specific grid: 0.99</t>
-  </si>
-  <si>
-    <t>1.7.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Assumptions</t>
-  </si>
-  <si>
-    <t>Assumptions made in the sea ice model</t>
-  </si>
-  <si>
-    <t>1.7.1.1 *</t>
-  </si>
-  <si>
-    <t>Provide a general overview description of any *key* assumptions made in this model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.assumptions.description</t>
-  </si>
-  <si>
-    <t>Ice thinner than minimum thickness, 0.3 m, is not allowed to exist. Snow area fraction over sea ice is not explicitly handled; instead, albedo dependency on skin temperature and snow thickness implicitly includes the effect of snow area fraction change.</t>
-  </si>
-  <si>
-    <t>1.7.1.2 *</t>
-  </si>
-  <si>
-    <t>On Diagnostic Variables</t>
-  </si>
-  <si>
-    <t>Note any assumptions that specifically affect the CMIP6 diagnostic sea ice variables.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.assumptions.on_diagnostic_variables</t>
-  </si>
-  <si>
-    <t>Some of variables such as snow area fraction is not defined</t>
-  </si>
-  <si>
-    <t>1.7.1.3 *</t>
-  </si>
-  <si>
-    <t>Missing Processes</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>List any *key* processes missing in this model configuration? Provide full details 
              where this affects the CMIP6 diagnostic sea ice variables?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.assumptions.missing_processes</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Ice thinner than minimum thickness, 0.3 m, is not allowed to exist. Snow area fraction over sea ice is not explicitly handled; instead, albedo dependency on skin temperature and snow thickness implicitly includes the effect of snow area fraction change.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Some of variables such as snow area fraction is not defined</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Melt pond is not represented. Rainfall as a form of water directly falls into the ocean and does not interact with the sea-ice component.</t>
-  </si>
-  <si>
-    <t>1.8.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation</t>
-  </si>
-  <si>
-    <t>Conservation in the sea ice component</t>
-  </si>
-  <si>
-    <t>1.8.1.1 *</t>
-  </si>
-  <si>
-    <t>Provide a general description of conservation methodology.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.conservation.description</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Mass, sea-ice mass per area, snow mass per area. Salt, sea-ice mass per area.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>One-Layer</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The governing equation follows Thorndike et al. (1975). Its discritizaion as well as the evaluation of mechanical redistribution term follows Bitz et al. (2001).</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Snow area fraction is not explicitly handled; instead, albedo dependency on skin temperature and snow thickness implicitly includes the effect of snow area fraction change.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Precipitation as a form of water directly falls into the ocean and does not interact with the sea-ice component.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>From open water</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Parameterized (ratio of basal melting:lateral melting prescribed)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Sublimation flux is diagnosed in the coupler to the atmospheric component.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve">New ice formation from open water implicitly includes frazil ice formation. </t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>When snow-ice interface comes below sea level, the snow between the interface and sea level turns into sea ice.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>absorbed at the top</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>COCO medium resolution model</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t xml:space="preserve">We have checked changes of the properties which should be conserved are in the range of numerical error by calculating the difference of these properties by using multiple snapshots of the modeled ocean. </t>
   </si>
   <si>
-    <t>1.8.1.2 *</t>
-  </si>
-  <si>
-    <t>Properties</t>
-  </si>
-  <si>
-    <t>Which properties conserved in sea ice by the numerical schemes?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.conservation.properties</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>1.8.1.3 *</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>For each conserved property, specify the output variables which close 
-           the related budgets. as a comma separated list. For example: 
-           Conserved property, variable1, variable2, variable3</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.conservation.budget</t>
-  </si>
-  <si>
-    <t>Mass, sea-ice mass per area, snow mass per area. Salt, sea-ice mass per area.</t>
-  </si>
-  <si>
-    <t>1.8.1.4 *</t>
-  </si>
-  <si>
-    <t>Was Flux Correction Used</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>Does conservation involved flux correction?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.conservation.was_flux_correction_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8.1.5 </t>
-  </si>
-  <si>
-    <t>Corrected Conserved Prognostic Variables</t>
-  </si>
-  <si>
-    <t>List any variables which are conserved by *more* than the numerical scheme alone 
-            (e.g. has correction applied).</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.key_properties.conservation.corrected_conserved_prognostic_variables</t>
-  </si>
-  <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>Grid</t>
-  </si>
-  <si>
-    <t>Sea Ice grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.1 </t>
-  </si>
-  <si>
-    <t>Name of grid in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of grid in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.overview</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>Grid --&gt; Discretisation --&gt; Horizontal</t>
-  </si>
-  <si>
-    <t>Sea ice discretisation in the horizontal</t>
-  </si>
-  <si>
-    <t>2.1.2.1 *</t>
-  </si>
-  <si>
-    <t>On which grid is the sea ice horizontal discretisation?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
-  </si>
-  <si>
-    <t>Ocean grid: Sea ice is horizontally discretised on the ocean grid.</t>
-  </si>
-  <si>
-    <t>Atmosphere Grid: Sea ice is horizontally discretised on the atmospheric grid.</t>
-  </si>
-  <si>
-    <t>Own Grid: Sea ice is horizontally discretised on its own independent grid.</t>
-  </si>
-  <si>
-    <t>2.1.2.2 *</t>
-  </si>
-  <si>
-    <t>Grid Type</t>
-  </si>
-  <si>
-    <t>What is the structure type of the sea ice grid?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.grid_type</t>
-  </si>
-  <si>
-    <t>Structured grid</t>
-  </si>
-  <si>
-    <t>Unstructured grid</t>
-  </si>
-  <si>
-    <t>Adaptive grid: Computational grid changes during the run</t>
-  </si>
-  <si>
-    <t>2.1.2.3 *</t>
-  </si>
-  <si>
-    <t>Scheme</t>
-  </si>
-  <si>
-    <t>What is the horizontal discretization (advection) scheme?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.scheme</t>
-  </si>
-  <si>
-    <t>Finite differences</t>
-  </si>
-  <si>
-    <t>Finite elements</t>
-  </si>
-  <si>
-    <t>Finite volumes</t>
-  </si>
-  <si>
-    <t>2.1.2.4 *</t>
-  </si>
-  <si>
-    <t>Thermodynamics Time Step</t>
-  </si>
-  <si>
-    <t>What is the time step in the sea ice model thermodynamic component in seconds.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.thermodynamics_time_step</t>
-  </si>
-  <si>
-    <t>2.1.2.5 *</t>
-  </si>
-  <si>
-    <t>Dynamics Time Step</t>
-  </si>
-  <si>
-    <t>What is the time step in the sea ice model dynamic component in seconds.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.dynamics_time_step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.2.6 </t>
-  </si>
-  <si>
-    <t>Additional Details</t>
-  </si>
-  <si>
-    <t>Specify any additional horizontal discretisation details.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.horizontal.additional_details</t>
-  </si>
-  <si>
-    <t>2.1.3</t>
-  </si>
-  <si>
-    <t>Grid --&gt; Discretisation --&gt; Vertical</t>
-  </si>
-  <si>
-    <t>Sea ice vertical properties</t>
-  </si>
-  <si>
-    <t>2.1.3.1 *</t>
-  </si>
-  <si>
-    <t>Layering</t>
-  </si>
-  <si>
-    <t>What type of sea ice vertical layers are implemented for purposes of thermodynamic calculations?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
-  </si>
-  <si>
-    <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
-  </si>
-  <si>
-    <t>Two-layers: Simulation uses two layers (i.e. one ice and one snow layer).</t>
-  </si>
-  <si>
-    <t>Multi-layers: Simulation uses more than two layers.</t>
-  </si>
-  <si>
-    <t>2.1.3.2 *</t>
-  </si>
-  <si>
-    <t>Number Of Layers</t>
-  </si>
-  <si>
-    <t>If using multi-layers specify how many.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.vertical.number_of_layers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.3.3 </t>
-  </si>
-  <si>
-    <t>Specify any additional vertical grid details.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.discretisation.vertical.additional_details</t>
-  </si>
-  <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
-    <t>Grid --&gt; Seaice Categories</t>
-  </si>
-  <si>
-    <t>What method is used to represent sea ice categories?</t>
-  </si>
-  <si>
-    <t>2.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Has Mulitple Categories</t>
-  </si>
-  <si>
-    <t>Set to true if the sea ice model has multiple sea ice categories.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.seaice_categories.has_mulitple_categories</t>
-  </si>
-  <si>
-    <t>2.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Number Of Categories</t>
-  </si>
-  <si>
-    <t>If using sea ice categories specify how many.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.seaice_categories.number_of_categories</t>
-  </si>
-  <si>
-    <t>2.2.1.3 *</t>
-  </si>
-  <si>
-    <t>Category Limits</t>
-  </si>
-  <si>
-    <t>If using sea ice categories specify each of the category limits.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.seaice_categories.category_limits</t>
+    <t>Subgrid-scale thickness distribution, 1-layer thermodynamics, EVP rheology</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>COCO is an ice-ocean coupled model which can be used as a stand-alone model or an ice-ocean component of MIROC. It has been developed in Atmosphere and Ocean Research Institute (AORI), The University of Tokyo, and Japan Agency for Marine-Earth Science and Technology (JAMSTEC).  The sea-ice part of COCO employs subgrid-scale thickness distribution, 1-layer thermodynamics, and EVP rheology.</t>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>0.3, 0.6, 1.0, 2.5, 5.0</t>
-  </si>
-  <si>
-    <t>2.2.1.4 *</t>
-  </si>
-  <si>
-    <t>Ice Thickness Distribution</t>
-  </si>
-  <si>
-    <t>Describe the sea ice thickness distribution.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.seaice_categories.ice_thickness_distribution</t>
-  </si>
-  <si>
-    <t>The governing equation follows Thorndike et al. (1975). Its discritizaion as well as the evaluation of mechanical redistribution term follows Bitz et al. (2001).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1.5 </t>
-  </si>
-  <si>
-    <t>If the sea ice model does not use sea ice categories specify any 
-            additional details. For example models that paramterise 
-            the ice thickness distribution ITD (i.e there is no explicit ITD) but 
-            there is assumed distribution and fluxes are computed accordingly.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.seaice_categories.other</t>
-  </si>
-  <si>
-    <t>2.3.1</t>
-  </si>
-  <si>
-    <t>Grid --&gt; Snow On Seaice</t>
-  </si>
-  <si>
-    <t>Snow on sea ice details</t>
-  </si>
-  <si>
-    <t>2.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Has Snow On Ice</t>
-  </si>
-  <si>
-    <t>Is snow on ice represented in this model?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.snow_on_seaice.has_snow_on_ice</t>
-  </si>
-  <si>
-    <t>2.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Number Of Snow Levels</t>
-  </si>
-  <si>
-    <t>Number of vertical levels of snow on ice?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.snow_on_seaice.number_of_snow_levels</t>
-  </si>
-  <si>
-    <t>2.3.1.3 *</t>
-  </si>
-  <si>
-    <t>Snow Fraction</t>
-  </si>
-  <si>
-    <t>Describe how the snow fraction on sea ice is determined.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.snow_on_seaice.snow_fraction</t>
-  </si>
-  <si>
-    <t>Snow area fraction is not explicitly handled; instead, albedo dependency on skin temperature and snow thickness implicitly includes the effect of snow area fraction change.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.1.4 </t>
-  </si>
-  <si>
-    <t>Specify any additional details related to snow on ice.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.grid.snow_on_seaice.additional_details</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>Dynamics</t>
-  </si>
-  <si>
-    <t>Sea Ice Dynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the dynamics in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of sea ice dynamics in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.overview</t>
-  </si>
-  <si>
-    <t>3.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Horizontal Transport</t>
-  </si>
-  <si>
-    <t>What is the method of horizontal advection of sea ice?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.horizontal_transport</t>
-  </si>
-  <si>
-    <t>Eulerian</t>
-  </si>
-  <si>
-    <t>Incremental Re-mapping: (including Semi-Lagrangian)</t>
-  </si>
-  <si>
-    <t>Prather</t>
-  </si>
-  <si>
-    <t>3.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Transport In Thickness Space</t>
-  </si>
-  <si>
-    <t>What is the method of sea ice transport in thickness space (i.e. in thickness categories)?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.transport_in_thickness_space</t>
-  </si>
-  <si>
-    <t>3.1.1.5 *</t>
-  </si>
-  <si>
-    <t>Ice Strength Formulation</t>
-  </si>
-  <si>
-    <t>Which method of sea ice strength formulation is used?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.ice_strength_formulation</t>
-  </si>
-  <si>
-    <t>Hibler 1979</t>
-  </si>
-  <si>
-    <t>Rothrock 1975</t>
-  </si>
-  <si>
-    <t>3.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Redistribution</t>
-  </si>
-  <si>
-    <t>Which processes can redistribute sea ice (including thickness)?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.redistribution</t>
-  </si>
-  <si>
-    <t>Ridging</t>
-  </si>
-  <si>
-    <t>Rafting</t>
-  </si>
-  <si>
-    <t>3.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Rheology</t>
-  </si>
-  <si>
-    <t>Rheology, what is the ice deformation formulation?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.dynamics.rheology</t>
-  </si>
-  <si>
-    <t>Free-drift</t>
-  </si>
-  <si>
-    <t>Mohr-Coloumb</t>
-  </si>
-  <si>
-    <t>Visco-plastic: VP</t>
-  </si>
-  <si>
-    <t>Elastic-visco-plastic: EVP</t>
-  </si>
-  <si>
-    <t>Elastic-anisotropic-plastic</t>
-  </si>
-  <si>
-    <t>Granular</t>
-  </si>
-  <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics</t>
-  </si>
-  <si>
-    <t>Sea Ice Thermodynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the thermodynamics in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of sea ice thermodynamics in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.overview</t>
-  </si>
-  <si>
-    <t>4.2.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Energy</t>
-  </si>
-  <si>
-    <t>Processes related to energy in sea ice thermodynamics.</t>
-  </si>
-  <si>
-    <t>4.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Enthalpy Formulation</t>
-  </si>
-  <si>
-    <t>What is the energy formulation?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.enthalpy_formulation</t>
-  </si>
-  <si>
-    <t>Pure ice latent and sensible heat + explicit brine inclusions (Bitz and Lipscomb)</t>
-  </si>
-  <si>
-    <t>Pure ice latent heat (Semtner 0-layer)</t>
-  </si>
-  <si>
-    <t>Pure ice latent and sensible heat</t>
-  </si>
-  <si>
-    <t>Pure ice latent and sensible heat + brine heat reservoir (Semtner 3-layer)</t>
-  </si>
-  <si>
-    <t>4.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Thermal Conductivity</t>
-  </si>
-  <si>
-    <t>What type of thermal conductivity is used?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.thermal_conductivity</t>
-  </si>
-  <si>
-    <t>Pure ice</t>
-  </si>
-  <si>
-    <t>Saline ice</t>
-  </si>
-  <si>
-    <t>4.2.1.3 *</t>
-  </si>
-  <si>
-    <t>Heat Diffusion</t>
-  </si>
-  <si>
-    <t>What is the method of heat diffusion?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.heat_diffusion</t>
-  </si>
-  <si>
-    <t>Conduction fluxes</t>
-  </si>
-  <si>
-    <t>Conduction and radiation heat fluxes</t>
-  </si>
-  <si>
-    <t>Conduction, radiation and latent heat transport</t>
-  </si>
-  <si>
-    <t>4.2.1.4 *</t>
-  </si>
-  <si>
-    <t>Basal Heat Flux</t>
-  </si>
-  <si>
-    <t>Method by which basal ocean heat flux is handled?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
-  </si>
-  <si>
-    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
-  </si>
-  <si>
-    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
-  </si>
-  <si>
-    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.5 </t>
-  </si>
-  <si>
-    <t>Fixed Salinity Value</t>
-  </si>
-  <si>
-    <t>If you have selected {Thermal properties depend on S-T (with fixed salinity)},
-             supply fixed salinity value for each sea ice layer.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.fixed_salinity_value</t>
-  </si>
-  <si>
-    <t>4.2.1.6 *</t>
-  </si>
-  <si>
-    <t>Heat Content Of Precipitation</t>
-  </si>
-  <si>
-    <t>Describe the method by which the heat content of precipitation is handled.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.heat_content_of_precipitation</t>
-  </si>
-  <si>
-    <t>Precipitation as a form of water directly falls into the ocean and does not interact with the sea-ice component.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.7 </t>
-  </si>
-  <si>
-    <t>Precipitation Effects On Salinity</t>
-  </si>
-  <si>
-    <t>If precipitation (freshwater) that falls on sea ice affects the ocean surface
-             salinity please provide further details.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.energy.precipitation_effects_on_salinity</t>
-  </si>
-  <si>
-    <t>4.3.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Mass</t>
-  </si>
-  <si>
-    <t>Processes related to mass in sea ice thermodynamics.</t>
-  </si>
-  <si>
-    <t>4.3.1.1 *</t>
-  </si>
-  <si>
-    <t>New Ice Formation</t>
-  </si>
-  <si>
-    <t>Describe the method by which new sea ice is formed in open water.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.mass.new_ice_formation</t>
-  </si>
-  <si>
-    <t>From open water</t>
-  </si>
-  <si>
-    <t>4.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Ice Vertical Growth And Melt</t>
-  </si>
-  <si>
-    <t>Describe the method that governs the vertical growth and melt of sea ice.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.mass.ice_vertical_growth_and_melt</t>
-  </si>
-  <si>
-    <t>From open water, bottom, and lateral</t>
-  </si>
-  <si>
-    <t>4.3.1.3 *</t>
-  </si>
-  <si>
-    <t>Ice Lateral Melting</t>
-  </si>
-  <si>
-    <t>What is the method of sea ice lateral melting?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.mass.ice_lateral_melting</t>
-  </si>
-  <si>
-    <t>Floe-size dependent (Bitz et al 2001)</t>
-  </si>
-  <si>
-    <t>Virtual thin ice melting (for single-category)</t>
-  </si>
-  <si>
-    <t>4.3.1.4 *</t>
-  </si>
-  <si>
-    <t>Ice Surface Sublimation</t>
-  </si>
-  <si>
-    <t>Describe the method that governs sea ice surface sublimation.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.mass.ice_surface_sublimation</t>
-  </si>
-  <si>
-    <t>Sublimation flux is diagnosed in the coupler to the atmospheric component.</t>
-  </si>
-  <si>
-    <t>4.3.1.5 *</t>
-  </si>
-  <si>
-    <t>Frazil Ice</t>
-  </si>
-  <si>
-    <t>Describe the method of frazil ice formation.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.mass.frazil_ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New ice formation from open water implicitly includes frazil ice formation. </t>
-  </si>
-  <si>
-    <t>4.4.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Salt</t>
-  </si>
-  <si>
-    <t>Processes related to salt in sea ice thermodynamics.</t>
-  </si>
-  <si>
-    <t>4.4.1.1 *</t>
-  </si>
-  <si>
-    <t>Has Multiple Sea Ice Salinities</t>
-  </si>
-  <si>
-    <t>Does the sea ice model use two different salinities: one for
-            thermodynamic calculations; and one for the salt budget?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.has_multiple_sea_ice_salinities</t>
-  </si>
-  <si>
-    <t>4.4.1.2 *</t>
-  </si>
-  <si>
-    <t>Sea Ice Salinity Thermal Impacts</t>
-  </si>
-  <si>
-    <t>Does sea ice salinity impact the thermal properties of sea ice?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.sea_ice_salinity_thermal_impacts</t>
-  </si>
-  <si>
-    <t>4.4.2</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Salt --&gt; Mass Transport</t>
-  </si>
-  <si>
-    <t>Mass transport of salt.</t>
-  </si>
-  <si>
-    <t>4.4.2.1 *</t>
-  </si>
-  <si>
-    <t>Salinity Type</t>
-  </si>
-  <si>
-    <t>How is salinity determined in the mass transport of salt calculation?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Prescribed salinity profile</t>
-  </si>
-  <si>
-    <t>Prognostic salinity profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.2.2 </t>
-  </si>
-  <si>
-    <t>Constant Salinity Value</t>
-  </si>
-  <si>
-    <t>If using a constant salinity value specify this value in PSU?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.mass_transport.constant_salinity_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.2.3 </t>
-  </si>
-  <si>
-    <t>Describe the salinity profile used.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.mass_transport.additional_details</t>
-  </si>
-  <si>
-    <t>4.4.3</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Salt --&gt; Thermodynamics</t>
-  </si>
-  <si>
-    <t>Salt thermodynamics</t>
-  </si>
-  <si>
-    <t>4.4.3.1 *</t>
-  </si>
-  <si>
-    <t>How is salinity determined in the thermodynamic calculation?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.salinity_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.3.2 </t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.constant_salinity_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.3.3 </t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.salt.thermodynamics.additional_details</t>
-  </si>
-  <si>
-    <t>4.5.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Ice Thickness Distribution</t>
-  </si>
-  <si>
-    <t>Ice thickness distribution details.</t>
-  </si>
-  <si>
-    <t>4.5.1.1 *</t>
-  </si>
-  <si>
-    <t>Representation</t>
-  </si>
-  <si>
-    <t>How is the sea ice thickness distribution represented?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.ice_thickness_distribution.representation</t>
-  </si>
-  <si>
-    <t>Explicit</t>
-  </si>
-  <si>
-    <t>Virtual (enhancement of thermal conductivity, thin ice melting)</t>
-  </si>
-  <si>
-    <t>4.6.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Ice Floe Size Distribution</t>
-  </si>
-  <si>
-    <t>Ice floe-size distribution details.</t>
-  </si>
-  <si>
-    <t>4.6.1.1 *</t>
-  </si>
-  <si>
-    <t>How is the sea ice floe-size represented?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.representation</t>
-  </si>
-  <si>
-    <t>Parameterised</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6.1.2 </t>
-  </si>
-  <si>
-    <t>Provide further details on any parameterisation of floe-size.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.additional_details</t>
-  </si>
-  <si>
-    <t>4.7.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Melt Ponds</t>
-  </si>
-  <si>
-    <t>Characteristics of melt ponds.</t>
-  </si>
-  <si>
-    <t>4.7.1.1 *</t>
-  </si>
-  <si>
-    <t>Are Included</t>
-  </si>
-  <si>
-    <t>Are melt ponds included in the sea ice model?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.melt_ponds.are_included</t>
-  </si>
-  <si>
-    <t>4.7.1.2 *</t>
-  </si>
-  <si>
-    <t>Formulation</t>
-  </si>
-  <si>
-    <t>What method of melt pond formulation is used?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.melt_ponds.formulation</t>
-  </si>
-  <si>
-    <t>Flocco and Feltham (2010)</t>
-  </si>
-  <si>
-    <t>Level-ice melt ponds</t>
-  </si>
-  <si>
-    <t>4.7.1.3 *</t>
-  </si>
-  <si>
-    <t>Impacts</t>
-  </si>
-  <si>
-    <t>What do melt ponds have an impact on?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.melt_ponds.impacts</t>
-  </si>
-  <si>
-    <t>Albedo</t>
-  </si>
-  <si>
-    <t>Freshwater</t>
-  </si>
-  <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>4.8.1</t>
-  </si>
-  <si>
-    <t>Thermodynamics --&gt; Snow Processes</t>
-  </si>
-  <si>
-    <t>Thermodynamic processes in snow on sea ice</t>
-  </si>
-  <si>
-    <t>4.8.1.1 *</t>
-  </si>
-  <si>
-    <t>Has Snow Aging</t>
-  </si>
-  <si>
-    <t>Set to True if the sea ice model has a snow aging scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_aging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8.1.2 </t>
-  </si>
-  <si>
-    <t>Snow Aging Scheme</t>
-  </si>
-  <si>
-    <t>Describe the snow aging scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.snow_aging_scheme</t>
-  </si>
-  <si>
-    <t>4.8.1.3 *</t>
-  </si>
-  <si>
-    <t>Has Snow Ice Formation</t>
-  </si>
-  <si>
-    <t>Set to True if the sea ice model has snow ice formation.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_ice_formation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8.1.4 </t>
-  </si>
-  <si>
-    <t>Snow Ice Formation Scheme</t>
-  </si>
-  <si>
-    <t>Describe the snow ice formation scheme.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.snow_ice_formation_scheme</t>
-  </si>
-  <si>
-    <t>When snow-ice interface comes below sea level, the snow between the interface and sea level turns into sea ice.</t>
-  </si>
-  <si>
-    <t>4.8.1.5 *</t>
-  </si>
-  <si>
-    <t>What is the impact of ridging on snow cover?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
-  </si>
-  <si>
-    <t>Snow-ice</t>
-  </si>
-  <si>
-    <t>4.8.1.6 *</t>
-  </si>
-  <si>
-    <t>What is the heat diffusion through snow methodology in sea ice thermodynamics?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.thermodynamics.snow_processes.heat_diffusion</t>
-  </si>
-  <si>
-    <t>Single-layered heat diffusion</t>
-  </si>
-  <si>
-    <t>Multi-layered heat diffusion</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
-    <t>Radiative Processes</t>
-  </si>
-  <si>
-    <t>Sea Ice Radiative Processes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the radiative processes in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.radiative_processes.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of sea ice radiative processes in seaice model.</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.radiative_processes.overview</t>
-  </si>
-  <si>
-    <t>5.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Surface Albedo</t>
-  </si>
-  <si>
-    <t>Method used to handle surface albedo?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.radiative_processes.surface_albedo</t>
-  </si>
-  <si>
-    <t>Delta-Eddington</t>
-  </si>
-  <si>
-    <t>Parameterized: Sea ice albedo is parameterized.</t>
-  </si>
-  <si>
-    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
-  </si>
-  <si>
-    <t>5.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Ice Radiation Transmission</t>
-  </si>
-  <si>
-    <t>Method by which solar radiation through sea ice is handled?</t>
-  </si>
-  <si>
-    <t>cmip6.seaice.radiative_processes.ice_radiation_transmission</t>
-  </si>
-  <si>
-    <t>Exponential attenuation</t>
-  </si>
-  <si>
-    <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
+    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1815,8 +1870,15 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1847,6 +1909,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1860,7 +1928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1904,17 +1972,34 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1956,7 +2041,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1988,9 +2073,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2022,6 +2125,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2197,24 +2318,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7265625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="32.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2222,7 +2345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,7 +2353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2238,7 +2361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2246,7 +2369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2254,27 +2377,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="17.5">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2282,7 +2405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="17.5">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2290,7 +2413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="17.5">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2298,7 +2421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="17.5">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2306,41 +2429,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="20">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="20">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.7265625" customWidth="1"/>
+    <col min="2" max="2" width="40.7265625" customWidth="1"/>
+    <col min="3" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -2351,7 +2475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -2375,11 +2499,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="17.5">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -2403,39 +2527,42 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="17.5">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Dynamics,Thermodynamics,Radiative Processes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AL156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="150.7265625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2472,15 +2599,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2488,28 +2615,28 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>50</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2517,52 +2644,52 @@
         <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>56</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
@@ -2572,354 +2699,357 @@
     </row>
     <row r="25" spans="1:38" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA25" s="6" t="s">
+      <c r="AE25" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AB25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AF25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AG25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AH25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AI25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AG25" s="6" t="s">
+      <c r="AJ25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AH25" s="6" t="s">
+      <c r="AK25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AI25" s="6" t="s">
+      <c r="AL25" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK25" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL25" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AA26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD26" s="6" t="s">
+      <c r="AG26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AE26" s="6" t="s">
+      <c r="AH26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AF26" s="6" t="s">
+      <c r="AI26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AG26" s="6" t="s">
+      <c r="AJ26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AH26" s="6" t="s">
+      <c r="AK26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AI26" s="6" t="s">
+      <c r="AL26" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL26" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AA27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF27" s="6" t="s">
+      <c r="AI27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AG27" s="6" t="s">
+      <c r="AJ27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AH27" s="6" t="s">
+      <c r="AK27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AI27" s="6" t="s">
+      <c r="AL27" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL27" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AA28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG28" s="6" t="s">
+      <c r="AJ28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AH28" s="6" t="s">
+      <c r="AK28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AI28" s="6" t="s">
+      <c r="AL28" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL28" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH29" s="6" t="s">
+      <c r="AK29" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AI29" s="6" t="s">
+      <c r="AL29" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL29" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AA30" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI30" s="6" t="s">
+      <c r="AL30" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ30" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL30" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AA31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE31" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AB31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC31" s="6" t="s">
+      <c r="AF31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AD31" s="6" t="s">
+      <c r="AG31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AE31" s="6" t="s">
+      <c r="AH31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AF31" s="6" t="s">
+      <c r="AI31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AG31" s="6" t="s">
+      <c r="AJ31" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AH31" s="6" t="s">
+      <c r="AK31" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AI31" s="6" t="s">
+      <c r="AL31" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL31" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>536</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -2927,22 +3057,22 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2951,23 +3081,23 @@
         <v>41</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>98</v>
+        <v>559</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -2975,34 +3105,34 @@
         <v>41</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>103</v>
+        <v>537</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -3012,52 +3142,52 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>114</v>
+      <c r="B66" s="15" t="s">
+        <v>538</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>116</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3065,23 +3195,23 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="11" t="s">
-        <v>121</v>
+        <v>540</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
@@ -3089,28 +3219,28 @@
         <v>41</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="B76" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="11" t="s">
-        <v>126</v>
+        <v>541</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
@@ -3118,15 +3248,15 @@
         <v>41</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="B81" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -3134,10 +3264,10 @@
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
@@ -3145,76 +3275,76 @@
         <v>41</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="11" t="s">
-        <v>135</v>
+        <v>542</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="A90" s="12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="B91" s="13" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="11">
+      <c r="B95" s="16">
         <v>20000</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="A98" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -3224,21 +3354,21 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -3248,10 +3378,10 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -3259,41 +3389,41 @@
         <v>41</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="B107" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="11" t="s">
-        <v>155</v>
+        <v>543</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="12" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="B112" s="13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -3301,28 +3431,28 @@
         <v>41</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="B116" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="178" customHeight="1">
       <c r="B117" s="11" t="s">
-        <v>162</v>
+        <v>545</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -3330,70 +3460,70 @@
         <v>41</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="B122" s="11" t="s">
-        <v>167</v>
+        <v>546</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>170</v>
+      <c r="B125" s="15" t="s">
+        <v>544</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="11" t="s">
-        <v>172</v>
+        <v>547</v>
       </c>
     </row>
     <row r="130" spans="1:30" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:30" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:30" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>113</v>
+        <v>160</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:30" ht="24" customHeight="1">
@@ -3401,39 +3531,39 @@
         <v>41</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:30" ht="24" customHeight="1">
       <c r="B135" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="136" spans="1:30" ht="178" customHeight="1">
       <c r="B136" s="11" t="s">
-        <v>179</v>
+        <v>560</v>
       </c>
     </row>
     <row r="138" spans="1:30" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:30" ht="24" customHeight="1">
       <c r="A139" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:30" ht="24" customHeight="1">
@@ -3443,44 +3573,44 @@
     </row>
     <row r="141" spans="1:30" ht="24" customHeight="1">
       <c r="B141" s="11" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="AA141" s="6" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="AB141" s="6" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="AC141" s="6" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="AD141" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="1:30" ht="24" customHeight="1">
       <c r="B142" s="11" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="AA142" s="6" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="AB142" s="6" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="AC142" s="6" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="AD142" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="1:30" ht="24" customHeight="1">
       <c r="A144" s="9" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
@@ -3488,39 +3618,39 @@
         <v>41</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="B146" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="B147" s="11" t="s">
-        <v>191</v>
+        <v>548</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="A149" s="9" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
       <c r="A150" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
@@ -3530,10 +3660,10 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="9" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
@@ -3541,72 +3671,40 @@
         <v>41</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
       <c r="B155" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="B156" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="16">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B31" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>AA25:AL25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>AA26:AL26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AL27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AL28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>AA29:AL29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AL30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AL31</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>AA39:AC39</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 B103 B99 B95" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B103">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141:B142" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>AA141:AD141</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
-      <formula1>AA142:AD142</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3615,35 +3713,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="150.7265625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -3654,10 +3754,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3665,10 +3765,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3676,15 +3776,15 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3692,142 +3792,142 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -3837,21 +3937,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>238</v>
+        <v>219</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3861,10 +3961,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3872,15 +3972,15 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="178" customHeight="1">
@@ -3888,34 +3988,34 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -3925,38 +4025,41 @@
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>549</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
@@ -3966,10 +4069,10 @@
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
@@ -3977,15 +4080,15 @@
         <v>41</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="B57" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="178" customHeight="1">
@@ -3993,34 +4096,34 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4030,21 +4133,21 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -4054,10 +4157,10 @@
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
@@ -4065,28 +4168,28 @@
         <v>41</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>277</v>
+        <v>563</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -4094,28 +4197,28 @@
         <v>41</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="178" customHeight="1">
       <c r="B80" s="11" t="s">
-        <v>282</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>84</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -4123,15 +4226,15 @@
         <v>41</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="B84" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="178" customHeight="1">
@@ -4139,34 +4242,34 @@
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -4176,21 +4279,21 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -4200,10 +4303,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -4211,28 +4314,28 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="178" customHeight="1">
       <c r="B102" s="11" t="s">
-        <v>301</v>
+        <v>551</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -4240,54 +4343,31 @@
         <v>41</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="178" customHeight="1">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B49 B27 B23" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AA19:AD19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AD23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AD27</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B97 B70 B53 B35" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
-      <formula1>AA49:AD49</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B93" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4295,35 +4375,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="150.7265625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4334,10 +4416,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -4345,10 +4427,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -4356,15 +4438,15 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
@@ -4372,126 +4454,126 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>84</v>
+        <v>305</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
@@ -4501,76 +4583,73 @@
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>325</v>
+      </c>
       <c r="AA32" s="6" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>AA15:AD15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AD19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B28" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AC28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>AA32:AG32</formula1>
     </dataValidation>
   </dataValidations>
@@ -4579,35 +4658,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AE187"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B187" sqref="B187"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="150.7265625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4618,10 +4699,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4629,10 +4710,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4640,15 +4721,15 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -4656,178 +4737,178 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>84</v>
+        <v>365</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4837,10 +4918,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -4848,28 +4929,28 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="178" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>395</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4877,15 +4958,15 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="178" customHeight="1">
@@ -4893,23 +4974,23 @@
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -4917,28 +4998,28 @@
         <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="178" customHeight="1">
       <c r="B54" s="11" t="s">
-        <v>407</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -4946,61 +5027,64 @@
         <v>41</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="178" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="B63" s="11" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>554</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -5008,28 +5092,28 @@
         <v>41</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="178" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>423</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -5037,52 +5121,52 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="178" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>428</v>
+        <v>556</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
@@ -5092,21 +5176,21 @@
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -5116,70 +5200,70 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="B93" s="11" t="s">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AA93" s="6" t="s">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
@@ -5189,10 +5273,10 @@
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
@@ -5200,15 +5284,15 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="178" customHeight="1">
@@ -5216,70 +5300,70 @@
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
       <c r="B110" s="11" t="s">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AA110" s="6" t="s">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
@@ -5289,10 +5373,10 @@
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="24" customHeight="1">
@@ -5300,15 +5384,15 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
       <c r="B118" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:29" ht="178" customHeight="1">
@@ -5316,102 +5400,102 @@
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
       <c r="B127" s="11" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="AA127" s="6" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
       <c r="B135" s="11" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="AA135" s="6" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
@@ -5419,15 +5503,15 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:29" ht="178" customHeight="1">
@@ -5435,34 +5519,34 @@
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
@@ -5472,54 +5556,54 @@
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
       <c r="B152" s="11" t="s">
-        <v>84</v>
+        <v>474</v>
       </c>
       <c r="AA152" s="6" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="AC152" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5530,48 +5614,48 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="AD157" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -5581,10 +5665,10 @@
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5592,15 +5676,15 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="B169" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="178" customHeight="1">
@@ -5608,21 +5692,21 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5632,10 +5716,10 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5643,28 +5727,28 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="B178" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="178" customHeight="1">
       <c r="B179" s="11" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
@@ -5672,112 +5756,68 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
       <c r="B183" s="11" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
     </row>
     <row r="186" spans="1:29" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
-      <c r="B187" s="11"/>
+      <c r="B187" s="11" t="s">
+        <v>510</v>
+      </c>
       <c r="AA187" s="6" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="AC187" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA19:AE19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B187 B152 B135 B127 B63" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B157 B110 B93 B31" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>AA27:AD27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AD31</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B114 B97" xr:uid="{00000000-0002-0000-0500-000004000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AC63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81 B174 B165 B148 B85" xr:uid="{00000000-0002-0000-0500-000006000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>AA93:AD93</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
-      <formula1>AA110:AD110</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
-      <formula1>AA127:AC127</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AC135</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
-      <formula1>AA152:AC152</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B157">
-      <formula1>AA157:AD157</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B174">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
-      <formula1>AA187:AC187</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5785,35 +5825,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="150.7265625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5824,10 +5866,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5835,10 +5877,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5846,15 +5888,15 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
@@ -5862,57 +5904,57 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>84</v>
+        <v>525</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5921,29 +5963,33 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>558</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>AA15:AD15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AD20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>